--- a/GATEWAY/A1#111#INFOGRAMMASRLX1/INFOGRAMMA/GALENUS/2024.1/report-checklist.xlsx
+++ b/GATEWAY/A1#111#INFOGRAMMASRLX1/INFOGRAMMA/GALENUS/2024.1/report-checklist.xlsx
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$36</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$32</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="214">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="199">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -361,31 +361,9 @@
     <t>VALIDAZIONE_RSA_TIMEOUT</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT1</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT2</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT3</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT4</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT5_KO</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 5" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT6_KO</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT7_KO</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT8_KO</t>
   </si>
   <si>
@@ -393,9 +371,6 @@
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT10_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT11_KO</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT12_KO</t>
@@ -442,9 +417,6 @@
     <t>VALIDAZIONE_CDA2_RSA_CT23_KO</t>
   </si>
   <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT0</t>
-  </si>
-  <si>
     <t>ID TEST CASE OK</t>
   </si>
   <si>
@@ -452,48 +424,6 @@
   </si>
   <si>
     <t>Validazione</t>
-  </si>
-  <si>
-    <t>1,2,3,4,5,368</t>
-  </si>
-  <si>
-    <t>28,36,44,52,53,54,55,56,57,58,59,60,61,62</t>
-  </si>
-  <si>
-    <t>6,7,8,9,369</t>
-  </si>
-  <si>
-    <t>29,37,45,63,64,65,66,67,68,69,70,71,72,73,74</t>
-  </si>
-  <si>
-    <t>31,39,47,75,76,77,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93</t>
-  </si>
-  <si>
-    <t>16,17,18,19,371</t>
-  </si>
-  <si>
-    <t>33,41,49,94,95,96,97,98,99,100,101,102,103,104,105,106</t>
-  </si>
-  <si>
-    <t>20,21,22,23,372</t>
-  </si>
-  <si>
-    <t>34,42,50,107,108,109,110,111,112,113,114,115,116,117,118,119,120,121</t>
-  </si>
-  <si>
-    <t>24,25,26,27,373</t>
-  </si>
-  <si>
-    <t>35,43,51,122,123,124,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146</t>
-  </si>
-  <si>
-    <t>147,148,149,150,374</t>
-  </si>
-  <si>
-    <t>32,40,48,151,152,153,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169</t>
-  </si>
-  <si>
-    <t>30,38,46,174,175,176,177,178,179,180,181,182,183,184,185,186,187,188,189,190</t>
   </si>
   <si>
     <t>LAB - TRASF</t>
@@ -602,18 +532,6 @@
     <t>RAP</t>
   </si>
   <si>
-    <t>417, 418, 419</t>
-  </si>
-  <si>
-    <t>8.2.1</t>
-  </si>
-  <si>
-    <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS, RAP e RAD, i relativi casi di test con id 444, 417, 446, che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
-  </si>
-  <si>
-    <t>423,424,425,426,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,448,449</t>
-  </si>
-  <si>
     <t>TIPO DOCUMENTO</t>
   </si>
   <si>
@@ -653,35 +571,11 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 23" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 1" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 2" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 3" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 4" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
-  </si>
-  <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 6" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 7" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 8" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
@@ -693,182 +587,132 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 11" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
     <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t xml:space="preserve">Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 0" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.
-</t>
+    <t>448, 449</t>
+  </si>
+  <si>
+    <t>450, 451</t>
+  </si>
+  <si>
+    <t>454, 455</t>
+  </si>
+  <si>
+    <t>456, 457</t>
+  </si>
+  <si>
+    <t>458, 459</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT24</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT25</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 24" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation", al fine di una futura pubblicazione, con esito positivo (status code 201), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Il Documento CDA2 Referto Specialistica Ambulatoriale dovrà essere composto in modo da risultare valido dal punto di vista sintattico, semantico, terminologico. I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso dalla sezione "CASO DI TEST 25" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_OK" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 26" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT26_KO</t>
+  </si>
+  <si>
+    <t>4, 452</t>
+  </si>
+  <si>
+    <t>417, 418, 419, 460</t>
+  </si>
+  <si>
+    <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS, RAP, RAD, RSA, LDO, LAB, VPS, SING_VACC, CERT_VACC i relativi casi di test con id 444, 417, 418, 460, 446, 448, 450, 452,454, 456, 457, 458 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
+  </si>
+  <si>
+    <t>8.2.4</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT27_KO</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori sintattici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>28,36,44,53,55,56,57,58,59,60,61,62, 466</t>
+  </si>
+  <si>
+    <t>29,37,45,64,66,67,68,69,70,71,72,73,74, 467</t>
+  </si>
+  <si>
+    <t>31,39,47,76,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93, 462</t>
+  </si>
+  <si>
+    <t>33,41,49,95,97,98,99,100,101,102,103,104,105,106, 464</t>
+  </si>
+  <si>
+    <t>34,42,50,108,110,111,112,113,114,115,116,117,118,119,120,121, 465</t>
+  </si>
+  <si>
+    <t>35,43,51,123,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146, 463</t>
+  </si>
+  <si>
+    <t>32,40,48,152,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169, 461, 468</t>
+  </si>
+  <si>
+    <t>30,38,46,175,177,178,179,180,181,182,183,184,185,186,187,188,189,190, 469</t>
+  </si>
+  <si>
+    <t>423,424,425,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,448,449, 470</t>
+  </si>
+  <si>
+    <t>subject_application_version: 2024.1</t>
+  </si>
+  <si>
+    <t>subject_application_vendor:  INFOGRAMMA</t>
   </si>
   <si>
     <t>subject_application_id: GALENUS</t>
   </si>
   <si>
-    <t>subject_application_vendor: INFOGRAMMA</t>
-  </si>
-  <si>
-    <t>subject_application_version: 2024.1</t>
+    <t>Infogramma s.r.l.</t>
+  </si>
+  <si>
+    <t>8648531cfa1cf358</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore durante la validazione del CDA (FSE)
+Campo token JWT non valido (Il campo purpose_of_use non è valorizzato)
+Contattare al più presto l'assistenza tecnica!
+Sì vuole proseguire con la refertazione?  </t>
   </si>
   <si>
     <t>L'utente riceve un avviso relativo all'errore ma può comunque portare a termine la produzione del referto. Il documento da validare viene aggiunto ad una coda gestita in backoffice. Un'apposita interfaccia consente la gestione 'manuale' di tutti i documenti presenti nella coda di retry.</t>
   </si>
   <si>
-    <t>UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t>2024-12-15T16:46:58Z</t>
-  </si>
-  <si>
-    <t>52243773a8bd83e5</t>
-  </si>
-  <si>
-    <t>2024-12-15T16:48:39Z</t>
-  </si>
-  <si>
-    <t>41bf171afc7750ae</t>
-  </si>
-  <si>
-    <t>2024-12-15T16:50:09Z</t>
-  </si>
-  <si>
-    <t>3c5600ec348958ca</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.cd9b51d41ca8ef3f8101ec8abb0f600a4a98602eff02cf473429768c07e61634.01c7c3e9ce^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-12-15T16:58:51Z</t>
-  </si>
-  <si>
-    <t>1e8c0812a56166b0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.cd9b51d41ca8ef3f8101ec8abb0f600a4a98602eff02cf473429768c07e61634.c23f6a7f22^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-12-15T17:02:53Z</t>
-  </si>
-  <si>
-    <t>e55ee6022456021d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.cd9b51d41ca8ef3f8101ec8abb0f600a4a98602eff02cf473429768c07e61634.2ff75a5e54^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-12-15T17:04:20Z</t>
-  </si>
-  <si>
-    <t>ec0f976be38d6791</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.cd9b51d41ca8ef3f8101ec8abb0f600a4a98602eff02cf473429768c07e61634.5a18c105f5^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-12-15T17:06:21Z</t>
-  </si>
-  <si>
-    <t>0f81603de4bf62ae</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.cd9b51d41ca8ef3f8101ec8abb0f600a4a98602eff02cf473429768c07e61634.b28e67318f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-12-15T17:08:07Z</t>
-  </si>
-  <si>
-    <t>8d2d627113ec7227</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.cd9b51d41ca8ef3f8101ec8abb0f600a4a98602eff02cf473429768c07e61634.92e4414287^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-12-15T17:13:00Z</t>
-  </si>
-  <si>
-    <t>141b2e65cf1e0c22</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.cd9b51d41ca8ef3f8101ec8abb0f600a4a98602eff02cf473429768c07e61634.065619c2c7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-12-15T17:14:57Z</t>
-  </si>
-  <si>
-    <t>b94f509ccf8a210b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.cd9b51d41ca8ef3f8101ec8abb0f600a4a98602eff02cf473429768c07e61634.f295ac4bb1^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-12-15T17:25:48Z</t>
-  </si>
-  <si>
-    <t>e0007e8f20a1e82c</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.cd9b51d41ca8ef3f8101ec8abb0f600a4a98602eff02cf473429768c07e61634.346c58f674^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-12-15T17:29:49Z</t>
-  </si>
-  <si>
-    <t>6222fdf12da341d1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.cd9b51d41ca8ef3f8101ec8abb0f600a4a98602eff02cf473429768c07e61634.b61144144a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-12-15T17:32:06Z</t>
-  </si>
-  <si>
-    <t>f0584f0114346756</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.cd9b51d41ca8ef3f8101ec8abb0f600a4a98602eff02cf473429768c07e61634.86ef60e6ed^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-12-15T17:34:08Z</t>
-  </si>
-  <si>
-    <t>395b37ed2d9f5fe7</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.cd9b51d41ca8ef3f8101ec8abb0f600a4a98602eff02cf473429768c07e61634.8b3a362f7c^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-12-15T17:37:46Z</t>
-  </si>
-  <si>
-    <t>f3eb4da2bb8ed068</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.cd9b51d41ca8ef3f8101ec8abb0f600a4a98602eff02cf473429768c07e61634.8c83c8f0e8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-12-15T17:39:50Z</t>
-  </si>
-  <si>
-    <t>c7785f634df17896</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.cd9b51d41ca8ef3f8101ec8abb0f600a4a98602eff02cf473429768c07e61634.46bf094eae^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2024-12-15T17:42:16Z</t>
-  </si>
-  <si>
-    <t>05807301de52d1a9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.cd9b51d41ca8ef3f8101ec8abb0f600a4a98602eff02cf473429768c07e61634.201cc1c871^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Infogramma s.r.l.</t>
+    <t>2025-03-17T21:23:25Z</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:23:43Z</t>
+  </si>
+  <si>
+    <t>98ea497cdbd68cdc</t>
+  </si>
+  <si>
+    <t>Errore durante la validazione del CDA (FSE)
+Campo token JWT non valido (Il campo action_id non è corretto)
+Contattare al più presto l'assistenza tecnica!
+Sì vuole proseguire con la refertazione?</t>
   </si>
   <si>
     <t>Errore durante la validazione del CDA (FSE)
@@ -877,16 +721,73 @@
 Sì vuole proseguire con la refertazione?</t>
   </si>
   <si>
+    <t>2025-03-17T21:24:33Z</t>
+  </si>
+  <si>
+    <t>a2be71c125b240ea</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.ae884a7a81ef9b960405754b340129ba37fce7bdf1b4b6dcc044006ddc79acf3.49a93f20ae^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>Errore durante la validazione del CDA (FSE)
-Campo token JWT non valido (Il campo action_id non è corretto)
+Il documento CDA non è valido (Errore semantico.) 
 Contattare al più presto l'assistenza tecnica!
 Sì vuole proseguire con la refertazione?</t>
   </si>
   <si>
-    <t xml:space="preserve">Errore durante la validazione del CDA (FSE)
-Campo token JWT non valido (Il campo purpose_of_use non è valorizzato)
+    <t>L'utente riceve un avviso relativo all'errore ma può comunque portare a termine la produzione del referto. Un'apposita interfaccia consente la gestione 'manuale' di tutti i documenti con CDA non valido.</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:24:46Z</t>
+  </si>
+  <si>
+    <t>d3321a7ccd201990</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.d43d1d0f7fdca65c02c3e0f69ac8b5b687e27cd24efe3a7e5a2aef5bfa0369fa.ab65644638^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:24:59Z</t>
+  </si>
+  <si>
+    <t>6821bbdac0017fab</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.9ae89f89af5f86e20fe71b56b4c64d027e8a50904507a484b39b4f1e1c6e8ff4.8242c528b6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:25:11Z</t>
+  </si>
+  <si>
+    <t>00195a26bbd98946</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.de2f6446b7a7af86e5e381c364fe0306f1581b912bdd78bdd802f4f204efd9c3.dea544ebc7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>Errore durante la validazione del CDA (FSE)
+Il documento CDA non è valido (Errore vocabolario.) 
 Contattare al più presto l'assistenza tecnica!
-Sì vuole proseguire con la refertazione?  </t>
+Sì vuole proseguire con la refertazione?</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:25:38Z</t>
+  </si>
+  <si>
+    <t>a5088b91a345c9d6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.8d5e96c54e27de290bf7d214d63b924a6e782888d6dccebea393c0875a5ed28c.cc50fccd5e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:25:47Z</t>
+  </si>
+  <si>
+    <t>eb24f39068400c67</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.726799fff79a3487b0df91acd85dfe13ea27c136d61fabd5af9911080cf586f5.5cd01125a2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore durante la validazione del CDA (FSE)
@@ -895,34 +796,79 @@
 Sì vuole proseguire con la refertazione?</t>
   </si>
   <si>
-    <t>Errore durante la validazione del CDA (FSE)
-Il documento CDA non è valido (Errore vocabolario.) 
-Contattare al più presto l'assistenza tecnica!
-Sì vuole proseguire con la refertazione?</t>
-  </si>
-  <si>
-    <t>Errore durante la validazione del CDA (FSE)
-Il documento CDA non è valido (Errore semantico.) 
-Contattare al più presto l'assistenza tecnica!
-Sì vuole proseguire con la refertazione?</t>
-  </si>
-  <si>
-    <t>L'utente riceve un avviso relativo all'errore ma può comunque portare a termine la produzione del referto. Un'apposita interfaccia consente la gestione 'manuale' di tutti i documenti con CDA non valido.</t>
+    <t>2025-03-17T21:25:55Z</t>
+  </si>
+  <si>
+    <t>07c04f4d89b51fc5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.64c8abdc66ef0deafc7e4f85901ada50d210cf583eedf427655f4097770658f0.d5cd6b2f8f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:26:05</t>
+  </si>
+  <si>
+    <t>6222fdf12da341d1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.cd9b51d41ca8ef3f8101ec8abb0f600a4a98602eff02cf473429768c07e61634.b61144144a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:26:18Z</t>
+  </si>
+  <si>
+    <t>04461a8454455c34</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a85c8ccd4750cc961f30697ab496e5bd30de20dd5718492ded1d2038bf1814a9.b8f7a33919^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:26:40Z</t>
+  </si>
+  <si>
+    <t>97c3413300dd9960</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.9ed33c8de1d38d664fe58afee02706724db0307e74be0ee83c855f2ba2191306.eec1bafc88^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>L'applicativo non gestisce alcuni campi del CDA opzionali ma richiesti per il test (ad esempio: ClinicalDocument/component/structuredBody/component/section[@ID=Storia_Clinica])</t>
   </si>
   <si>
-    <t>L'applicativo non gestisce alcuni campi del CDA opzionali ma richiesti per il test (ad esempio: ClinicalDocument/component/structuredBody/component/section[@ID=Prestazioni]/entry/act/entryRelationship)</t>
-  </si>
-  <si>
-    <t>L'applicativo non gestisce alcuni campi del CDA opzionali ma richiesti per il test (ad esempio: ClinicalDocument/component/structuredBody/component/section[@ID=Confronto_con_Precedenti_Esami_Eseguiti]</t>
-  </si>
-  <si>
-    <t>L'applicativo non gestisce alcuni campi del CDA opzionali ma richiesti per il test (ad esempio: ClinicalDocument/component/structuredBody/component/section[@ID=Storia_Clinica]</t>
-  </si>
-  <si>
-    <t>L'applicativo non gestisce alcuni campi del CDA opzionali ma richiesti per il test (ad esempio: ClinicalDocument/dataEnterer)</t>
+    <t>2025-03-17T21:27:15Z</t>
+  </si>
+  <si>
+    <t>b4045f0cd0265651</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.30bb5e36beee0e0d6fed722ee139986962e9cc3fc56b858deac990607634bab0.0997a11c64^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:27:28Z</t>
+  </si>
+  <si>
+    <t>59901ad537b5f29a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.da2671aecddbe1217020df1d29088cdd1741a6daf1a353ae8620406cc690b6c2.626f3681aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:27:41</t>
+  </si>
+  <si>
+    <t>cba2bad1685ce900</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.f3823c9982db93a45684780eb1e0749c1a25c4ef0b5893783e5f30644c8dfcf7.ecb8f541e6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-03-18T08:21:22Z</t>
+  </si>
+  <si>
+    <t>81520445550fc61a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.c3929313c20e9918d5ec3d353c48422b59e39d5207a6cf1bf4c9a44a83b4cdd0.f220b17b2f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -932,7 +878,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1043,6 +989,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -1064,7 +1016,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1084,21 +1036,6 @@
       </top>
       <bottom style="thick">
         <color rgb="FFFFFFFF"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1206,34 +1143,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right/>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right style="medium">
         <color indexed="64"/>
@@ -1251,6 +1160,21 @@
         <color indexed="64"/>
       </left>
       <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
       <top style="medium">
         <color indexed="64"/>
       </top>
@@ -1294,49 +1218,6 @@
       </right>
       <top style="medium">
         <color indexed="64"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color indexed="64"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -1431,12 +1312,40 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF000000"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1446,7 +1355,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
@@ -1462,19 +1371,19 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1482,88 +1391,110 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1861,8 +1792,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1878,7 +1809,7 @@
     </row>
     <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>119</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
@@ -1888,22 +1819,22 @@
     </row>
     <row r="4" spans="1:1" ht="45" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="300" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>116</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>117</v>
+        <v>94</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>118</v>
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -2001,7 +1932,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>115</v>
+        <v>92</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -3007,13 +2938,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W620"/>
+  <dimension ref="A1:W597"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="O10" activePane="bottomRight" state="frozen"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="1" ySplit="9" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="O1" sqref="O1"/>
+      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3055,14 +2986,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="42" t="s">
+      <c r="A2" s="46" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="43"/>
-      <c r="C2" s="44" t="s">
-        <v>201</v>
-      </c>
-      <c r="D2" s="43"/>
+      <c r="B2" s="47"/>
+      <c r="C2" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" s="47"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3083,14 +3014,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="46"/>
-      <c r="C3" s="51" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="43"/>
+      <c r="B3" s="50"/>
+      <c r="C3" s="55" t="s">
+        <v>141</v>
+      </c>
+      <c r="D3" s="47"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3111,12 +3042,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="47"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="51" t="s">
-        <v>148</v>
-      </c>
-      <c r="D4" s="43"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="52"/>
+      <c r="C4" s="55" t="s">
+        <v>140</v>
+      </c>
+      <c r="D4" s="47"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3138,12 +3069,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="49"/>
-      <c r="B5" s="50"/>
-      <c r="C5" s="51" t="s">
-        <v>149</v>
-      </c>
-      <c r="D5" s="43"/>
+      <c r="A5" s="53"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="55" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" s="47"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3164,8 +3095,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="40"/>
-      <c r="B6" s="41"/>
+      <c r="A6" s="44"/>
+      <c r="B6" s="45"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3264,7 +3195,7 @@
         <v>24</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>101</v>
+        <v>78</v>
       </c>
       <c r="M9" s="20" t="s">
         <v>25</v>
@@ -3279,10 +3210,10 @@
         <v>28</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>102</v>
+        <v>79</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>103</v>
+        <v>80</v>
       </c>
       <c r="S9" s="20" t="s">
         <v>29</v>
@@ -3300,1470 +3231,1362 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="187.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="29">
+    <row r="10" spans="1:23" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="31">
         <v>32</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="30" t="s">
+      <c r="C10" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="30" t="s">
+      <c r="D10" s="31" t="s">
         <v>46</v>
       </c>
-      <c r="E10" s="31" t="s">
+      <c r="E10" s="32" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="32">
-        <v>45641</v>
+      <c r="F10" s="56">
+        <v>45733</v>
       </c>
       <c r="G10" s="33" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H10" s="33" t="s">
-        <v>153</v>
-      </c>
-      <c r="I10" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="J10" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="I10" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="J10" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="34"/>
-      <c r="M10" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="N10" s="34" t="s">
+      <c r="K10" s="29"/>
+      <c r="L10" s="29"/>
+      <c r="M10" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N10" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="O10" s="34" t="s">
-        <v>204</v>
-      </c>
-      <c r="P10" s="34" t="s">
+      <c r="O10" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="P10" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Q10" s="34" t="s">
+      <c r="Q10" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="R10" s="34" t="s">
+      <c r="R10" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="S10" s="34" t="s">
+      <c r="S10" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="T10" s="29"/>
+      <c r="U10" s="34"/>
+      <c r="V10" s="35"/>
+      <c r="W10" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="31">
+        <v>40</v>
+      </c>
+      <c r="B11" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D11" s="31" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="32" t="s">
+        <v>47</v>
+      </c>
+      <c r="F11" s="33">
+        <v>45733</v>
+      </c>
+      <c r="G11" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="H11" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="J11" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K11" s="29"/>
+      <c r="L11" s="29"/>
+      <c r="M11" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N11" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="O11" s="58" t="s">
         <v>150</v>
       </c>
-      <c r="T10" s="34"/>
-      <c r="U10" s="35"/>
-      <c r="V10" s="36"/>
-      <c r="W10" s="37" t="s">
+      <c r="P11" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q11" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="R11" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="S11" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="T11" s="29"/>
+      <c r="U11" s="34"/>
+      <c r="V11" s="35"/>
+      <c r="W11" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="180.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="29">
-        <v>40</v>
-      </c>
-      <c r="B11" s="30" t="s">
+    <row r="12" spans="1:23" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="31">
+        <v>48</v>
+      </c>
+      <c r="B12" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="30" t="s">
+      <c r="C12" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="30" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="32">
-        <v>45641</v>
-      </c>
-      <c r="G11" s="33" t="s">
-        <v>154</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>155</v>
-      </c>
-      <c r="I11" s="33" t="s">
-        <v>151</v>
-      </c>
-      <c r="J11" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="34"/>
-      <c r="L11" s="34"/>
-      <c r="M11" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="N11" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" s="34" t="s">
-        <v>203</v>
-      </c>
-      <c r="P11" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q11" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="R11" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="S11" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="T11" s="34"/>
-      <c r="U11" s="35"/>
-      <c r="V11" s="36"/>
-      <c r="W11" s="37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="29">
-        <v>48</v>
-      </c>
-      <c r="B12" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="30" t="s">
+      <c r="D12" s="31" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="31" t="s">
-        <v>112</v>
-      </c>
-      <c r="F12" s="32"/>
+      <c r="E12" s="32" t="s">
+        <v>89</v>
+      </c>
+      <c r="F12" s="33">
+        <v>45733</v>
+      </c>
       <c r="G12" s="33"/>
       <c r="H12" s="33"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="34" t="s">
+      <c r="I12" s="37"/>
+      <c r="J12" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="K12" s="34"/>
-      <c r="L12" s="34"/>
-      <c r="M12" s="34" t="s">
+      <c r="K12" s="29"/>
+      <c r="L12" s="29"/>
+      <c r="M12" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N12" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="O12" s="58" t="s">
+        <v>151</v>
+      </c>
+      <c r="P12" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q12" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="R12" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="S12" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="T12" s="29"/>
+      <c r="U12" s="34"/>
+      <c r="V12" s="35"/>
+      <c r="W12" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="31">
+        <v>152</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="E13" s="32" t="s">
+        <v>108</v>
+      </c>
+      <c r="F13" s="33">
+        <v>45733</v>
+      </c>
+      <c r="G13" s="33" t="s">
+        <v>152</v>
+      </c>
+      <c r="H13" s="33" t="s">
+        <v>153</v>
+      </c>
+      <c r="I13" s="37" t="s">
+        <v>154</v>
+      </c>
+      <c r="J13" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K13" s="29"/>
+      <c r="L13" s="29"/>
+      <c r="M13" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N13" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="O13" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="P13" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q13" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="R13" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="S13" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="T13" s="29"/>
+      <c r="U13" s="34"/>
+      <c r="V13" s="35"/>
+      <c r="W13" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="31">
+        <v>154</v>
+      </c>
+      <c r="B14" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D14" s="31" t="s">
+        <v>52</v>
+      </c>
+      <c r="E14" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="F14" s="33">
+        <v>45733</v>
+      </c>
+      <c r="G14" s="33" t="s">
+        <v>157</v>
+      </c>
+      <c r="H14" s="33" t="s">
+        <v>158</v>
+      </c>
+      <c r="I14" s="37" t="s">
+        <v>159</v>
+      </c>
+      <c r="J14" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K14" s="29"/>
+      <c r="L14" s="29"/>
+      <c r="M14" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N14" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="P14" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q14" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="R14" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="S14" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="T14" s="29"/>
+      <c r="U14" s="34"/>
+      <c r="V14" s="35"/>
+      <c r="W14" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="31">
+        <v>155</v>
+      </c>
+      <c r="B15" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="31" t="s">
+        <v>53</v>
+      </c>
+      <c r="E15" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" s="33">
+        <v>45733</v>
+      </c>
+      <c r="G15" s="33" t="s">
+        <v>160</v>
+      </c>
+      <c r="H15" s="33" t="s">
+        <v>161</v>
+      </c>
+      <c r="I15" s="37" t="s">
+        <v>162</v>
+      </c>
+      <c r="J15" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K15" s="29"/>
+      <c r="L15" s="29"/>
+      <c r="M15" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N15" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="O15" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="P15" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q15" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="R15" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="S15" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="T15" s="29"/>
+      <c r="U15" s="34"/>
+      <c r="V15" s="35"/>
+      <c r="W15" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="31">
+        <v>156</v>
+      </c>
+      <c r="B16" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D16" s="31" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="32" t="s">
+        <v>111</v>
+      </c>
+      <c r="F16" s="33">
+        <v>45733</v>
+      </c>
+      <c r="G16" s="33" t="s">
+        <v>163</v>
+      </c>
+      <c r="H16" s="33" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" s="37" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K16" s="29"/>
+      <c r="L16" s="29"/>
+      <c r="M16" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N16" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="O16" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="P16" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q16" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="R16" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="S16" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="T16" s="29"/>
+      <c r="U16" s="34"/>
+      <c r="V16" s="35"/>
+      <c r="W16" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="31">
+        <v>158</v>
+      </c>
+      <c r="B17" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D17" s="31" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="32" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" s="33">
+        <v>45733</v>
+      </c>
+      <c r="G17" s="33" t="s">
+        <v>167</v>
+      </c>
+      <c r="H17" s="33" t="s">
+        <v>168</v>
+      </c>
+      <c r="I17" s="37" t="s">
+        <v>169</v>
+      </c>
+      <c r="J17" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K17" s="29"/>
+      <c r="L17" s="29"/>
+      <c r="M17" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N17" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="O17" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="P17" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q17" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="R17" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="S17" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="T17" s="29"/>
+      <c r="U17" s="34"/>
+      <c r="V17" s="35"/>
+      <c r="W17" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="31">
+        <v>159</v>
+      </c>
+      <c r="B18" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D18" s="31" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="32" t="s">
+        <v>57</v>
+      </c>
+      <c r="F18" s="33">
+        <v>45733</v>
+      </c>
+      <c r="G18" s="33" t="s">
+        <v>170</v>
+      </c>
+      <c r="H18" s="33" t="s">
+        <v>171</v>
+      </c>
+      <c r="I18" s="37" t="s">
+        <v>172</v>
+      </c>
+      <c r="J18" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K18" s="29"/>
+      <c r="L18" s="29"/>
+      <c r="M18" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N18" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="O18" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="P18" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q18" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="R18" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="S18" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="T18" s="29"/>
+      <c r="U18" s="34"/>
+      <c r="V18" s="35"/>
+      <c r="W18" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31">
+        <v>160</v>
+      </c>
+      <c r="B19" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D19" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="E19" s="32" t="s">
+        <v>59</v>
+      </c>
+      <c r="F19" s="33">
+        <v>45733</v>
+      </c>
+      <c r="G19" s="33" t="s">
+        <v>174</v>
+      </c>
+      <c r="H19" s="33" t="s">
+        <v>175</v>
+      </c>
+      <c r="I19" s="37" t="s">
+        <v>176</v>
+      </c>
+      <c r="J19" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K19" s="29"/>
+      <c r="L19" s="29"/>
+      <c r="M19" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N19" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="O19" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="P19" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q19" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="R19" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="S19" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="T19" s="29"/>
+      <c r="U19" s="34"/>
+      <c r="V19" s="35"/>
+      <c r="W19" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="31">
+        <v>161</v>
+      </c>
+      <c r="B20" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D20" s="31" t="s">
+        <v>60</v>
+      </c>
+      <c r="E20" s="32" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="33">
+        <v>45733</v>
+      </c>
+      <c r="G20" s="33" t="s">
+        <v>177</v>
+      </c>
+      <c r="H20" s="59" t="s">
+        <v>178</v>
+      </c>
+      <c r="I20" s="59" t="s">
+        <v>179</v>
+      </c>
+      <c r="J20" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K20" s="29"/>
+      <c r="L20" s="29"/>
+      <c r="M20" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N20" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="O20" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="P20" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q20" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="R20" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="S20" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="T20" s="29"/>
+      <c r="U20" s="34"/>
+      <c r="V20" s="35"/>
+      <c r="W20" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="31">
+        <v>162</v>
+      </c>
+      <c r="B21" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D21" s="31" t="s">
+        <v>61</v>
+      </c>
+      <c r="E21" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="N12" s="34" t="s">
+      <c r="F21" s="33">
+        <v>45733</v>
+      </c>
+      <c r="G21" s="33" t="s">
+        <v>180</v>
+      </c>
+      <c r="H21" s="33" t="s">
+        <v>181</v>
+      </c>
+      <c r="I21" s="37" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="O12" s="34" t="s">
-        <v>202</v>
-      </c>
-      <c r="P12" s="34" t="s">
+      <c r="K21" s="29"/>
+      <c r="L21" s="29"/>
+      <c r="M21" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N21" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Q12" s="34" t="s">
+      <c r="O21" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="P21" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="R12" s="34" t="s">
+      <c r="Q21" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="R21" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="S12" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="T12" s="34"/>
-      <c r="U12" s="35"/>
-      <c r="V12" s="36"/>
-      <c r="W12" s="37" t="s">
+      <c r="S21" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="T21" s="29"/>
+      <c r="U21" s="34"/>
+      <c r="V21" s="35"/>
+      <c r="W21" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="29">
-        <v>147</v>
-      </c>
-      <c r="B13" s="30" t="s">
+    <row r="22" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31">
+        <v>163</v>
+      </c>
+      <c r="B22" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C13" s="30" t="s">
+      <c r="C22" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="30" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="31" t="s">
-        <v>135</v>
-      </c>
-      <c r="F13" s="32"/>
-      <c r="G13" s="33"/>
-      <c r="H13" s="33"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="K13" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="L13" s="34" t="s">
-        <v>210</v>
-      </c>
-      <c r="M13" s="34"/>
-      <c r="N13" s="34"/>
-      <c r="O13" s="34"/>
-      <c r="P13" s="34"/>
-      <c r="Q13" s="34"/>
-      <c r="R13" s="34"/>
-      <c r="S13" s="34"/>
-      <c r="T13" s="34"/>
-      <c r="U13" s="35"/>
-      <c r="V13" s="36"/>
-      <c r="W13" s="37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="29">
-        <v>148</v>
-      </c>
-      <c r="B14" s="30" t="s">
+      <c r="D22" s="31" t="s">
+        <v>62</v>
+      </c>
+      <c r="E22" s="32" t="s">
+        <v>101</v>
+      </c>
+      <c r="F22" s="33">
+        <v>45733</v>
+      </c>
+      <c r="G22" s="33" t="s">
+        <v>183</v>
+      </c>
+      <c r="H22" s="33" t="s">
+        <v>184</v>
+      </c>
+      <c r="I22" s="37" t="s">
+        <v>185</v>
+      </c>
+      <c r="J22" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K22" s="29"/>
+      <c r="L22" s="29"/>
+      <c r="M22" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N22" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="O22" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="P22" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q22" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="R22" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="S22" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="T22" s="29"/>
+      <c r="U22" s="34"/>
+      <c r="V22" s="35"/>
+      <c r="W22" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31">
+        <v>164</v>
+      </c>
+      <c r="B23" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C14" s="30" t="s">
+      <c r="C23" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="30" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="31" t="s">
-        <v>136</v>
-      </c>
-      <c r="F14" s="32"/>
-      <c r="G14" s="33"/>
-      <c r="H14" s="33"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="K14" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="L14" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="M14" s="34"/>
-      <c r="N14" s="34"/>
-      <c r="O14" s="34"/>
-      <c r="P14" s="34"/>
-      <c r="Q14" s="34"/>
-      <c r="R14" s="34"/>
-      <c r="S14" s="34"/>
-      <c r="T14" s="34"/>
-      <c r="U14" s="35"/>
-      <c r="V14" s="36"/>
-      <c r="W14" s="37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="29">
-        <v>149</v>
-      </c>
-      <c r="B15" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D15" s="30" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="31" t="s">
-        <v>137</v>
-      </c>
-      <c r="F15" s="32"/>
-      <c r="G15" s="33"/>
-      <c r="H15" s="33"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="K15" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="L15" s="34" t="s">
-        <v>211</v>
-      </c>
-      <c r="M15" s="34"/>
-      <c r="N15" s="34"/>
-      <c r="O15" s="34"/>
-      <c r="P15" s="34"/>
-      <c r="Q15" s="34"/>
-      <c r="R15" s="34"/>
-      <c r="S15" s="34"/>
-      <c r="T15" s="34"/>
-      <c r="U15" s="35"/>
-      <c r="V15" s="36"/>
-      <c r="W15" s="37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="150.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="29">
-        <v>150</v>
-      </c>
-      <c r="B16" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="30" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="31" t="s">
-        <v>138</v>
-      </c>
-      <c r="F16" s="32"/>
-      <c r="G16" s="33"/>
-      <c r="H16" s="33"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="K16" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="L16" s="34" t="s">
-        <v>212</v>
-      </c>
-      <c r="M16" s="34"/>
-      <c r="N16" s="34"/>
-      <c r="O16" s="34"/>
-      <c r="P16" s="34"/>
-      <c r="Q16" s="34"/>
-      <c r="R16" s="34"/>
-      <c r="S16" s="34"/>
-      <c r="T16" s="34"/>
-      <c r="U16" s="35"/>
-      <c r="V16" s="36"/>
-      <c r="W16" s="37" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="29">
-        <v>151</v>
-      </c>
-      <c r="B17" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="30" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="F17" s="32">
-        <v>45641</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>156</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="I17" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="J17" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="34"/>
-      <c r="L17" s="34"/>
-      <c r="M17" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="N17" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="O17" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="P17" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q17" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="R17" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="S17" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="T17" s="34"/>
-      <c r="U17" s="35"/>
-      <c r="V17" s="36"/>
-      <c r="W17" s="37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="29">
-        <v>152</v>
-      </c>
-      <c r="B18" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="30" t="s">
-        <v>57</v>
-      </c>
-      <c r="E18" s="31" t="s">
-        <v>139</v>
-      </c>
-      <c r="F18" s="32">
-        <v>45641</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>159</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="I18" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="J18" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="34"/>
-      <c r="L18" s="34"/>
-      <c r="M18" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="N18" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="O18" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="P18" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q18" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="R18" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="S18" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="T18" s="34"/>
-      <c r="U18" s="35"/>
-      <c r="V18" s="36"/>
-      <c r="W18" s="37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="29">
-        <v>153</v>
-      </c>
-      <c r="B19" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="30" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>140</v>
-      </c>
-      <c r="F19" s="32">
-        <v>45641</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>162</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="I19" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="J19" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="34"/>
-      <c r="L19" s="34"/>
-      <c r="M19" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="N19" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="O19" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="P19" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="R19" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="S19" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="T19" s="34"/>
-      <c r="U19" s="35"/>
-      <c r="V19" s="36"/>
-      <c r="W19" s="37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="29">
-        <v>154</v>
-      </c>
-      <c r="B20" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="30" t="s">
-        <v>59</v>
-      </c>
-      <c r="E20" s="31" t="s">
-        <v>141</v>
-      </c>
-      <c r="F20" s="32">
-        <v>45641</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>165</v>
-      </c>
-      <c r="H20" s="33" t="s">
-        <v>166</v>
-      </c>
-      <c r="I20" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="J20" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="34"/>
-      <c r="L20" s="34"/>
-      <c r="M20" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="N20" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="O20" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="P20" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="R20" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="S20" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="T20" s="34"/>
-      <c r="U20" s="35"/>
-      <c r="V20" s="36"/>
-      <c r="W20" s="37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="29">
-        <v>155</v>
-      </c>
-      <c r="B21" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="30" t="s">
-        <v>60</v>
-      </c>
-      <c r="E21" s="31" t="s">
-        <v>142</v>
-      </c>
-      <c r="F21" s="32">
-        <v>45641</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>169</v>
-      </c>
-      <c r="I21" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="J21" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21" s="34"/>
-      <c r="L21" s="34"/>
-      <c r="M21" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="N21" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="O21" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="P21" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q21" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="R21" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="S21" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="T21" s="34"/>
-      <c r="U21" s="35"/>
-      <c r="V21" s="36"/>
-      <c r="W21" s="37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="29">
-        <v>156</v>
-      </c>
-      <c r="B22" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="30" t="s">
-        <v>61</v>
-      </c>
-      <c r="E22" s="31" t="s">
-        <v>143</v>
-      </c>
-      <c r="F22" s="32">
-        <v>45641</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>172</v>
-      </c>
-      <c r="I22" s="33" t="s">
-        <v>173</v>
-      </c>
-      <c r="J22" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" s="34"/>
-      <c r="L22" s="34"/>
-      <c r="M22" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="N22" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="O22" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="P22" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q22" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="R22" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="S22" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="T22" s="34"/>
-      <c r="U22" s="35"/>
-      <c r="V22" s="36"/>
-      <c r="W22" s="37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="29">
-        <v>157</v>
-      </c>
-      <c r="B23" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="30" t="s">
-        <v>62</v>
-      </c>
-      <c r="E23" s="31" t="s">
-        <v>144</v>
-      </c>
-      <c r="F23" s="32"/>
+      <c r="D23" s="31" t="s">
+        <v>63</v>
+      </c>
+      <c r="E23" s="32" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" s="33"/>
       <c r="G23" s="33"/>
       <c r="H23" s="33"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="K23" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="L23" s="34" t="s">
-        <v>213</v>
-      </c>
-      <c r="M23" s="34"/>
-      <c r="N23" s="34"/>
-      <c r="O23" s="34"/>
-      <c r="P23" s="34"/>
-      <c r="Q23" s="34"/>
-      <c r="R23" s="34"/>
-      <c r="S23" s="34"/>
-      <c r="T23" s="34"/>
-      <c r="U23" s="35"/>
-      <c r="V23" s="36"/>
-      <c r="W23" s="37" t="s">
+      <c r="I23" s="37"/>
+      <c r="J23" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="K23" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="L23" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="M23" s="29"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="34"/>
+      <c r="V23" s="35"/>
+      <c r="W23" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="29">
-        <v>158</v>
-      </c>
-      <c r="B24" s="30" t="s">
+    <row r="24" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="31">
+        <v>165</v>
+      </c>
+      <c r="B24" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C24" s="30" t="s">
+      <c r="C24" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D24" s="30" t="s">
-        <v>63</v>
-      </c>
-      <c r="E24" s="31" t="s">
-        <v>145</v>
-      </c>
-      <c r="F24" s="32">
+      <c r="D24" s="31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="32" t="s">
+        <v>103</v>
+      </c>
+      <c r="F24" s="33"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="33"/>
+      <c r="I24" s="37"/>
+      <c r="J24" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="K24" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="L24" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="M24" s="29"/>
+      <c r="N24" s="29"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="34"/>
+      <c r="V24" s="35"/>
+      <c r="W24" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="31">
+        <v>166</v>
+      </c>
+      <c r="B25" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D25" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E25" s="32" t="s">
+        <v>104</v>
+      </c>
+      <c r="F25" s="33"/>
+      <c r="G25" s="33"/>
+      <c r="H25" s="33"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="K25" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="L25" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="M25" s="29"/>
+      <c r="N25" s="29"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="34"/>
+      <c r="V25" s="35"/>
+      <c r="W25" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="31">
+        <v>167</v>
+      </c>
+      <c r="B26" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D26" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="E26" s="32" t="s">
+        <v>105</v>
+      </c>
+      <c r="F26" s="33"/>
+      <c r="G26" s="33"/>
+      <c r="H26" s="33"/>
+      <c r="I26" s="37"/>
+      <c r="J26" s="29" t="s">
+        <v>77</v>
+      </c>
+      <c r="K26" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="L26" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="M26" s="29"/>
+      <c r="N26" s="29"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="34"/>
+      <c r="V26" s="35"/>
+      <c r="W26" s="29" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="31">
+        <v>168</v>
+      </c>
+      <c r="B27" s="31" t="s">
+        <v>34</v>
+      </c>
+      <c r="C27" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="D27" s="31" t="s">
+        <v>67</v>
+      </c>
+      <c r="E27" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="F27" s="56">
         <v>45641</v>
       </c>
-      <c r="G24" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="H24" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="I24" s="33" t="s">
-        <v>176</v>
-      </c>
-      <c r="J24" s="34" t="s">
+      <c r="G27" s="33" t="s">
+        <v>187</v>
+      </c>
+      <c r="H27" s="33" t="s">
+        <v>188</v>
+      </c>
+      <c r="I27" s="37" t="s">
+        <v>189</v>
+      </c>
+      <c r="J27" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="K24" s="34"/>
-      <c r="L24" s="34"/>
-      <c r="M24" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="N24" s="34" t="s">
+      <c r="K27" s="29"/>
+      <c r="L27" s="29"/>
+      <c r="M27" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N27" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="O24" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="P24" s="34" t="s">
+      <c r="O27" s="58" t="s">
+        <v>166</v>
+      </c>
+      <c r="P27" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Q24" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="R24" s="34" t="s">
+      <c r="Q27" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="R27" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="S24" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="T24" s="34"/>
-      <c r="U24" s="35"/>
-      <c r="V24" s="36"/>
-      <c r="W24" s="37" t="s">
+      <c r="S27" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="T27" s="29"/>
+      <c r="U27" s="34"/>
+      <c r="V27" s="35"/>
+      <c r="W27" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="29">
-        <v>159</v>
-      </c>
-      <c r="B25" s="30" t="s">
+    <row r="28" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="31">
+        <v>169</v>
+      </c>
+      <c r="B28" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C25" s="30" t="s">
+      <c r="C28" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D25" s="30" t="s">
-        <v>64</v>
-      </c>
-      <c r="E25" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="F25" s="32">
-        <v>45641</v>
-      </c>
-      <c r="G25" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="H25" s="33" t="s">
-        <v>178</v>
-      </c>
-      <c r="I25" s="33" t="s">
-        <v>179</v>
-      </c>
-      <c r="J25" s="34" t="s">
+      <c r="D28" s="31" t="s">
+        <v>68</v>
+      </c>
+      <c r="E28" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="F28" s="33">
+        <v>45733</v>
+      </c>
+      <c r="G28" s="33" t="s">
+        <v>190</v>
+      </c>
+      <c r="H28" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="I28" s="37" t="s">
+        <v>192</v>
+      </c>
+      <c r="J28" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="K25" s="34"/>
-      <c r="L25" s="34"/>
-      <c r="M25" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="N25" s="34" t="s">
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N28" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="O25" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="P25" s="34" t="s">
+      <c r="O28" s="58" t="s">
+        <v>155</v>
+      </c>
+      <c r="P28" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="Q25" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="R25" s="34" t="s">
+      <c r="Q28" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="R28" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="S25" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="T25" s="34"/>
-      <c r="U25" s="35"/>
-      <c r="V25" s="36"/>
-      <c r="W25" s="37" t="s">
+      <c r="S28" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="T28" s="29"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="35"/>
+      <c r="W28" s="29" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="29">
-        <v>160</v>
-      </c>
-      <c r="B26" s="30" t="s">
+    <row r="29" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="31">
+        <v>448</v>
+      </c>
+      <c r="B29" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C26" s="30" t="s">
+      <c r="C29" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D26" s="30" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="F26" s="32">
-        <v>45641</v>
-      </c>
-      <c r="G26" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="H26" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="I26" s="33" t="s">
-        <v>182</v>
-      </c>
-      <c r="J26" s="34" t="s">
+      <c r="D29" s="31" t="s">
+        <v>118</v>
+      </c>
+      <c r="E29" s="32" t="s">
+        <v>120</v>
+      </c>
+      <c r="F29" s="33">
+        <v>45733</v>
+      </c>
+      <c r="G29" s="33" t="s">
+        <v>193</v>
+      </c>
+      <c r="H29" s="33" t="s">
+        <v>194</v>
+      </c>
+      <c r="I29" s="37" t="s">
+        <v>195</v>
+      </c>
+      <c r="J29" s="58" t="s">
         <v>49</v>
       </c>
-      <c r="K26" s="34"/>
-      <c r="L26" s="34"/>
-      <c r="M26" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="N26" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="O26" s="34" t="s">
-        <v>205</v>
-      </c>
-      <c r="P26" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q26" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="R26" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="S26" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="T26" s="34"/>
-      <c r="U26" s="35"/>
-      <c r="V26" s="36"/>
-      <c r="W26" s="37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="29">
-        <v>161</v>
-      </c>
-      <c r="B27" s="30" t="s">
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="29"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="35"/>
+      <c r="W29" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="31">
+        <v>449</v>
+      </c>
+      <c r="B30" s="31" t="s">
         <v>34</v>
       </c>
-      <c r="C27" s="30" t="s">
+      <c r="C30" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="D27" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E27" s="31" t="s">
-        <v>126</v>
-      </c>
-      <c r="F27" s="32">
-        <v>45641</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="I27" s="33" t="s">
-        <v>185</v>
-      </c>
-      <c r="J27" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="34"/>
-      <c r="L27" s="34"/>
-      <c r="M27" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="N27" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="O27" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="P27" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q27" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="R27" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="S27" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="T27" s="34"/>
-      <c r="U27" s="35"/>
-      <c r="V27" s="36"/>
-      <c r="W27" s="37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="29">
-        <v>162</v>
-      </c>
-      <c r="B28" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="30" t="s">
-        <v>69</v>
-      </c>
-      <c r="E28" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F28" s="32">
-        <v>45641</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>186</v>
-      </c>
-      <c r="H28" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="I28" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="J28" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" s="34"/>
-      <c r="L28" s="34"/>
-      <c r="M28" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="N28" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="O28" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="P28" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q28" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="R28" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="S28" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="T28" s="34"/>
-      <c r="U28" s="35"/>
-      <c r="V28" s="36"/>
-      <c r="W28" s="37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="29">
-        <v>163</v>
-      </c>
-      <c r="B29" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="30" t="s">
-        <v>70</v>
-      </c>
-      <c r="E29" s="31" t="s">
-        <v>128</v>
-      </c>
-      <c r="F29" s="32">
-        <v>45641</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>189</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="I29" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="J29" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29" s="34"/>
-      <c r="L29" s="34"/>
-      <c r="M29" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="N29" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="O29" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="P29" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q29" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="R29" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="S29" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="T29" s="34"/>
-      <c r="U29" s="35"/>
-      <c r="V29" s="36"/>
-      <c r="W29" s="37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="29">
-        <v>164</v>
-      </c>
-      <c r="B30" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="30" t="s">
-        <v>71</v>
-      </c>
-      <c r="E30" s="31" t="s">
-        <v>129</v>
-      </c>
-      <c r="F30" s="32"/>
+      <c r="D30" s="31" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="32" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="33"/>
       <c r="G30" s="33"/>
       <c r="H30" s="33"/>
-      <c r="I30" s="33"/>
-      <c r="J30" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="K30" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="L30" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="M30" s="34"/>
-      <c r="N30" s="34"/>
-      <c r="O30" s="34"/>
-      <c r="P30" s="34"/>
-      <c r="Q30" s="34"/>
-      <c r="R30" s="34"/>
-      <c r="S30" s="34"/>
-      <c r="T30" s="34"/>
-      <c r="U30" s="35"/>
-      <c r="V30" s="36"/>
-      <c r="W30" s="37" t="s">
+      <c r="I30" s="37"/>
+      <c r="J30" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="K30" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="L30" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="M30" s="29"/>
+      <c r="N30" s="29"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="34"/>
+      <c r="V30" s="35"/>
+      <c r="W30" s="29" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="41">
+        <v>461</v>
+      </c>
+      <c r="B31" s="41" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="42" t="s">
+        <v>45</v>
+      </c>
+      <c r="D31" s="41" t="s">
+        <v>123</v>
+      </c>
+      <c r="E31" s="43" t="s">
+        <v>122</v>
+      </c>
+      <c r="F31" s="57"/>
+      <c r="G31" s="41"/>
+      <c r="H31" s="41"/>
+      <c r="I31" s="41"/>
+      <c r="J31" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="K31" s="58" t="s">
+        <v>88</v>
+      </c>
+      <c r="L31" s="58" t="s">
+        <v>186</v>
+      </c>
+      <c r="M31" s="41"/>
+      <c r="N31" s="41"/>
+      <c r="O31" s="41"/>
+      <c r="P31" s="41"/>
+      <c r="Q31" s="41"/>
+      <c r="R31" s="41"/>
+      <c r="S31" s="41"/>
+      <c r="T31" s="41"/>
+      <c r="U31" s="41"/>
+      <c r="V31" s="41"/>
+      <c r="W31" s="41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="31" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="29">
-        <v>165</v>
-      </c>
-      <c r="B31" s="30" t="s">
+    <row r="32" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="41">
+        <v>468</v>
+      </c>
+      <c r="B32" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C32" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="D31" s="30" t="s">
-        <v>72</v>
-      </c>
-      <c r="E31" s="31" t="s">
-        <v>130</v>
-      </c>
-      <c r="F31" s="32"/>
-      <c r="G31" s="33"/>
-      <c r="H31" s="33"/>
-      <c r="I31" s="33"/>
-      <c r="J31" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="K31" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="L31" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="M31" s="34"/>
-      <c r="N31" s="34"/>
-      <c r="O31" s="34"/>
-      <c r="P31" s="34"/>
-      <c r="Q31" s="34"/>
-      <c r="R31" s="34"/>
-      <c r="S31" s="34"/>
-      <c r="T31" s="34"/>
-      <c r="U31" s="35"/>
-      <c r="V31" s="36"/>
-      <c r="W31" s="37" t="s">
+      <c r="D32" s="41" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="43" t="s">
+        <v>129</v>
+      </c>
+      <c r="F32" s="57">
+        <v>45734</v>
+      </c>
+      <c r="G32" s="41" t="s">
+        <v>196</v>
+      </c>
+      <c r="H32" s="41" t="s">
+        <v>197</v>
+      </c>
+      <c r="I32" s="37" t="s">
+        <v>198</v>
+      </c>
+      <c r="J32" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="K32" s="41"/>
+      <c r="L32" s="41"/>
+      <c r="M32" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="N32" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="O32" s="58" t="s">
+        <v>173</v>
+      </c>
+      <c r="P32" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q32" s="58" t="s">
+        <v>77</v>
+      </c>
+      <c r="R32" s="58" t="s">
+        <v>49</v>
+      </c>
+      <c r="S32" s="58" t="s">
+        <v>156</v>
+      </c>
+      <c r="T32" s="41"/>
+      <c r="U32" s="41"/>
+      <c r="V32" s="41"/>
+      <c r="W32" s="41" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="32" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="29">
-        <v>166</v>
-      </c>
-      <c r="B32" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="30" t="s">
-        <v>73</v>
-      </c>
-      <c r="E32" s="31" t="s">
-        <v>131</v>
-      </c>
-      <c r="F32" s="32"/>
-      <c r="G32" s="33"/>
-      <c r="H32" s="33"/>
-      <c r="I32" s="33"/>
-      <c r="J32" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="K32" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="L32" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="M32" s="34"/>
-      <c r="N32" s="34"/>
-      <c r="O32" s="34"/>
-      <c r="P32" s="34"/>
-      <c r="Q32" s="34"/>
-      <c r="R32" s="34"/>
-      <c r="S32" s="34"/>
-      <c r="T32" s="34"/>
-      <c r="U32" s="35"/>
-      <c r="V32" s="36"/>
-      <c r="W32" s="37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="29">
-        <v>167</v>
-      </c>
-      <c r="B33" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C33" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D33" s="30" t="s">
-        <v>74</v>
-      </c>
-      <c r="E33" s="31" t="s">
-        <v>132</v>
-      </c>
-      <c r="F33" s="32"/>
-      <c r="G33" s="33"/>
-      <c r="H33" s="33"/>
-      <c r="I33" s="33"/>
-      <c r="J33" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="K33" s="34" t="s">
-        <v>111</v>
-      </c>
-      <c r="L33" s="34" t="s">
-        <v>209</v>
-      </c>
-      <c r="M33" s="34"/>
-      <c r="N33" s="34"/>
-      <c r="O33" s="34"/>
-      <c r="P33" s="34"/>
-      <c r="Q33" s="34"/>
-      <c r="R33" s="34"/>
-      <c r="S33" s="34"/>
-      <c r="T33" s="34"/>
-      <c r="U33" s="35"/>
-      <c r="V33" s="36"/>
-      <c r="W33" s="37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="34" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="29">
-        <v>168</v>
-      </c>
-      <c r="B34" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C34" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D34" s="30" t="s">
-        <v>75</v>
-      </c>
-      <c r="E34" s="31" t="s">
-        <v>133</v>
-      </c>
-      <c r="F34" s="32">
-        <v>45641</v>
-      </c>
-      <c r="G34" s="33" t="s">
-        <v>192</v>
-      </c>
-      <c r="H34" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="I34" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="J34" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K34" s="34"/>
-      <c r="L34" s="34"/>
-      <c r="M34" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="N34" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="O34" s="34" t="s">
-        <v>206</v>
-      </c>
-      <c r="P34" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q34" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="R34" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="S34" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="T34" s="34"/>
-      <c r="U34" s="35"/>
-      <c r="V34" s="36"/>
-      <c r="W34" s="37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="35" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="29">
-        <v>169</v>
-      </c>
-      <c r="B35" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C35" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D35" s="30" t="s">
-        <v>76</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>134</v>
-      </c>
-      <c r="F35" s="32">
-        <v>45641</v>
-      </c>
-      <c r="G35" s="33" t="s">
-        <v>195</v>
-      </c>
-      <c r="H35" s="33" t="s">
-        <v>196</v>
-      </c>
-      <c r="I35" s="33" t="s">
-        <v>197</v>
-      </c>
-      <c r="J35" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K35" s="34"/>
-      <c r="L35" s="34"/>
-      <c r="M35" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="N35" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="O35" s="34" t="s">
-        <v>207</v>
-      </c>
-      <c r="P35" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q35" s="34" t="s">
-        <v>100</v>
-      </c>
-      <c r="R35" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="S35" s="34" t="s">
-        <v>208</v>
-      </c>
-      <c r="T35" s="34"/>
-      <c r="U35" s="35"/>
-      <c r="V35" s="36"/>
-      <c r="W35" s="37" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="36" spans="1:23" ht="150" x14ac:dyDescent="0.25">
-      <c r="A36" s="29">
-        <v>374</v>
-      </c>
-      <c r="B36" s="30" t="s">
-        <v>34</v>
-      </c>
-      <c r="C36" s="30" t="s">
-        <v>45</v>
-      </c>
-      <c r="D36" s="30" t="s">
-        <v>77</v>
-      </c>
-      <c r="E36" s="31" t="s">
-        <v>146</v>
-      </c>
-      <c r="F36" s="32">
-        <v>45641</v>
-      </c>
-      <c r="G36" s="33" t="s">
-        <v>198</v>
-      </c>
-      <c r="H36" s="33" t="s">
-        <v>199</v>
-      </c>
-      <c r="I36" s="33" t="s">
-        <v>200</v>
-      </c>
-      <c r="J36" s="34" t="s">
-        <v>49</v>
-      </c>
-      <c r="K36" s="34"/>
-      <c r="L36" s="34"/>
-      <c r="M36" s="34"/>
-      <c r="N36" s="34"/>
-      <c r="O36" s="34"/>
-      <c r="P36" s="34"/>
-      <c r="Q36" s="34"/>
-      <c r="R36" s="34"/>
-      <c r="S36" s="34"/>
-      <c r="T36" s="34"/>
-      <c r="U36" s="35"/>
-      <c r="V36" s="36"/>
-      <c r="W36" s="38" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F33" s="6"/>
+      <c r="G33" s="6"/>
+      <c r="H33" s="6"/>
+      <c r="I33" s="6"/>
+      <c r="J33" s="7"/>
+      <c r="K33" s="7"/>
+      <c r="L33" s="7"/>
+      <c r="M33" s="7"/>
+      <c r="N33" s="7"/>
+      <c r="O33" s="7"/>
+      <c r="P33" s="7"/>
+      <c r="Q33" s="7"/>
+      <c r="R33" s="7"/>
+      <c r="S33" s="7"/>
+      <c r="T33" s="7"/>
+      <c r="U33" s="8"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="9"/>
+    </row>
+    <row r="34" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F34" s="6"/>
+      <c r="G34" s="6"/>
+      <c r="H34" s="6"/>
+      <c r="I34" s="6"/>
+      <c r="J34" s="7"/>
+      <c r="K34" s="7"/>
+      <c r="L34" s="7"/>
+      <c r="M34" s="7"/>
+      <c r="N34" s="7"/>
+      <c r="O34" s="7"/>
+      <c r="P34" s="7"/>
+      <c r="Q34" s="7"/>
+      <c r="R34" s="7"/>
+      <c r="S34" s="7"/>
+      <c r="T34" s="7"/>
+      <c r="U34" s="8"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="9"/>
+    </row>
+    <row r="35" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F35" s="6"/>
+      <c r="G35" s="6"/>
+      <c r="H35" s="6"/>
+      <c r="I35" s="6"/>
+      <c r="J35" s="7"/>
+      <c r="K35" s="7"/>
+      <c r="L35" s="7"/>
+      <c r="M35" s="7"/>
+      <c r="N35" s="7"/>
+      <c r="O35" s="7"/>
+      <c r="P35" s="7"/>
+      <c r="Q35" s="7"/>
+      <c r="R35" s="7"/>
+      <c r="S35" s="7"/>
+      <c r="T35" s="7"/>
+      <c r="U35" s="8"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="9"/>
+    </row>
+    <row r="36" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="F36" s="6"/>
+      <c r="G36" s="6"/>
+      <c r="H36" s="6"/>
+      <c r="I36" s="6"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="7"/>
+      <c r="L36" s="7"/>
+      <c r="M36" s="7"/>
+      <c r="N36" s="7"/>
+      <c r="O36" s="7"/>
+      <c r="P36" s="7"/>
+      <c r="Q36" s="7"/>
+      <c r="R36" s="7"/>
+      <c r="S36" s="7"/>
+      <c r="T36" s="7"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="9"/>
+    </row>
+    <row r="37" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -4783,7 +4606,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="9"/>
     </row>
-    <row r="38" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -4803,7 +4626,7 @@
       <c r="V38" s="2"/>
       <c r="W38" s="9"/>
     </row>
-    <row r="39" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -4823,7 +4646,7 @@
       <c r="V39" s="2"/>
       <c r="W39" s="9"/>
     </row>
-    <row r="40" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -4843,7 +4666,7 @@
       <c r="V40" s="2"/>
       <c r="W40" s="9"/>
     </row>
-    <row r="41" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -4863,7 +4686,7 @@
       <c r="V41" s="2"/>
       <c r="W41" s="9"/>
     </row>
-    <row r="42" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -4883,7 +4706,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="9"/>
     </row>
-    <row r="43" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -4903,7 +4726,7 @@
       <c r="V43" s="2"/>
       <c r="W43" s="9"/>
     </row>
-    <row r="44" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -4923,7 +4746,7 @@
       <c r="V44" s="2"/>
       <c r="W44" s="9"/>
     </row>
-    <row r="45" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -4943,7 +4766,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="9"/>
     </row>
-    <row r="46" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -4963,7 +4786,7 @@
       <c r="V46" s="2"/>
       <c r="W46" s="9"/>
     </row>
-    <row r="47" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -4983,7 +4806,7 @@
       <c r="V47" s="2"/>
       <c r="W47" s="9"/>
     </row>
-    <row r="48" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -5003,7 +4826,7 @@
       <c r="V48" s="2"/>
       <c r="W48" s="9"/>
     </row>
-    <row r="49" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -5023,7 +4846,7 @@
       <c r="V49" s="2"/>
       <c r="W49" s="9"/>
     </row>
-    <row r="50" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -5043,7 +4866,7 @@
       <c r="V50" s="2"/>
       <c r="W50" s="9"/>
     </row>
-    <row r="51" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -5063,7 +4886,7 @@
       <c r="V51" s="2"/>
       <c r="W51" s="9"/>
     </row>
-    <row r="52" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -5083,7 +4906,7 @@
       <c r="V52" s="2"/>
       <c r="W52" s="9"/>
     </row>
-    <row r="53" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -5103,7 +4926,7 @@
       <c r="V53" s="2"/>
       <c r="W53" s="9"/>
     </row>
-    <row r="54" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -5123,7 +4946,7 @@
       <c r="V54" s="2"/>
       <c r="W54" s="9"/>
     </row>
-    <row r="55" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -5143,7 +4966,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="9"/>
     </row>
-    <row r="56" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -5163,7 +4986,7 @@
       <c r="V56" s="2"/>
       <c r="W56" s="9"/>
     </row>
-    <row r="57" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -5183,7 +5006,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="9"/>
     </row>
-    <row r="58" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -5203,7 +5026,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="9"/>
     </row>
-    <row r="59" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -5223,7 +5046,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="9"/>
     </row>
-    <row r="60" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -5243,7 +5066,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="9"/>
     </row>
-    <row r="61" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -5263,7 +5086,7 @@
       <c r="V61" s="2"/>
       <c r="W61" s="9"/>
     </row>
-    <row r="62" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -5283,7 +5106,7 @@
       <c r="V62" s="2"/>
       <c r="W62" s="9"/>
     </row>
-    <row r="63" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -5303,7 +5126,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="9"/>
     </row>
-    <row r="64" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -5323,7 +5146,7 @@
       <c r="V64" s="2"/>
       <c r="W64" s="9"/>
     </row>
-    <row r="65" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -5343,7 +5166,7 @@
       <c r="V65" s="2"/>
       <c r="W65" s="9"/>
     </row>
-    <row r="66" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -5363,7 +5186,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="9"/>
     </row>
-    <row r="67" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -5383,7 +5206,7 @@
       <c r="V67" s="2"/>
       <c r="W67" s="9"/>
     </row>
-    <row r="68" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -5403,7 +5226,7 @@
       <c r="V68" s="2"/>
       <c r="W68" s="9"/>
     </row>
-    <row r="69" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -5423,7 +5246,7 @@
       <c r="V69" s="2"/>
       <c r="W69" s="9"/>
     </row>
-    <row r="70" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -5443,7 +5266,7 @@
       <c r="V70" s="2"/>
       <c r="W70" s="9"/>
     </row>
-    <row r="71" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -5463,7 +5286,7 @@
       <c r="V71" s="2"/>
       <c r="W71" s="9"/>
     </row>
-    <row r="72" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -5483,7 +5306,7 @@
       <c r="V72" s="2"/>
       <c r="W72" s="9"/>
     </row>
-    <row r="73" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -5503,7 +5326,7 @@
       <c r="V73" s="2"/>
       <c r="W73" s="9"/>
     </row>
-    <row r="74" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -5523,7 +5346,7 @@
       <c r="V74" s="2"/>
       <c r="W74" s="9"/>
     </row>
-    <row r="75" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
@@ -5543,7 +5366,7 @@
       <c r="V75" s="2"/>
       <c r="W75" s="9"/>
     </row>
-    <row r="76" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
@@ -5563,7 +5386,7 @@
       <c r="V76" s="2"/>
       <c r="W76" s="9"/>
     </row>
-    <row r="77" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
@@ -5583,7 +5406,7 @@
       <c r="V77" s="2"/>
       <c r="W77" s="9"/>
     </row>
-    <row r="78" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
@@ -5603,7 +5426,7 @@
       <c r="V78" s="2"/>
       <c r="W78" s="9"/>
     </row>
-    <row r="79" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -5623,7 +5446,7 @@
       <c r="V79" s="2"/>
       <c r="W79" s="9"/>
     </row>
-    <row r="80" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
@@ -5643,7 +5466,7 @@
       <c r="V80" s="2"/>
       <c r="W80" s="9"/>
     </row>
-    <row r="81" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
@@ -5663,7 +5486,7 @@
       <c r="V81" s="2"/>
       <c r="W81" s="9"/>
     </row>
-    <row r="82" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
@@ -5683,7 +5506,7 @@
       <c r="V82" s="2"/>
       <c r="W82" s="9"/>
     </row>
-    <row r="83" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
@@ -5703,7 +5526,7 @@
       <c r="V83" s="2"/>
       <c r="W83" s="9"/>
     </row>
-    <row r="84" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
@@ -5723,7 +5546,7 @@
       <c r="V84" s="2"/>
       <c r="W84" s="9"/>
     </row>
-    <row r="85" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
@@ -5743,7 +5566,7 @@
       <c r="V85" s="2"/>
       <c r="W85" s="9"/>
     </row>
-    <row r="86" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
@@ -5763,7 +5586,7 @@
       <c r="V86" s="2"/>
       <c r="W86" s="9"/>
     </row>
-    <row r="87" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
@@ -5783,7 +5606,7 @@
       <c r="V87" s="2"/>
       <c r="W87" s="9"/>
     </row>
-    <row r="88" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
@@ -5803,7 +5626,7 @@
       <c r="V88" s="2"/>
       <c r="W88" s="9"/>
     </row>
-    <row r="89" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
@@ -5823,7 +5646,7 @@
       <c r="V89" s="2"/>
       <c r="W89" s="9"/>
     </row>
-    <row r="90" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
@@ -5843,7 +5666,7 @@
       <c r="V90" s="2"/>
       <c r="W90" s="9"/>
     </row>
-    <row r="91" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
@@ -5863,7 +5686,7 @@
       <c r="V91" s="2"/>
       <c r="W91" s="9"/>
     </row>
-    <row r="92" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
@@ -5883,7 +5706,7 @@
       <c r="V92" s="2"/>
       <c r="W92" s="9"/>
     </row>
-    <row r="93" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
@@ -5903,7 +5726,7 @@
       <c r="V93" s="2"/>
       <c r="W93" s="9"/>
     </row>
-    <row r="94" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
@@ -5923,7 +5746,7 @@
       <c r="V94" s="2"/>
       <c r="W94" s="9"/>
     </row>
-    <row r="95" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -5943,7 +5766,7 @@
       <c r="V95" s="2"/>
       <c r="W95" s="9"/>
     </row>
-    <row r="96" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
@@ -5963,7 +5786,7 @@
       <c r="V96" s="2"/>
       <c r="W96" s="9"/>
     </row>
-    <row r="97" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
@@ -5983,7 +5806,7 @@
       <c r="V97" s="2"/>
       <c r="W97" s="9"/>
     </row>
-    <row r="98" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
@@ -6003,7 +5826,7 @@
       <c r="V98" s="2"/>
       <c r="W98" s="9"/>
     </row>
-    <row r="99" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
@@ -6023,7 +5846,7 @@
       <c r="V99" s="2"/>
       <c r="W99" s="9"/>
     </row>
-    <row r="100" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
@@ -6043,7 +5866,7 @@
       <c r="V100" s="2"/>
       <c r="W100" s="9"/>
     </row>
-    <row r="101" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
@@ -6063,7 +5886,7 @@
       <c r="V101" s="2"/>
       <c r="W101" s="9"/>
     </row>
-    <row r="102" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
@@ -6083,7 +5906,7 @@
       <c r="V102" s="2"/>
       <c r="W102" s="9"/>
     </row>
-    <row r="103" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
@@ -6103,7 +5926,7 @@
       <c r="V103" s="2"/>
       <c r="W103" s="9"/>
     </row>
-    <row r="104" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
@@ -6123,7 +5946,7 @@
       <c r="V104" s="2"/>
       <c r="W104" s="9"/>
     </row>
-    <row r="105" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
@@ -6143,7 +5966,7 @@
       <c r="V105" s="2"/>
       <c r="W105" s="9"/>
     </row>
-    <row r="106" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
@@ -6163,7 +5986,7 @@
       <c r="V106" s="2"/>
       <c r="W106" s="9"/>
     </row>
-    <row r="107" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
@@ -6183,7 +6006,7 @@
       <c r="V107" s="2"/>
       <c r="W107" s="9"/>
     </row>
-    <row r="108" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
@@ -6203,7 +6026,7 @@
       <c r="V108" s="2"/>
       <c r="W108" s="9"/>
     </row>
-    <row r="109" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
@@ -6223,7 +6046,7 @@
       <c r="V109" s="2"/>
       <c r="W109" s="9"/>
     </row>
-    <row r="110" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
@@ -6243,7 +6066,7 @@
       <c r="V110" s="2"/>
       <c r="W110" s="9"/>
     </row>
-    <row r="111" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
@@ -6263,7 +6086,7 @@
       <c r="V111" s="2"/>
       <c r="W111" s="9"/>
     </row>
-    <row r="112" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
@@ -6283,7 +6106,7 @@
       <c r="V112" s="2"/>
       <c r="W112" s="9"/>
     </row>
-    <row r="113" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
@@ -6303,7 +6126,7 @@
       <c r="V113" s="2"/>
       <c r="W113" s="9"/>
     </row>
-    <row r="114" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
@@ -6323,7 +6146,7 @@
       <c r="V114" s="2"/>
       <c r="W114" s="9"/>
     </row>
-    <row r="115" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
@@ -6343,7 +6166,7 @@
       <c r="V115" s="2"/>
       <c r="W115" s="9"/>
     </row>
-    <row r="116" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
@@ -6363,7 +6186,7 @@
       <c r="V116" s="2"/>
       <c r="W116" s="9"/>
     </row>
-    <row r="117" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
@@ -6383,7 +6206,7 @@
       <c r="V117" s="2"/>
       <c r="W117" s="9"/>
     </row>
-    <row r="118" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
@@ -6403,7 +6226,7 @@
       <c r="V118" s="2"/>
       <c r="W118" s="9"/>
     </row>
-    <row r="119" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
@@ -6423,7 +6246,7 @@
       <c r="V119" s="2"/>
       <c r="W119" s="9"/>
     </row>
-    <row r="120" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
@@ -6443,7 +6266,7 @@
       <c r="V120" s="2"/>
       <c r="W120" s="9"/>
     </row>
-    <row r="121" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
@@ -6463,7 +6286,7 @@
       <c r="V121" s="2"/>
       <c r="W121" s="9"/>
     </row>
-    <row r="122" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
@@ -6483,7 +6306,7 @@
       <c r="V122" s="2"/>
       <c r="W122" s="9"/>
     </row>
-    <row r="123" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
@@ -6503,7 +6326,7 @@
       <c r="V123" s="2"/>
       <c r="W123" s="9"/>
     </row>
-    <row r="124" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
@@ -6523,7 +6346,7 @@
       <c r="V124" s="2"/>
       <c r="W124" s="9"/>
     </row>
-    <row r="125" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
@@ -6543,7 +6366,7 @@
       <c r="V125" s="2"/>
       <c r="W125" s="9"/>
     </row>
-    <row r="126" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
@@ -6563,7 +6386,7 @@
       <c r="V126" s="2"/>
       <c r="W126" s="9"/>
     </row>
-    <row r="127" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
@@ -6583,7 +6406,7 @@
       <c r="V127" s="2"/>
       <c r="W127" s="9"/>
     </row>
-    <row r="128" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
@@ -6603,7 +6426,7 @@
       <c r="V128" s="2"/>
       <c r="W128" s="9"/>
     </row>
-    <row r="129" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
@@ -6623,7 +6446,7 @@
       <c r="V129" s="2"/>
       <c r="W129" s="9"/>
     </row>
-    <row r="130" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
@@ -6643,7 +6466,7 @@
       <c r="V130" s="2"/>
       <c r="W130" s="9"/>
     </row>
-    <row r="131" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
@@ -6663,7 +6486,7 @@
       <c r="V131" s="2"/>
       <c r="W131" s="9"/>
     </row>
-    <row r="132" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
@@ -6683,7 +6506,7 @@
       <c r="V132" s="2"/>
       <c r="W132" s="9"/>
     </row>
-    <row r="133" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
@@ -6703,7 +6526,7 @@
       <c r="V133" s="2"/>
       <c r="W133" s="9"/>
     </row>
-    <row r="134" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
@@ -6723,7 +6546,7 @@
       <c r="V134" s="2"/>
       <c r="W134" s="9"/>
     </row>
-    <row r="135" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
@@ -6743,7 +6566,7 @@
       <c r="V135" s="2"/>
       <c r="W135" s="9"/>
     </row>
-    <row r="136" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
@@ -6763,7 +6586,7 @@
       <c r="V136" s="2"/>
       <c r="W136" s="9"/>
     </row>
-    <row r="137" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
@@ -6783,7 +6606,7 @@
       <c r="V137" s="2"/>
       <c r="W137" s="9"/>
     </row>
-    <row r="138" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
@@ -6803,7 +6626,7 @@
       <c r="V138" s="2"/>
       <c r="W138" s="9"/>
     </row>
-    <row r="139" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
@@ -6823,7 +6646,7 @@
       <c r="V139" s="2"/>
       <c r="W139" s="9"/>
     </row>
-    <row r="140" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
@@ -6843,7 +6666,7 @@
       <c r="V140" s="2"/>
       <c r="W140" s="9"/>
     </row>
-    <row r="141" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
@@ -6863,7 +6686,7 @@
       <c r="V141" s="2"/>
       <c r="W141" s="9"/>
     </row>
-    <row r="142" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="142" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
@@ -6883,7 +6706,7 @@
       <c r="V142" s="2"/>
       <c r="W142" s="9"/>
     </row>
-    <row r="143" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
@@ -6903,7 +6726,7 @@
       <c r="V143" s="2"/>
       <c r="W143" s="9"/>
     </row>
-    <row r="144" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
@@ -6923,7 +6746,7 @@
       <c r="V144" s="2"/>
       <c r="W144" s="9"/>
     </row>
-    <row r="145" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
@@ -6943,7 +6766,7 @@
       <c r="V145" s="2"/>
       <c r="W145" s="9"/>
     </row>
-    <row r="146" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
@@ -6963,7 +6786,7 @@
       <c r="V146" s="2"/>
       <c r="W146" s="9"/>
     </row>
-    <row r="147" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
@@ -6983,7 +6806,7 @@
       <c r="V147" s="2"/>
       <c r="W147" s="9"/>
     </row>
-    <row r="148" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
@@ -7003,7 +6826,7 @@
       <c r="V148" s="2"/>
       <c r="W148" s="9"/>
     </row>
-    <row r="149" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
@@ -7023,7 +6846,7 @@
       <c r="V149" s="2"/>
       <c r="W149" s="9"/>
     </row>
-    <row r="150" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
@@ -7043,7 +6866,7 @@
       <c r="V150" s="2"/>
       <c r="W150" s="9"/>
     </row>
-    <row r="151" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
@@ -7063,7 +6886,7 @@
       <c r="V151" s="2"/>
       <c r="W151" s="9"/>
     </row>
-    <row r="152" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
@@ -7083,7 +6906,7 @@
       <c r="V152" s="2"/>
       <c r="W152" s="9"/>
     </row>
-    <row r="153" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
@@ -7103,7 +6926,7 @@
       <c r="V153" s="2"/>
       <c r="W153" s="9"/>
     </row>
-    <row r="154" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
@@ -7123,7 +6946,7 @@
       <c r="V154" s="2"/>
       <c r="W154" s="9"/>
     </row>
-    <row r="155" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
@@ -7143,7 +6966,7 @@
       <c r="V155" s="2"/>
       <c r="W155" s="9"/>
     </row>
-    <row r="156" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
@@ -7163,7 +6986,7 @@
       <c r="V156" s="2"/>
       <c r="W156" s="9"/>
     </row>
-    <row r="157" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
@@ -7183,7 +7006,7 @@
       <c r="V157" s="2"/>
       <c r="W157" s="9"/>
     </row>
-    <row r="158" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
@@ -7203,7 +7026,7 @@
       <c r="V158" s="2"/>
       <c r="W158" s="9"/>
     </row>
-    <row r="159" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
@@ -7223,7 +7046,7 @@
       <c r="V159" s="2"/>
       <c r="W159" s="9"/>
     </row>
-    <row r="160" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
@@ -7243,7 +7066,7 @@
       <c r="V160" s="2"/>
       <c r="W160" s="9"/>
     </row>
-    <row r="161" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
@@ -7263,7 +7086,7 @@
       <c r="V161" s="2"/>
       <c r="W161" s="9"/>
     </row>
-    <row r="162" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
@@ -7283,7 +7106,7 @@
       <c r="V162" s="2"/>
       <c r="W162" s="9"/>
     </row>
-    <row r="163" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
@@ -7303,7 +7126,7 @@
       <c r="V163" s="2"/>
       <c r="W163" s="9"/>
     </row>
-    <row r="164" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
@@ -7323,7 +7146,7 @@
       <c r="V164" s="2"/>
       <c r="W164" s="9"/>
     </row>
-    <row r="165" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="165" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
@@ -7343,7 +7166,7 @@
       <c r="V165" s="2"/>
       <c r="W165" s="9"/>
     </row>
-    <row r="166" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
@@ -7363,7 +7186,7 @@
       <c r="V166" s="2"/>
       <c r="W166" s="9"/>
     </row>
-    <row r="167" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
@@ -7383,7 +7206,7 @@
       <c r="V167" s="2"/>
       <c r="W167" s="9"/>
     </row>
-    <row r="168" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F168" s="6"/>
       <c r="G168" s="6"/>
       <c r="H168" s="6"/>
@@ -7403,7 +7226,7 @@
       <c r="V168" s="2"/>
       <c r="W168" s="9"/>
     </row>
-    <row r="169" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F169" s="6"/>
       <c r="G169" s="6"/>
       <c r="H169" s="6"/>
@@ -7423,7 +7246,7 @@
       <c r="V169" s="2"/>
       <c r="W169" s="9"/>
     </row>
-    <row r="170" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F170" s="6"/>
       <c r="G170" s="6"/>
       <c r="H170" s="6"/>
@@ -7443,7 +7266,7 @@
       <c r="V170" s="2"/>
       <c r="W170" s="9"/>
     </row>
-    <row r="171" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F171" s="6"/>
       <c r="G171" s="6"/>
       <c r="H171" s="6"/>
@@ -7463,7 +7286,7 @@
       <c r="V171" s="2"/>
       <c r="W171" s="9"/>
     </row>
-    <row r="172" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F172" s="6"/>
       <c r="G172" s="6"/>
       <c r="H172" s="6"/>
@@ -7483,7 +7306,7 @@
       <c r="V172" s="2"/>
       <c r="W172" s="9"/>
     </row>
-    <row r="173" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F173" s="6"/>
       <c r="G173" s="6"/>
       <c r="H173" s="6"/>
@@ -7503,7 +7326,7 @@
       <c r="V173" s="2"/>
       <c r="W173" s="9"/>
     </row>
-    <row r="174" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="174" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F174" s="6"/>
       <c r="G174" s="6"/>
       <c r="H174" s="6"/>
@@ -7523,7 +7346,7 @@
       <c r="V174" s="2"/>
       <c r="W174" s="9"/>
     </row>
-    <row r="175" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="6:23" x14ac:dyDescent="0.25">
       <c r="F175" s="6"/>
       <c r="G175" s="6"/>
       <c r="H175" s="6"/>
@@ -7543,579 +7366,103 @@
       <c r="V175" s="2"/>
       <c r="W175" s="9"/>
     </row>
-    <row r="176" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F176" s="6"/>
-      <c r="G176" s="6"/>
-      <c r="H176" s="6"/>
-      <c r="I176" s="6"/>
-      <c r="J176" s="7"/>
-      <c r="K176" s="7"/>
-      <c r="L176" s="7"/>
-      <c r="M176" s="7"/>
-      <c r="N176" s="7"/>
-      <c r="O176" s="7"/>
-      <c r="P176" s="7"/>
-      <c r="Q176" s="7"/>
-      <c r="R176" s="7"/>
-      <c r="S176" s="7"/>
-      <c r="T176" s="7"/>
-      <c r="U176" s="8"/>
-      <c r="V176" s="2"/>
-      <c r="W176" s="9"/>
-    </row>
-    <row r="177" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F177" s="6"/>
-      <c r="G177" s="6"/>
-      <c r="H177" s="6"/>
-      <c r="I177" s="6"/>
-      <c r="J177" s="7"/>
-      <c r="K177" s="7"/>
-      <c r="L177" s="7"/>
-      <c r="M177" s="7"/>
-      <c r="N177" s="7"/>
-      <c r="O177" s="7"/>
-      <c r="P177" s="7"/>
-      <c r="Q177" s="7"/>
-      <c r="R177" s="7"/>
-      <c r="S177" s="7"/>
-      <c r="T177" s="7"/>
-      <c r="U177" s="8"/>
-      <c r="V177" s="2"/>
-      <c r="W177" s="9"/>
-    </row>
-    <row r="178" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F178" s="6"/>
-      <c r="G178" s="6"/>
-      <c r="H178" s="6"/>
-      <c r="I178" s="6"/>
-      <c r="J178" s="7"/>
-      <c r="K178" s="7"/>
-      <c r="L178" s="7"/>
-      <c r="M178" s="7"/>
-      <c r="N178" s="7"/>
-      <c r="O178" s="7"/>
-      <c r="P178" s="7"/>
-      <c r="Q178" s="7"/>
-      <c r="R178" s="7"/>
-      <c r="S178" s="7"/>
-      <c r="T178" s="7"/>
-      <c r="U178" s="8"/>
-      <c r="V178" s="2"/>
-      <c r="W178" s="9"/>
-    </row>
-    <row r="179" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F179" s="6"/>
-      <c r="G179" s="6"/>
-      <c r="H179" s="6"/>
-      <c r="I179" s="6"/>
-      <c r="J179" s="7"/>
-      <c r="K179" s="7"/>
-      <c r="L179" s="7"/>
-      <c r="M179" s="7"/>
-      <c r="N179" s="7"/>
-      <c r="O179" s="7"/>
-      <c r="P179" s="7"/>
-      <c r="Q179" s="7"/>
-      <c r="R179" s="7"/>
-      <c r="S179" s="7"/>
-      <c r="T179" s="7"/>
-      <c r="U179" s="8"/>
-      <c r="V179" s="2"/>
-      <c r="W179" s="9"/>
-    </row>
-    <row r="180" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F180" s="6"/>
-      <c r="G180" s="6"/>
-      <c r="H180" s="6"/>
-      <c r="I180" s="6"/>
-      <c r="J180" s="7"/>
-      <c r="K180" s="7"/>
-      <c r="L180" s="7"/>
-      <c r="M180" s="7"/>
-      <c r="N180" s="7"/>
-      <c r="O180" s="7"/>
-      <c r="P180" s="7"/>
-      <c r="Q180" s="7"/>
-      <c r="R180" s="7"/>
-      <c r="S180" s="7"/>
-      <c r="T180" s="7"/>
-      <c r="U180" s="8"/>
-      <c r="V180" s="2"/>
-      <c r="W180" s="9"/>
-    </row>
-    <row r="181" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F181" s="6"/>
-      <c r="G181" s="6"/>
-      <c r="H181" s="6"/>
-      <c r="I181" s="6"/>
-      <c r="J181" s="7"/>
-      <c r="K181" s="7"/>
-      <c r="L181" s="7"/>
-      <c r="M181" s="7"/>
-      <c r="N181" s="7"/>
-      <c r="O181" s="7"/>
-      <c r="P181" s="7"/>
-      <c r="Q181" s="7"/>
-      <c r="R181" s="7"/>
-      <c r="S181" s="7"/>
-      <c r="T181" s="7"/>
-      <c r="U181" s="8"/>
-      <c r="V181" s="2"/>
-      <c r="W181" s="9"/>
-    </row>
-    <row r="182" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F182" s="6"/>
-      <c r="G182" s="6"/>
-      <c r="H182" s="6"/>
-      <c r="I182" s="6"/>
-      <c r="J182" s="7"/>
-      <c r="K182" s="7"/>
-      <c r="L182" s="7"/>
-      <c r="M182" s="7"/>
-      <c r="N182" s="7"/>
-      <c r="O182" s="7"/>
-      <c r="P182" s="7"/>
-      <c r="Q182" s="7"/>
-      <c r="R182" s="7"/>
-      <c r="S182" s="7"/>
-      <c r="T182" s="7"/>
-      <c r="U182" s="8"/>
-      <c r="V182" s="2"/>
-      <c r="W182" s="9"/>
-    </row>
-    <row r="183" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F183" s="6"/>
-      <c r="G183" s="6"/>
-      <c r="H183" s="6"/>
-      <c r="I183" s="6"/>
-      <c r="J183" s="7"/>
-      <c r="K183" s="7"/>
-      <c r="L183" s="7"/>
-      <c r="M183" s="7"/>
-      <c r="N183" s="7"/>
-      <c r="O183" s="7"/>
-      <c r="P183" s="7"/>
-      <c r="Q183" s="7"/>
-      <c r="R183" s="7"/>
-      <c r="S183" s="7"/>
-      <c r="T183" s="7"/>
-      <c r="U183" s="8"/>
-      <c r="V183" s="2"/>
-      <c r="W183" s="9"/>
-    </row>
-    <row r="184" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F184" s="6"/>
-      <c r="G184" s="6"/>
-      <c r="H184" s="6"/>
-      <c r="I184" s="6"/>
-      <c r="J184" s="7"/>
-      <c r="K184" s="7"/>
-      <c r="L184" s="7"/>
-      <c r="M184" s="7"/>
-      <c r="N184" s="7"/>
-      <c r="O184" s="7"/>
-      <c r="P184" s="7"/>
-      <c r="Q184" s="7"/>
-      <c r="R184" s="7"/>
-      <c r="S184" s="7"/>
-      <c r="T184" s="7"/>
-      <c r="U184" s="8"/>
-      <c r="V184" s="2"/>
-      <c r="W184" s="9"/>
-    </row>
-    <row r="185" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F185" s="6"/>
-      <c r="G185" s="6"/>
-      <c r="H185" s="6"/>
-      <c r="I185" s="6"/>
-      <c r="J185" s="7"/>
-      <c r="K185" s="7"/>
-      <c r="L185" s="7"/>
-      <c r="M185" s="7"/>
-      <c r="N185" s="7"/>
-      <c r="O185" s="7"/>
-      <c r="P185" s="7"/>
-      <c r="Q185" s="7"/>
-      <c r="R185" s="7"/>
-      <c r="S185" s="7"/>
-      <c r="T185" s="7"/>
-      <c r="U185" s="8"/>
-      <c r="V185" s="2"/>
-      <c r="W185" s="9"/>
-    </row>
-    <row r="186" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F186" s="6"/>
-      <c r="G186" s="6"/>
-      <c r="H186" s="6"/>
-      <c r="I186" s="6"/>
-      <c r="J186" s="7"/>
-      <c r="K186" s="7"/>
-      <c r="L186" s="7"/>
-      <c r="M186" s="7"/>
-      <c r="N186" s="7"/>
-      <c r="O186" s="7"/>
-      <c r="P186" s="7"/>
-      <c r="Q186" s="7"/>
-      <c r="R186" s="7"/>
-      <c r="S186" s="7"/>
-      <c r="T186" s="7"/>
-      <c r="U186" s="8"/>
-      <c r="V186" s="2"/>
-      <c r="W186" s="9"/>
-    </row>
-    <row r="187" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F187" s="6"/>
-      <c r="G187" s="6"/>
-      <c r="H187" s="6"/>
-      <c r="I187" s="6"/>
-      <c r="J187" s="7"/>
-      <c r="K187" s="7"/>
-      <c r="L187" s="7"/>
-      <c r="M187" s="7"/>
-      <c r="N187" s="7"/>
-      <c r="O187" s="7"/>
-      <c r="P187" s="7"/>
-      <c r="Q187" s="7"/>
-      <c r="R187" s="7"/>
-      <c r="S187" s="7"/>
-      <c r="T187" s="7"/>
-      <c r="U187" s="8"/>
-      <c r="V187" s="2"/>
-      <c r="W187" s="9"/>
-    </row>
-    <row r="188" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F188" s="6"/>
-      <c r="G188" s="6"/>
-      <c r="H188" s="6"/>
-      <c r="I188" s="6"/>
-      <c r="J188" s="7"/>
-      <c r="K188" s="7"/>
-      <c r="L188" s="7"/>
-      <c r="M188" s="7"/>
-      <c r="N188" s="7"/>
-      <c r="O188" s="7"/>
-      <c r="P188" s="7"/>
-      <c r="Q188" s="7"/>
-      <c r="R188" s="7"/>
-      <c r="S188" s="7"/>
-      <c r="T188" s="7"/>
-      <c r="U188" s="8"/>
-      <c r="V188" s="2"/>
-      <c r="W188" s="9"/>
-    </row>
-    <row r="189" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F189" s="6"/>
-      <c r="G189" s="6"/>
-      <c r="H189" s="6"/>
-      <c r="I189" s="6"/>
-      <c r="J189" s="7"/>
-      <c r="K189" s="7"/>
-      <c r="L189" s="7"/>
-      <c r="M189" s="7"/>
-      <c r="N189" s="7"/>
-      <c r="O189" s="7"/>
-      <c r="P189" s="7"/>
-      <c r="Q189" s="7"/>
-      <c r="R189" s="7"/>
-      <c r="S189" s="7"/>
-      <c r="T189" s="7"/>
-      <c r="U189" s="8"/>
-      <c r="V189" s="2"/>
-      <c r="W189" s="9"/>
-    </row>
-    <row r="190" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F190" s="6"/>
-      <c r="G190" s="6"/>
-      <c r="H190" s="6"/>
-      <c r="I190" s="6"/>
-      <c r="J190" s="7"/>
-      <c r="K190" s="7"/>
-      <c r="L190" s="7"/>
-      <c r="M190" s="7"/>
-      <c r="N190" s="7"/>
-      <c r="O190" s="7"/>
-      <c r="P190" s="7"/>
-      <c r="Q190" s="7"/>
-      <c r="R190" s="7"/>
-      <c r="S190" s="7"/>
-      <c r="T190" s="7"/>
-      <c r="U190" s="8"/>
-      <c r="V190" s="2"/>
-      <c r="W190" s="9"/>
-    </row>
-    <row r="191" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F191" s="6"/>
-      <c r="G191" s="6"/>
-      <c r="H191" s="6"/>
-      <c r="I191" s="6"/>
-      <c r="J191" s="7"/>
-      <c r="K191" s="7"/>
-      <c r="L191" s="7"/>
-      <c r="M191" s="7"/>
-      <c r="N191" s="7"/>
-      <c r="O191" s="7"/>
-      <c r="P191" s="7"/>
-      <c r="Q191" s="7"/>
-      <c r="R191" s="7"/>
-      <c r="S191" s="7"/>
-      <c r="T191" s="7"/>
-      <c r="U191" s="8"/>
-      <c r="V191" s="2"/>
-      <c r="W191" s="9"/>
-    </row>
-    <row r="192" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F192" s="6"/>
-      <c r="G192" s="6"/>
-      <c r="H192" s="6"/>
-      <c r="I192" s="6"/>
-      <c r="J192" s="7"/>
-      <c r="K192" s="7"/>
-      <c r="L192" s="7"/>
-      <c r="M192" s="7"/>
-      <c r="N192" s="7"/>
-      <c r="O192" s="7"/>
-      <c r="P192" s="7"/>
-      <c r="Q192" s="7"/>
-      <c r="R192" s="7"/>
-      <c r="S192" s="7"/>
-      <c r="T192" s="7"/>
-      <c r="U192" s="8"/>
-      <c r="V192" s="2"/>
-      <c r="W192" s="9"/>
-    </row>
-    <row r="193" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F193" s="6"/>
-      <c r="G193" s="6"/>
-      <c r="H193" s="6"/>
-      <c r="I193" s="6"/>
-      <c r="J193" s="7"/>
-      <c r="K193" s="7"/>
-      <c r="L193" s="7"/>
-      <c r="M193" s="7"/>
-      <c r="N193" s="7"/>
-      <c r="O193" s="7"/>
-      <c r="P193" s="7"/>
-      <c r="Q193" s="7"/>
-      <c r="R193" s="7"/>
-      <c r="S193" s="7"/>
-      <c r="T193" s="7"/>
-      <c r="U193" s="8"/>
-      <c r="V193" s="2"/>
-      <c r="W193" s="9"/>
-    </row>
-    <row r="194" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F194" s="6"/>
-      <c r="G194" s="6"/>
-      <c r="H194" s="6"/>
-      <c r="I194" s="6"/>
-      <c r="J194" s="7"/>
-      <c r="K194" s="7"/>
-      <c r="L194" s="7"/>
-      <c r="M194" s="7"/>
-      <c r="N194" s="7"/>
-      <c r="O194" s="7"/>
-      <c r="P194" s="7"/>
-      <c r="Q194" s="7"/>
-      <c r="R194" s="7"/>
-      <c r="S194" s="7"/>
-      <c r="T194" s="7"/>
-      <c r="U194" s="8"/>
-      <c r="V194" s="2"/>
-      <c r="W194" s="9"/>
-    </row>
-    <row r="195" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F195" s="6"/>
-      <c r="G195" s="6"/>
-      <c r="H195" s="6"/>
-      <c r="I195" s="6"/>
-      <c r="J195" s="7"/>
-      <c r="K195" s="7"/>
-      <c r="L195" s="7"/>
-      <c r="M195" s="7"/>
-      <c r="N195" s="7"/>
-      <c r="O195" s="7"/>
-      <c r="P195" s="7"/>
-      <c r="Q195" s="7"/>
-      <c r="R195" s="7"/>
-      <c r="S195" s="7"/>
-      <c r="T195" s="7"/>
-      <c r="U195" s="8"/>
-      <c r="V195" s="2"/>
-      <c r="W195" s="9"/>
-    </row>
-    <row r="196" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F196" s="6"/>
-      <c r="G196" s="6"/>
-      <c r="H196" s="6"/>
-      <c r="I196" s="6"/>
-      <c r="J196" s="7"/>
-      <c r="K196" s="7"/>
-      <c r="L196" s="7"/>
-      <c r="M196" s="7"/>
-      <c r="N196" s="7"/>
-      <c r="O196" s="7"/>
-      <c r="P196" s="7"/>
-      <c r="Q196" s="7"/>
-      <c r="R196" s="7"/>
-      <c r="S196" s="7"/>
-      <c r="T196" s="7"/>
-      <c r="U196" s="8"/>
-      <c r="V196" s="2"/>
-      <c r="W196" s="9"/>
-    </row>
-    <row r="197" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F197" s="6"/>
-      <c r="G197" s="6"/>
-      <c r="H197" s="6"/>
-      <c r="I197" s="6"/>
-      <c r="J197" s="7"/>
-      <c r="K197" s="7"/>
-      <c r="L197" s="7"/>
-      <c r="M197" s="7"/>
-      <c r="N197" s="7"/>
-      <c r="O197" s="7"/>
-      <c r="P197" s="7"/>
-      <c r="Q197" s="7"/>
-      <c r="R197" s="7"/>
-      <c r="S197" s="7"/>
-      <c r="T197" s="7"/>
-      <c r="U197" s="8"/>
-      <c r="V197" s="2"/>
-      <c r="W197" s="9"/>
-    </row>
-    <row r="198" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F198" s="6"/>
-      <c r="G198" s="6"/>
-      <c r="H198" s="6"/>
-      <c r="I198" s="6"/>
-      <c r="J198" s="7"/>
-      <c r="K198" s="7"/>
-      <c r="L198" s="7"/>
-      <c r="M198" s="7"/>
-      <c r="N198" s="7"/>
-      <c r="O198" s="7"/>
-      <c r="P198" s="7"/>
-      <c r="Q198" s="7"/>
-      <c r="R198" s="7"/>
-      <c r="S198" s="7"/>
-      <c r="T198" s="7"/>
-      <c r="U198" s="8"/>
-      <c r="V198" s="2"/>
-      <c r="W198" s="9"/>
-    </row>
-    <row r="199" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F199" s="6"/>
-      <c r="G199" s="6"/>
-      <c r="H199" s="6"/>
-      <c r="I199" s="6"/>
-      <c r="J199" s="7"/>
-      <c r="K199" s="7"/>
-      <c r="L199" s="7"/>
-      <c r="M199" s="7"/>
-      <c r="N199" s="7"/>
-      <c r="O199" s="7"/>
-      <c r="P199" s="7"/>
-      <c r="Q199" s="7"/>
-      <c r="R199" s="7"/>
-      <c r="S199" s="7"/>
-      <c r="T199" s="7"/>
-      <c r="U199" s="8"/>
-      <c r="V199" s="2"/>
-      <c r="W199" s="9"/>
-    </row>
-    <row r="200" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F200" s="6"/>
-      <c r="G200" s="6"/>
-      <c r="H200" s="6"/>
-      <c r="I200" s="6"/>
-      <c r="J200" s="7"/>
-      <c r="K200" s="7"/>
-      <c r="L200" s="7"/>
-      <c r="M200" s="7"/>
-      <c r="N200" s="7"/>
-      <c r="O200" s="7"/>
-      <c r="P200" s="7"/>
-      <c r="Q200" s="7"/>
-      <c r="R200" s="7"/>
-      <c r="S200" s="7"/>
-      <c r="T200" s="7"/>
-      <c r="U200" s="8"/>
-      <c r="V200" s="2"/>
-      <c r="W200" s="9"/>
-    </row>
-    <row r="201" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F201" s="6"/>
-      <c r="G201" s="6"/>
-      <c r="H201" s="6"/>
-      <c r="I201" s="6"/>
-      <c r="J201" s="7"/>
-      <c r="K201" s="7"/>
-      <c r="L201" s="7"/>
-      <c r="M201" s="7"/>
-      <c r="N201" s="7"/>
-      <c r="O201" s="7"/>
-      <c r="P201" s="7"/>
-      <c r="Q201" s="7"/>
-      <c r="R201" s="7"/>
-      <c r="S201" s="7"/>
-      <c r="T201" s="7"/>
-      <c r="U201" s="8"/>
-      <c r="V201" s="2"/>
-      <c r="W201" s="9"/>
-    </row>
-    <row r="202" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F202" s="6"/>
-      <c r="G202" s="6"/>
-      <c r="H202" s="6"/>
-      <c r="I202" s="6"/>
-      <c r="J202" s="7"/>
-      <c r="K202" s="7"/>
-      <c r="L202" s="7"/>
-      <c r="M202" s="7"/>
-      <c r="N202" s="7"/>
-      <c r="O202" s="7"/>
-      <c r="P202" s="7"/>
-      <c r="Q202" s="7"/>
-      <c r="R202" s="7"/>
-      <c r="S202" s="7"/>
-      <c r="T202" s="7"/>
-      <c r="U202" s="8"/>
-      <c r="V202" s="2"/>
-      <c r="W202" s="9"/>
-    </row>
-    <row r="203" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F203" s="6"/>
-      <c r="G203" s="6"/>
-      <c r="H203" s="6"/>
-      <c r="I203" s="6"/>
-      <c r="J203" s="7"/>
-      <c r="K203" s="7"/>
-      <c r="L203" s="7"/>
-      <c r="M203" s="7"/>
-      <c r="N203" s="7"/>
-      <c r="O203" s="7"/>
-      <c r="P203" s="7"/>
-      <c r="Q203" s="7"/>
-      <c r="R203" s="7"/>
-      <c r="S203" s="7"/>
-      <c r="T203" s="7"/>
-      <c r="U203" s="8"/>
-      <c r="V203" s="2"/>
-      <c r="W203" s="9"/>
-    </row>
-    <row r="204" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="W176" s="7"/>
+    </row>
+    <row r="177" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W177" s="7"/>
+    </row>
+    <row r="178" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W178" s="7"/>
+    </row>
+    <row r="179" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W179" s="7"/>
+    </row>
+    <row r="180" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W180" s="7"/>
+    </row>
+    <row r="181" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W181" s="7"/>
+    </row>
+    <row r="182" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W182" s="7"/>
+    </row>
+    <row r="183" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W183" s="7"/>
+    </row>
+    <row r="184" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W184" s="7"/>
+    </row>
+    <row r="185" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W185" s="7"/>
+    </row>
+    <row r="186" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W186" s="7"/>
+    </row>
+    <row r="187" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W187" s="7"/>
+    </row>
+    <row r="188" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W188" s="7"/>
+    </row>
+    <row r="189" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W189" s="7"/>
+    </row>
+    <row r="190" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W190" s="7"/>
+    </row>
+    <row r="191" spans="23:23" x14ac:dyDescent="0.25">
+      <c r="W191" s="7"/>
+    </row>
+    <row r="192" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W192" s="7"/>
+    </row>
+    <row r="193" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W193" s="7"/>
+    </row>
+    <row r="194" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W194" s="7"/>
+    </row>
+    <row r="195" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W195" s="7"/>
+    </row>
+    <row r="196" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W196" s="7"/>
+    </row>
+    <row r="197" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W197" s="7"/>
+    </row>
+    <row r="198" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W198" s="7"/>
+    </row>
+    <row r="199" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W199" s="7"/>
+    </row>
+    <row r="200" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W200" s="7"/>
+    </row>
+    <row r="201" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W201" s="7"/>
+    </row>
+    <row r="202" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W202" s="7"/>
+    </row>
+    <row r="203" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W203" s="7"/>
+    </row>
+    <row r="204" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W204" s="7"/>
     </row>
-    <row r="205" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W205" s="7"/>
     </row>
-    <row r="206" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W206" s="7"/>
     </row>
-    <row r="207" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W207" s="7"/>
     </row>
-    <row r="208" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W208" s="7"/>
     </row>
     <row r="209" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9270,92 +8617,13 @@
     <row r="592" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W592" s="7"/>
     </row>
-    <row r="593" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W593" s="7"/>
-    </row>
-    <row r="594" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W594" s="7"/>
-    </row>
-    <row r="595" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W595" s="7"/>
-    </row>
-    <row r="596" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W596" s="7"/>
-    </row>
-    <row r="597" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W597" s="7"/>
-    </row>
-    <row r="598" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W598" s="7"/>
-    </row>
-    <row r="599" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W599" s="7"/>
-    </row>
-    <row r="600" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W600" s="7"/>
-    </row>
-    <row r="601" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W601" s="7"/>
-    </row>
-    <row r="602" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W602" s="7"/>
-    </row>
-    <row r="603" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W603" s="7"/>
-    </row>
-    <row r="604" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W604" s="7"/>
-    </row>
-    <row r="605" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W605" s="7"/>
-    </row>
-    <row r="606" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W606" s="7"/>
-    </row>
-    <row r="607" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W607" s="7"/>
-    </row>
-    <row r="608" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W608" s="7"/>
-    </row>
-    <row r="609" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W609" s="7"/>
-    </row>
-    <row r="610" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W610" s="7"/>
-    </row>
-    <row r="611" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W611" s="7"/>
-    </row>
-    <row r="612" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W612" s="7"/>
-    </row>
-    <row r="613" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W613" s="7"/>
-    </row>
-    <row r="614" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W614" s="7"/>
-    </row>
-    <row r="615" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W615" s="7"/>
-    </row>
-    <row r="616" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W616" s="7"/>
-    </row>
-    <row r="617" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W617" s="7"/>
-    </row>
-    <row r="618" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W618" s="7"/>
-    </row>
-    <row r="619" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W619" s="7"/>
-    </row>
-    <row r="620" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W620" s="7"/>
-    </row>
+    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A9:W36"/>
+  <autoFilter ref="A9:W32"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -9367,28 +8635,40 @@
   </mergeCells>
   <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait"/>
+  <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>J10:J36 M13:N16 M23:N23 M30:N35 P10:R35</xm:sqref>
+          <xm:sqref>P29:R30 M29:N30 J23:J26 M23:N26 P23:R26</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>T12:T36</xm:sqref>
+          <xm:sqref>T12:T30</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
-          <xm:sqref>K10:K36</xm:sqref>
+          <xm:sqref>K10:K29</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>[1]Sheet1!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>J10:J22 P10:R22 J27:J32 M27:N28 P27:R28 P32:R32</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
+          <x14:formula1>
+            <xm:f>'[1]LISTA VALORI'!#REF!</xm:f>
+          </x14:formula1>
+          <xm:sqref>K30:K31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -9408,42 +8688,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>104</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>82</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>83</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>84</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>86</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>87</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>88</v>
       </c>
     </row>
   </sheetData>
@@ -9455,9 +8735,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G960"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9468,27 +8748,27 @@
     <col min="4" max="4" width="102" customWidth="1"/>
     <col min="5" max="5" width="8.85546875" customWidth="1"/>
     <col min="6" max="6" width="9.42578125" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" customWidth="1"/>
+    <col min="7" max="7" width="7.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="39" t="s">
-        <v>125</v>
+      <c r="A1" s="30" t="s">
+        <v>98</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>78</v>
+        <v>69</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>79</v>
+        <v>70</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>113</v>
+        <v>90</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>122</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9496,13 +8776,13 @@
         <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>81</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>82</v>
+        <v>124</v>
+      </c>
+      <c r="D2" s="38" t="s">
+        <v>130</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9510,13 +8790,13 @@
         <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>83</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>84</v>
+        <v>114</v>
+      </c>
+      <c r="D3" s="38" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9524,13 +8804,13 @@
         <v>38</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C4" s="12">
         <v>446.447</v>
       </c>
-      <c r="D4" s="13" t="s">
-        <v>85</v>
+      <c r="D4" s="39" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9538,13 +8818,13 @@
         <v>39</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>86</v>
-      </c>
-      <c r="D5" s="12" t="s">
-        <v>87</v>
+        <v>117</v>
+      </c>
+      <c r="D5" s="38" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -9552,13 +8832,13 @@
         <v>40</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>88</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>89</v>
+        <v>116</v>
+      </c>
+      <c r="D6" s="39" t="s">
+        <v>134</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -9566,13 +8846,13 @@
         <v>41</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D7" s="13" t="s">
-        <v>91</v>
+        <v>115</v>
+      </c>
+      <c r="D7" s="39" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -9580,13 +8860,13 @@
         <v>45</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>92</v>
-      </c>
-      <c r="D8" s="13" t="s">
-        <v>93</v>
+        <v>113</v>
+      </c>
+      <c r="D8" s="39" t="s">
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
@@ -9594,45 +8874,49 @@
         <v>44</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D9" s="13" t="s">
-        <v>94</v>
+        <v>91</v>
+      </c>
+      <c r="D9" s="39" t="s">
+        <v>137</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>95</v>
+        <v>72</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>96</v>
-      </c>
-      <c r="D10" s="12" t="s">
-        <v>97</v>
+        <v>73</v>
+      </c>
+      <c r="D10" s="38" t="s">
+        <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>120</v>
+        <v>97</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>80</v>
+        <v>71</v>
       </c>
       <c r="C11" s="12" t="s">
-        <v>121</v>
-      </c>
-      <c r="D11" s="13" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+        <v>125</v>
+      </c>
+      <c r="D11" s="39" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D12" s="40"/>
+    </row>
+    <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D13" s="40"/>
+    </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="16" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -10610,7 +9894,7 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>98</v>
+        <v>75</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>49</v>
@@ -10618,10 +9902,10 @@
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>100</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -11924,22 +11208,22 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F5C8A108-5C92-4947-B020-8B796E060B59}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>

--- a/GATEWAY/A1#111#INFOGRAMMASRLX1/INFOGRAMMA/GALENUS/2024.1/report-checklist.xlsx
+++ b/GATEWAY/A1#111#INFOGRAMMASRLX1/INFOGRAMMA/GALENUS/2024.1/report-checklist.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FiercePC\Desktop\Lavoro\ACCREDITAMENTO\CheckList\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FiercePC\Desktop\Lavoro\ACCREDITAMENTO\CheckList\PULL REQUEST 20250709\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11715" activeTab="2"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="19425" windowHeight="10305" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Istruzioni Compilazione" sheetId="1" r:id="rId1"/>
@@ -21,7 +21,7 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$32</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$29</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
@@ -79,7 +79,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="416" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="188">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -248,52 +248,6 @@
     <t>VPS</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Precondizioni:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
-    </r>
-  </si>
-  <si>
     <t>KO</t>
   </si>
   <si>
@@ -303,64 +257,9 @@
     <t>RSA</t>
   </si>
   <si>
-    <t>VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t>Precondizioni:</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
-Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
-    </r>
-  </si>
-  <si>
-    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
-  </si>
-  <si>
     <t>SI</t>
   </si>
   <si>
-    <t>VALIDAZIONE_RSA_TIMEOUT</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT6_KO</t>
   </si>
   <si>
@@ -371,9 +270,6 @@
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT10_KO</t>
-  </si>
-  <si>
-    <t>VALIDAZIONE_CDA2_RSA_CT12_KO</t>
   </si>
   <si>
     <t>VALIDAZIONE_CDA2_RSA_CT13_KO</t>
@@ -475,10 +371,6 @@
   </si>
   <si>
     <t>Altro (specificare)</t>
-  </si>
-  <si>
-    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
-"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
   </si>
   <si>
     <t>Versione:</t>
@@ -587,10 +479,6 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 10" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori semantici sui Dati (status code 422), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
-I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 12" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
-  </si>
-  <si>
     <t>448, 449</t>
   </si>
   <si>
@@ -633,12 +521,6 @@
     <t>417, 418, 419, 460</t>
   </si>
   <si>
-    <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS, RAP, RAD, RSA, LDO, LAB, VPS, SING_VACC, CERT_VACC i relativi casi di test con id 444, 417, 418, 460, 446, 448, 450, 452,454, 456, 457, 458 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
-  </si>
-  <si>
-    <t>8.2.4</t>
-  </si>
-  <si>
     <t>VALIDAZIONE_CDA2_RSA_CT27_KO</t>
   </si>
   <si>
@@ -646,15 +528,9 @@
 I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 27" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
   </si>
   <si>
-    <t>28,36,44,53,55,56,57,58,59,60,61,62, 466</t>
-  </si>
-  <si>
     <t>29,37,45,64,66,67,68,69,70,71,72,73,74, 467</t>
   </si>
   <si>
-    <t>31,39,47,76,78,79,80,81,82,83,84,85,86,87,88,89,90,91,92,93, 462</t>
-  </si>
-  <si>
     <t>33,41,49,95,97,98,99,100,101,102,103,104,105,106, 464</t>
   </si>
   <si>
@@ -664,70 +540,95 @@
     <t>35,43,51,123,125,126,127,128,129,130,131,132,133,134,135,136,137,138,139,140,141,142,143,144,145,146, 463</t>
   </si>
   <si>
-    <t>32,40,48,152,154,155,156,157,158,159,160,161,162,163,164,165,166,167,168,169, 461, 468</t>
-  </si>
-  <si>
     <t>30,38,46,175,177,178,179,180,181,182,183,184,185,186,187,188,189,190, 469</t>
   </si>
   <si>
     <t>423,424,425,427,428,429,430,431,432,433,434,435,436,437,438,439,440,441,442,443,448,449, 470</t>
   </si>
   <si>
+    <t>3) Nel caso in cui tra le tipologie documentali oggetto di accreditamento per l'applicativo figurino PSS, RAP, RAD, RSA, LDO, LAB, VPS, SING_VACC, CERT_VACC i relativi casi di test con id 444, 417, 418, 460, 448, 450, 452,454, 456, 457, 458, 471 che recepiscono quanto previsto dal Decreto 07 settembre 2023, devono essere obbligatoriamente eseguiti e compilati (la colonna APPLICABILITA' deve essere valorizzata con SI)</t>
+  </si>
+  <si>
+    <t>471, 472</t>
+  </si>
+  <si>
+    <t>VALIDAZIONE_CDA2_RSA_CT28_KO</t>
+  </si>
+  <si>
+    <t>8.2.6</t>
+  </si>
+  <si>
+    <t>Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" al fine di testare la gestione degli errori terminologici sui Dati (status code 400), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway. 
+I dati utilizzati per comporre il CDA2 dovranno essere conformi alle section e le entry secondo quanto espresso nella sezione "CASO DI TEST 28" riportata nei documenti "casi di test RSA" e "CDA2_Referto_Specialistica_Ambulatoriale_KO" presenti al path https://github.com/ministero-salute/it-fse-accreditamento.</t>
+  </si>
+  <si>
+    <t>28,36,44,53,55,56,57,59,60,61,62, 466, 473</t>
+  </si>
+  <si>
+    <t>31,39,47,76,78,79,80,81,83,84,85,86,87,88,89,90,91,92,93, 462, 474</t>
+  </si>
+  <si>
+    <t>32,40,48,152,154,155,156,157,159,160,161,162,163,164,165,166,167,168,169, 461, 468, 475</t>
+  </si>
+  <si>
+    <t>subject_application_id: GALENUS</t>
+  </si>
+  <si>
+    <t>subject_application_vendor: INFOGRAMMA</t>
+  </si>
+  <si>
     <t>subject_application_version: 2024.1</t>
   </si>
   <si>
-    <t>subject_application_vendor:  INFOGRAMMA</t>
-  </si>
-  <si>
-    <t>subject_application_id: GALENUS</t>
-  </si>
-  <si>
     <t>Infogramma s.r.l.</t>
   </si>
   <si>
-    <t>8648531cfa1cf358</t>
-  </si>
-  <si>
-    <t>UNKNOWN_WORKFLOW_ID</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Errore durante la validazione del CDA (FSE)
-Campo token JWT non valido (Il campo purpose_of_use non è valorizzato)
-Contattare al più presto l'assistenza tecnica!
-Sì vuole proseguire con la refertazione?  </t>
-  </si>
-  <si>
-    <t>L'utente riceve un avviso relativo all'errore ma può comunque portare a termine la produzione del referto. Il documento da validare viene aggiunto ad una coda gestita in backoffice. Un'apposita interfaccia consente la gestione 'manuale' di tutti i documenti presenti nella coda di retry.</t>
-  </si>
-  <si>
-    <t>2025-03-17T21:23:25Z</t>
-  </si>
-  <si>
-    <t>2025-03-17T21:23:43Z</t>
-  </si>
-  <si>
-    <t>98ea497cdbd68cdc</t>
+    <t>2025-03-18T08:21:22Z</t>
+  </si>
+  <si>
+    <t>81520445550fc61a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.c3929313c20e9918d5ec3d353c48422b59e39d5207a6cf1bf4c9a44a83b4cdd0.f220b17b2f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore durante la validazione del CDA (FSE)
-Campo token JWT non valido (Il campo action_id non è corretto)
+Il documento CDA non è valido (Errore di sintassi.) 
 Contattare al più presto l'assistenza tecnica!
 Sì vuole proseguire con la refertazione?</t>
   </si>
   <si>
-    <t>Errore durante la validazione del CDA (FSE)
-Timeout scaduto durante il tentativo di contattare il servizio 
-Contattare al più presto l'assistenza tecnica!
-Sì vuole proseguire con la refertazione?</t>
-  </si>
-  <si>
-    <t>2025-03-17T21:24:33Z</t>
-  </si>
-  <si>
-    <t>a2be71c125b240ea</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.ae884a7a81ef9b960405754b340129ba37fce7bdf1b4b6dcc044006ddc79acf3.49a93f20ae^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>L'utente riceve un avviso relativo all'errore ma può comunque portare a termine la produzione del referto. Un'apposita interfaccia consente la gestione 'manuale' di tutti i documenti con CDA non valido.</t>
+  </si>
+  <si>
+    <t>2025-07-10T09:59:16Z</t>
+  </si>
+  <si>
+    <t>cf5f154f64ca15328454d2b2ea8db942</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.71f77b9e95858bd8a7fd4c446b716ffb78185d6cfaf03245a167336ce498fe1b.4fda728307^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>8e97bb9031773c31faacf265d7e842f0</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.9bb95fa303e38dca68d158cffe0797e78831b166021c326a682f5f2bffa92161.65421bdae8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-10T10:05:50Z</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:27:15Z</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:27:28Z</t>
+  </si>
+  <si>
+    <t>59901ad537b5f29a</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.da2671aecddbe1217020df1d29088cdd1741a6daf1a353ae8620406cc690b6c2.626f3681aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore durante la validazione del CDA (FSE)
@@ -736,34 +637,10 @@
 Sì vuole proseguire con la refertazione?</t>
   </si>
   <si>
-    <t>L'utente riceve un avviso relativo all'errore ma può comunque portare a termine la produzione del referto. Un'apposita interfaccia consente la gestione 'manuale' di tutti i documenti con CDA non valido.</t>
-  </si>
-  <si>
-    <t>2025-03-17T21:24:46Z</t>
-  </si>
-  <si>
-    <t>d3321a7ccd201990</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.d43d1d0f7fdca65c02c3e0f69ac8b5b687e27cd24efe3a7e5a2aef5bfa0369fa.ab65644638^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-17T21:24:59Z</t>
-  </si>
-  <si>
-    <t>6821bbdac0017fab</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.9ae89f89af5f86e20fe71b56b4c64d027e8a50904507a484b39b4f1e1c6e8ff4.8242c528b6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-17T21:25:11Z</t>
-  </si>
-  <si>
-    <t>00195a26bbd98946</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.de2f6446b7a7af86e5e381c364fe0306f1581b912bdd78bdd802f4f204efd9c3.dea544ebc7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>b4045f0cd0265651</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.30bb5e36beee0e0d6fed722ee139986962e9cc3fc56b858deac990607634bab0.0997a11c64^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
   <si>
     <t>Errore durante la validazione del CDA (FSE)
@@ -772,6 +649,90 @@
 Sì vuole proseguire con la refertazione?</t>
   </si>
   <si>
+    <t>L'applicativo non gestisce alcuni campi del CDA opzionali ma richiesti per il test</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:26:40Z</t>
+  </si>
+  <si>
+    <t>97c3413300dd9960</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.9ed33c8de1d38d664fe58afee02706724db0307e74be0ee83c855f2ba2191306.eec1bafc88^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:26:05</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:26:18Z</t>
+  </si>
+  <si>
+    <t>04461a8454455c34</t>
+  </si>
+  <si>
+    <t>6222fdf12da341d1</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.cd9b51d41ca8ef3f8101ec8abb0f600a4a98602eff02cf473429768c07e61634.b61144144a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.a85c8ccd4750cc961f30697ab496e5bd30de20dd5718492ded1d2038bf1814a9.b8f7a33919^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:24:59Z</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:25:11Z</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:25:47Z</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:25:55Z</t>
+  </si>
+  <si>
+    <t>07c04f4d89b51fc5</t>
+  </si>
+  <si>
+    <t>eb24f39068400c67</t>
+  </si>
+  <si>
+    <t>00195a26bbd98946</t>
+  </si>
+  <si>
+    <t>6821bbdac0017fab</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.9ae89f89af5f86e20fe71b56b4c64d027e8a50904507a484b39b4f1e1c6e8ff4.8242c528b6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.de2f6446b7a7af86e5e381c364fe0306f1581b912bdd78bdd802f4f204efd9c3.dea544ebc7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.726799fff79a3487b0df91acd85dfe13ea27c136d61fabd5af9911080cf586f5.5cd01125a2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.64c8abdc66ef0deafc7e4f85901ada50d210cf583eedf427655f4097770658f0.d5cd6b2f8f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:24:46Z</t>
+  </si>
+  <si>
+    <t>d3321a7ccd201990</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.d43d1d0f7fdca65c02c3e0f69ac8b5b687e27cd24efe3a7e5a2aef5bfa0369fa.ab65644638^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:24:33Z</t>
+  </si>
+  <si>
+    <t>a2be71c125b240ea</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.ae884a7a81ef9b960405754b340129ba37fce7bdf1b4b6dcc044006ddc79acf3.49a93f20ae^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
     <t>2025-03-17T21:25:38Z</t>
   </si>
   <si>
@@ -779,96 +740,6 @@
   </si>
   <si>
     <t>2.16.840.1.113883.2.9.2.10.4.4.8d5e96c54e27de290bf7d214d63b924a6e782888d6dccebea393c0875a5ed28c.cc50fccd5e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-17T21:25:47Z</t>
-  </si>
-  <si>
-    <t>eb24f39068400c67</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.726799fff79a3487b0df91acd85dfe13ea27c136d61fabd5af9911080cf586f5.5cd01125a2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>Errore durante la validazione del CDA (FSE)
-Il documento CDA non è valido (Errore di sintassi.) 
-Contattare al più presto l'assistenza tecnica!
-Sì vuole proseguire con la refertazione?</t>
-  </si>
-  <si>
-    <t>2025-03-17T21:25:55Z</t>
-  </si>
-  <si>
-    <t>07c04f4d89b51fc5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.64c8abdc66ef0deafc7e4f85901ada50d210cf583eedf427655f4097770658f0.d5cd6b2f8f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-17T21:26:05</t>
-  </si>
-  <si>
-    <t>6222fdf12da341d1</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.cd9b51d41ca8ef3f8101ec8abb0f600a4a98602eff02cf473429768c07e61634.b61144144a^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-17T21:26:18Z</t>
-  </si>
-  <si>
-    <t>04461a8454455c34</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.a85c8ccd4750cc961f30697ab496e5bd30de20dd5718492ded1d2038bf1814a9.b8f7a33919^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-17T21:26:40Z</t>
-  </si>
-  <si>
-    <t>97c3413300dd9960</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.9ed33c8de1d38d664fe58afee02706724db0307e74be0ee83c855f2ba2191306.eec1bafc88^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>L'applicativo non gestisce alcuni campi del CDA opzionali ma richiesti per il test (ad esempio: ClinicalDocument/component/structuredBody/component/section[@ID=Storia_Clinica])</t>
-  </si>
-  <si>
-    <t>2025-03-17T21:27:15Z</t>
-  </si>
-  <si>
-    <t>b4045f0cd0265651</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.30bb5e36beee0e0d6fed722ee139986962e9cc3fc56b858deac990607634bab0.0997a11c64^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-17T21:27:28Z</t>
-  </si>
-  <si>
-    <t>59901ad537b5f29a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.da2671aecddbe1217020df1d29088cdd1741a6daf1a353ae8620406cc690b6c2.626f3681aa^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-17T21:27:41</t>
-  </si>
-  <si>
-    <t>cba2bad1685ce900</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.f3823c9982db93a45684780eb1e0749c1a25c4ef0b5893783e5f30644c8dfcf7.ecb8f541e6^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-03-18T08:21:22Z</t>
-  </si>
-  <si>
-    <t>81520445550fc61a</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.c3929313c20e9918d5ec3d353c48422b59e39d5207a6cf1bf4c9a44a83b4cdd0.f220b17b2f^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -878,7 +749,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -946,14 +817,6 @@
     </font>
     <font>
       <b/>
-      <u/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
       <sz val="14"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -1016,7 +879,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="25">
+  <borders count="24">
     <border>
       <left/>
       <right/>
@@ -1316,21 +1179,6 @@
       <left style="thin">
         <color rgb="FF000000"/>
       </left>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FF000000"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF000000"/>
-      </left>
       <right/>
       <top style="medium">
         <color rgb="FF000000"/>
@@ -1345,7 +1193,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="60">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1380,27 +1228,27 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="10" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1419,20 +1267,24 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1446,21 +1298,20 @@
     <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" wrapText="1"/>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1483,18 +1334,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="24" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1563,6 +1402,11 @@
       <tableStyleElement type="secondRowStripe" dxfId="0"/>
     </tableStyle>
   </tableStyles>
+  <colors>
+    <mruColors>
+      <color rgb="FFFF8B8B"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1792,8 +1636,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:A13"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1809,7 +1653,7 @@
     </row>
     <row r="2" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>96</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="30" x14ac:dyDescent="0.25">
@@ -1824,17 +1668,17 @@
     </row>
     <row r="5" spans="1:1" ht="300" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>93</v>
+        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="90" x14ac:dyDescent="0.25">
       <c r="A6" s="17" t="s">
-        <v>94</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" s="17" t="s">
-        <v>95</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
@@ -1932,7 +1776,7 @@
         <v>5</v>
       </c>
       <c r="B8" s="26" t="s">
-        <v>92</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2938,13 +2782,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W597"/>
+  <dimension ref="A1:W589"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="H13" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J15" sqref="J15"/>
+      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2986,14 +2830,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="46" t="s">
+      <c r="A2" s="47" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="47"/>
-      <c r="C2" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="D2" s="47"/>
+      <c r="B2" s="48"/>
+      <c r="C2" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" s="48"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -3014,14 +2858,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="49" t="s">
+      <c r="A3" s="50" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="50"/>
-      <c r="C3" s="55" t="s">
-        <v>141</v>
-      </c>
-      <c r="D3" s="47"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="56" t="s">
+        <v>134</v>
+      </c>
+      <c r="D3" s="48"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -3042,12 +2886,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="51"/>
-      <c r="B4" s="52"/>
-      <c r="C4" s="55" t="s">
-        <v>140</v>
-      </c>
-      <c r="D4" s="47"/>
+      <c r="A4" s="52"/>
+      <c r="B4" s="53"/>
+      <c r="C4" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" s="48"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -3069,12 +2913,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="53"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55" t="s">
-        <v>139</v>
-      </c>
-      <c r="D5" s="47"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="55"/>
+      <c r="C5" s="56" t="s">
+        <v>136</v>
+      </c>
+      <c r="D5" s="48"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -3095,8 +2939,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="44"/>
-      <c r="B6" s="45"/>
+      <c r="A6" s="45"/>
+      <c r="B6" s="46"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3195,7 +3039,7 @@
         <v>24</v>
       </c>
       <c r="L9" s="20" t="s">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="M9" s="20" t="s">
         <v>25</v>
@@ -3210,10 +3054,10 @@
         <v>28</v>
       </c>
       <c r="Q9" s="20" t="s">
-        <v>79</v>
+        <v>73</v>
       </c>
       <c r="R9" s="20" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="S9" s="20" t="s">
         <v>29</v>
@@ -3231,1282 +3075,1169 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31">
-        <v>32</v>
-      </c>
-      <c r="B10" s="31" t="s">
+    <row r="10" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="33">
+        <v>152</v>
+      </c>
+      <c r="B10" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D10" s="33" t="s">
+        <v>46</v>
+      </c>
+      <c r="E10" s="40" t="s">
+        <v>101</v>
+      </c>
+      <c r="F10" s="34">
+        <v>45733</v>
+      </c>
+      <c r="G10" s="34" t="s">
+        <v>182</v>
+      </c>
+      <c r="H10" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="I10" s="39" t="s">
+        <v>184</v>
+      </c>
+      <c r="J10" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D10" s="31" t="s">
-        <v>46</v>
-      </c>
-      <c r="E10" s="32" t="s">
+      <c r="K10" s="35"/>
+      <c r="L10" s="35"/>
+      <c r="M10" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N10" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O10" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="P10" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q10" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R10" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="T10" s="35"/>
+      <c r="U10" s="36"/>
+      <c r="V10" s="37"/>
+      <c r="W10" s="35" t="s">
         <v>42</v>
       </c>
-      <c r="F10" s="56">
+    </row>
+    <row r="11" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="33">
+        <v>154</v>
+      </c>
+      <c r="B11" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C11" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="33" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" s="34">
         <v>45733</v>
       </c>
-      <c r="G10" s="33" t="s">
+      <c r="G11" s="34" t="s">
+        <v>179</v>
+      </c>
+      <c r="H11" s="34" t="s">
+        <v>180</v>
+      </c>
+      <c r="I11" s="39" t="s">
+        <v>181</v>
+      </c>
+      <c r="J11" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K11" s="35"/>
+      <c r="L11" s="35"/>
+      <c r="M11" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N11" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O11" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="P11" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q11" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R11" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="T11" s="35"/>
+      <c r="U11" s="36"/>
+      <c r="V11" s="37"/>
+      <c r="W11" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="33">
+        <v>155</v>
+      </c>
+      <c r="B12" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C12" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="33" t="s">
+        <v>48</v>
+      </c>
+      <c r="E12" s="40" t="s">
+        <v>103</v>
+      </c>
+      <c r="F12" s="34">
+        <v>45733</v>
+      </c>
+      <c r="G12" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="H12" s="34" t="s">
+        <v>174</v>
+      </c>
+      <c r="I12" s="39" t="s">
+        <v>175</v>
+      </c>
+      <c r="J12" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K12" s="35"/>
+      <c r="L12" s="35"/>
+      <c r="M12" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N12" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O12" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="P12" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q12" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R12" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="T12" s="35"/>
+      <c r="U12" s="36"/>
+      <c r="V12" s="37"/>
+      <c r="W12" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="13" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="33">
+        <v>156</v>
+      </c>
+      <c r="B13" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C13" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E13" s="40" t="s">
+        <v>104</v>
+      </c>
+      <c r="F13" s="34">
+        <v>45733</v>
+      </c>
+      <c r="G13" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="H13" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="I13" s="39" t="s">
+        <v>176</v>
+      </c>
+      <c r="J13" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K13" s="35"/>
+      <c r="L13" s="35"/>
+      <c r="M13" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="O13" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="P13" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R13" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S13" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="T13" s="35"/>
+      <c r="U13" s="36"/>
+      <c r="V13" s="37"/>
+      <c r="W13" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="14" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="33">
+        <v>159</v>
+      </c>
+      <c r="B14" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C14" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="33" t="s">
+        <v>50</v>
+      </c>
+      <c r="E14" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="F14" s="34">
+        <v>45733</v>
+      </c>
+      <c r="G14" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="H14" s="34" t="s">
+        <v>172</v>
+      </c>
+      <c r="I14" s="39" t="s">
+        <v>177</v>
+      </c>
+      <c r="J14" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K14" s="35"/>
+      <c r="L14" s="35"/>
+      <c r="M14" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N14" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="O14" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="P14" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q14" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R14" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S14" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="T14" s="35"/>
+      <c r="U14" s="36"/>
+      <c r="V14" s="37"/>
+      <c r="W14" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="33">
+        <v>160</v>
+      </c>
+      <c r="B15" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C15" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="33" t="s">
+        <v>52</v>
+      </c>
+      <c r="E15" s="40" t="s">
+        <v>53</v>
+      </c>
+      <c r="F15" s="34">
+        <v>45733</v>
+      </c>
+      <c r="G15" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="H15" s="34" t="s">
+        <v>171</v>
+      </c>
+      <c r="I15" s="39" t="s">
+        <v>178</v>
+      </c>
+      <c r="J15" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K15" s="35"/>
+      <c r="L15" s="35"/>
+      <c r="M15" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="O15" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="P15" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q15" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R15" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S15" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="T15" s="35"/>
+      <c r="U15" s="36"/>
+      <c r="V15" s="37"/>
+      <c r="W15" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="33">
+        <v>161</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C16" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="33" t="s">
+        <v>54</v>
+      </c>
+      <c r="E16" s="40" t="s">
+        <v>92</v>
+      </c>
+      <c r="F16" s="34">
+        <v>45733</v>
+      </c>
+      <c r="G16" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="H16" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="I16" s="44" t="s">
+        <v>165</v>
+      </c>
+      <c r="J16" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N16" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O16" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="P16" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q16" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R16" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S16" s="34">
+        <v>45733</v>
+      </c>
+      <c r="T16" s="35"/>
+      <c r="U16" s="36"/>
+      <c r="V16" s="37"/>
+      <c r="W16" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="33">
+        <v>162</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="E17" s="40" t="s">
+        <v>93</v>
+      </c>
+      <c r="F17" s="34">
+        <v>45733</v>
+      </c>
+      <c r="G17" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="H17" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="I17" s="39" t="s">
+        <v>166</v>
+      </c>
+      <c r="J17" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N17" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O17" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="P17" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q17" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R17" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S17" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="T17" s="35"/>
+      <c r="U17" s="36"/>
+      <c r="V17" s="37"/>
+      <c r="W17" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="33">
+        <v>163</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="33" t="s">
+        <v>56</v>
+      </c>
+      <c r="E18" s="40" t="s">
+        <v>94</v>
+      </c>
+      <c r="F18" s="34">
+        <v>45733</v>
+      </c>
+      <c r="G18" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="H18" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="I18" s="39" t="s">
+        <v>160</v>
+      </c>
+      <c r="J18" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K18" s="35"/>
+      <c r="L18" s="35"/>
+      <c r="M18" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N18" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O18" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="P18" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q18" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R18" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S18" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="T18" s="35"/>
+      <c r="U18" s="36"/>
+      <c r="V18" s="37"/>
+      <c r="W18" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="33">
+        <v>164</v>
+      </c>
+      <c r="B19" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C19" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" s="33" t="s">
+        <v>57</v>
+      </c>
+      <c r="E19" s="40" t="s">
+        <v>95</v>
+      </c>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="K19" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="L19" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="M19" s="35"/>
+      <c r="N19" s="35"/>
+      <c r="O19" s="35"/>
+      <c r="P19" s="35"/>
+      <c r="Q19" s="35"/>
+      <c r="R19" s="35"/>
+      <c r="S19" s="35"/>
+      <c r="T19" s="35"/>
+      <c r="U19" s="36"/>
+      <c r="V19" s="37"/>
+      <c r="W19" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="33">
+        <v>165</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C20" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D20" s="33" t="s">
+        <v>58</v>
+      </c>
+      <c r="E20" s="40" t="s">
+        <v>96</v>
+      </c>
+      <c r="F20" s="34"/>
+      <c r="G20" s="34"/>
+      <c r="H20" s="34"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="K20" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="L20" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="M20" s="35"/>
+      <c r="N20" s="35"/>
+      <c r="O20" s="35"/>
+      <c r="P20" s="35"/>
+      <c r="Q20" s="35"/>
+      <c r="R20" s="35"/>
+      <c r="S20" s="35"/>
+      <c r="T20" s="35"/>
+      <c r="U20" s="36"/>
+      <c r="V20" s="37"/>
+      <c r="W20" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33">
+        <v>166</v>
+      </c>
+      <c r="B21" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C21" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D21" s="33" t="s">
+        <v>59</v>
+      </c>
+      <c r="E21" s="40" t="s">
+        <v>97</v>
+      </c>
+      <c r="F21" s="34"/>
+      <c r="G21" s="34"/>
+      <c r="H21" s="34"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="K21" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="L21" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="M21" s="35"/>
+      <c r="N21" s="35"/>
+      <c r="O21" s="35"/>
+      <c r="P21" s="35"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="35"/>
+      <c r="S21" s="35"/>
+      <c r="T21" s="35"/>
+      <c r="U21" s="36"/>
+      <c r="V21" s="37"/>
+      <c r="W21" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="33">
+        <v>167</v>
+      </c>
+      <c r="B22" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C22" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D22" s="33" t="s">
+        <v>60</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>98</v>
+      </c>
+      <c r="F22" s="34"/>
+      <c r="G22" s="34"/>
+      <c r="H22" s="34"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="K22" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="L22" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="M22" s="35"/>
+      <c r="N22" s="35"/>
+      <c r="O22" s="35"/>
+      <c r="P22" s="35"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="35"/>
+      <c r="S22" s="35"/>
+      <c r="T22" s="35"/>
+      <c r="U22" s="36"/>
+      <c r="V22" s="37"/>
+      <c r="W22" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="23" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="33">
+        <v>168</v>
+      </c>
+      <c r="B23" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C23" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D23" s="33" t="s">
+        <v>61</v>
+      </c>
+      <c r="E23" s="40" t="s">
+        <v>99</v>
+      </c>
+      <c r="F23" s="34">
+        <v>45733</v>
+      </c>
+      <c r="G23" s="34" t="s">
+        <v>149</v>
+      </c>
+      <c r="H23" s="34" t="s">
+        <v>154</v>
+      </c>
+      <c r="I23" s="39" t="s">
+        <v>155</v>
+      </c>
+      <c r="J23" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K23" s="35"/>
+      <c r="L23" s="35"/>
+      <c r="M23" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N23" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O23" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="P23" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q23" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R23" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S23" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="T23" s="35"/>
+      <c r="U23" s="36"/>
+      <c r="V23" s="37"/>
+      <c r="W23" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="33">
+        <v>169</v>
+      </c>
+      <c r="B24" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D24" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="E24" s="40" t="s">
+        <v>100</v>
+      </c>
+      <c r="F24" s="34">
+        <v>45733</v>
+      </c>
+      <c r="G24" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H24" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="I24" s="39" t="s">
+        <v>152</v>
+      </c>
+      <c r="J24" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K24" s="35"/>
+      <c r="L24" s="35"/>
+      <c r="M24" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N24" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O24" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="P24" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q24" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R24" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S24" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="T24" s="35"/>
+      <c r="U24" s="36"/>
+      <c r="V24" s="37"/>
+      <c r="W24" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="25" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="33">
+        <v>448</v>
+      </c>
+      <c r="B25" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C25" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D25" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="E25" s="40" t="s">
+        <v>112</v>
+      </c>
+      <c r="F25" s="34">
+        <v>45848</v>
+      </c>
+      <c r="G25" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="H25" s="34" t="s">
+        <v>144</v>
+      </c>
+      <c r="I25" s="39" t="s">
+        <v>145</v>
+      </c>
+      <c r="J25" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K25" s="35"/>
+      <c r="L25" s="35"/>
+      <c r="M25" s="35"/>
+      <c r="N25" s="35"/>
+      <c r="O25" s="35"/>
+      <c r="P25" s="35"/>
+      <c r="Q25" s="35"/>
+      <c r="R25" s="35"/>
+      <c r="S25" s="35"/>
+      <c r="T25" s="35"/>
+      <c r="U25" s="36"/>
+      <c r="V25" s="37"/>
+      <c r="W25" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="33">
+        <v>449</v>
+      </c>
+      <c r="B26" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C26" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D26" s="33" t="s">
+        <v>111</v>
+      </c>
+      <c r="E26" s="40" t="s">
+        <v>113</v>
+      </c>
+      <c r="F26" s="34">
+        <v>45848</v>
+      </c>
+      <c r="G26" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>146</v>
+      </c>
+      <c r="I26" s="39" t="s">
         <v>147</v>
       </c>
-      <c r="H10" s="33" t="s">
-        <v>143</v>
-      </c>
-      <c r="I10" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="J10" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K10" s="29"/>
-      <c r="L10" s="29"/>
-      <c r="M10" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="N10" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="O10" s="58" t="s">
-        <v>145</v>
-      </c>
-      <c r="P10" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q10" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="R10" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="S10" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="T10" s="29"/>
-      <c r="U10" s="34"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="11" spans="1:23" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="31">
-        <v>40</v>
-      </c>
-      <c r="B11" s="31" t="s">
+      <c r="J26" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K26" s="35"/>
+      <c r="L26" s="35"/>
+      <c r="M26" s="35"/>
+      <c r="N26" s="35"/>
+      <c r="O26" s="35"/>
+      <c r="P26" s="35"/>
+      <c r="Q26" s="35"/>
+      <c r="R26" s="35"/>
+      <c r="S26" s="35"/>
+      <c r="T26" s="35"/>
+      <c r="U26" s="36"/>
+      <c r="V26" s="37"/>
+      <c r="W26" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="33">
+        <v>461</v>
+      </c>
+      <c r="B27" s="33" t="s">
         <v>34</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C27" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D27" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E27" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F27" s="33"/>
+      <c r="G27" s="33"/>
+      <c r="H27" s="33"/>
+      <c r="I27" s="33"/>
+      <c r="J27" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="K27" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="L27" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="M27" s="35"/>
+      <c r="N27" s="35"/>
+      <c r="O27" s="33"/>
+      <c r="P27" s="35"/>
+      <c r="Q27" s="35"/>
+      <c r="R27" s="35"/>
+      <c r="S27" s="33"/>
+      <c r="T27" s="35"/>
+      <c r="U27" s="33"/>
+      <c r="V27" s="33"/>
+      <c r="W27" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="33">
+        <v>468</v>
+      </c>
+      <c r="B28" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C28" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D28" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E28" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F28" s="41">
+        <v>45734</v>
+      </c>
+      <c r="G28" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H28" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="I28" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="J28" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D11" s="31" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="32" t="s">
-        <v>47</v>
-      </c>
-      <c r="F11" s="33">
+      <c r="K28" s="35"/>
+      <c r="L28" s="33"/>
+      <c r="M28" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N28" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O28" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="P28" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q28" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R28" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S28" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="T28" s="35"/>
+      <c r="U28" s="33"/>
+      <c r="V28" s="33"/>
+      <c r="W28" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="33">
+        <v>475</v>
+      </c>
+      <c r="B29" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C29" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D29" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E29" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="F29" s="41">
         <v>45733</v>
       </c>
-      <c r="G11" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="H11" s="33" t="s">
-        <v>149</v>
-      </c>
-      <c r="I11" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="J11" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K11" s="29"/>
-      <c r="L11" s="29"/>
-      <c r="M11" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="N11" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="O11" s="58" t="s">
-        <v>150</v>
-      </c>
-      <c r="P11" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q11" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="R11" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="S11" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="T11" s="29"/>
-      <c r="U11" s="34"/>
-      <c r="V11" s="35"/>
-      <c r="W11" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="12" spans="1:23" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="31">
-        <v>48</v>
-      </c>
-      <c r="B12" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C12" s="36" t="s">
+      <c r="G29" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="H29" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="I29" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="J29" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D12" s="31" t="s">
-        <v>50</v>
-      </c>
-      <c r="E12" s="32" t="s">
-        <v>89</v>
-      </c>
-      <c r="F12" s="33">
-        <v>45733</v>
-      </c>
-      <c r="G12" s="33"/>
-      <c r="H12" s="33"/>
-      <c r="I12" s="37"/>
-      <c r="J12" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K12" s="29"/>
-      <c r="L12" s="29"/>
-      <c r="M12" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="N12" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="O12" s="58" t="s">
-        <v>151</v>
-      </c>
-      <c r="P12" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q12" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="R12" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="S12" s="58" t="s">
-        <v>146</v>
-      </c>
-      <c r="T12" s="29"/>
-      <c r="U12" s="34"/>
-      <c r="V12" s="35"/>
-      <c r="W12" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="13" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="31">
-        <v>152</v>
-      </c>
-      <c r="B13" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C13" s="36" t="s">
+      <c r="K29" s="35"/>
+      <c r="L29" s="35"/>
+      <c r="M29" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N29" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D13" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="E13" s="32" t="s">
-        <v>108</v>
-      </c>
-      <c r="F13" s="33">
-        <v>45733</v>
-      </c>
-      <c r="G13" s="33" t="s">
-        <v>152</v>
-      </c>
-      <c r="H13" s="33" t="s">
+      <c r="O29" s="43" t="s">
         <v>153</v>
       </c>
-      <c r="I13" s="37" t="s">
-        <v>154</v>
-      </c>
-      <c r="J13" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K13" s="29"/>
-      <c r="L13" s="29"/>
-      <c r="M13" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="N13" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="O13" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="P13" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q13" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="R13" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="S13" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="T13" s="29"/>
-      <c r="U13" s="34"/>
-      <c r="V13" s="35"/>
-      <c r="W13" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="31">
-        <v>154</v>
-      </c>
-      <c r="B14" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C14" s="36" t="s">
+      <c r="P29" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D14" s="31" t="s">
-        <v>52</v>
-      </c>
-      <c r="E14" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="F14" s="33">
-        <v>45733</v>
-      </c>
-      <c r="G14" s="33" t="s">
-        <v>157</v>
-      </c>
-      <c r="H14" s="33" t="s">
-        <v>158</v>
-      </c>
-      <c r="I14" s="37" t="s">
-        <v>159</v>
-      </c>
-      <c r="J14" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K14" s="29"/>
-      <c r="L14" s="29"/>
-      <c r="M14" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="N14" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="O14" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="P14" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q14" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="R14" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="S14" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="T14" s="29"/>
-      <c r="U14" s="34"/>
-      <c r="V14" s="35"/>
-      <c r="W14" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="15" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="31">
-        <v>155</v>
-      </c>
-      <c r="B15" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C15" s="36" t="s">
+      <c r="Q29" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R29" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="D15" s="31" t="s">
-        <v>53</v>
-      </c>
-      <c r="E15" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="F15" s="33">
-        <v>45733</v>
-      </c>
-      <c r="G15" s="33" t="s">
-        <v>160</v>
-      </c>
-      <c r="H15" s="33" t="s">
-        <v>161</v>
-      </c>
-      <c r="I15" s="37" t="s">
-        <v>162</v>
-      </c>
-      <c r="J15" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K15" s="29"/>
-      <c r="L15" s="29"/>
-      <c r="M15" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="N15" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="O15" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="P15" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q15" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="R15" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="S15" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="T15" s="29"/>
-      <c r="U15" s="34"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="16" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="31">
-        <v>156</v>
-      </c>
-      <c r="B16" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C16" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D16" s="31" t="s">
-        <v>54</v>
-      </c>
-      <c r="E16" s="32" t="s">
-        <v>111</v>
-      </c>
-      <c r="F16" s="33">
-        <v>45733</v>
-      </c>
-      <c r="G16" s="33" t="s">
-        <v>163</v>
-      </c>
-      <c r="H16" s="33" t="s">
-        <v>164</v>
-      </c>
-      <c r="I16" s="37" t="s">
-        <v>165</v>
-      </c>
-      <c r="J16" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K16" s="29"/>
-      <c r="L16" s="29"/>
-      <c r="M16" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="N16" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="O16" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="P16" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q16" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="R16" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="S16" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="T16" s="29"/>
-      <c r="U16" s="34"/>
-      <c r="V16" s="35"/>
-      <c r="W16" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="17" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="31">
-        <v>158</v>
-      </c>
-      <c r="B17" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D17" s="31" t="s">
-        <v>55</v>
-      </c>
-      <c r="E17" s="32" t="s">
-        <v>112</v>
-      </c>
-      <c r="F17" s="33">
-        <v>45733</v>
-      </c>
-      <c r="G17" s="33" t="s">
-        <v>167</v>
-      </c>
-      <c r="H17" s="33" t="s">
-        <v>168</v>
-      </c>
-      <c r="I17" s="37" t="s">
-        <v>169</v>
-      </c>
-      <c r="J17" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K17" s="29"/>
-      <c r="L17" s="29"/>
-      <c r="M17" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="N17" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="O17" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="P17" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q17" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="R17" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="S17" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="T17" s="29"/>
-      <c r="U17" s="34"/>
-      <c r="V17" s="35"/>
-      <c r="W17" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="18" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="31">
-        <v>159</v>
-      </c>
-      <c r="B18" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D18" s="31" t="s">
-        <v>56</v>
-      </c>
-      <c r="E18" s="32" t="s">
-        <v>57</v>
-      </c>
-      <c r="F18" s="33">
-        <v>45733</v>
-      </c>
-      <c r="G18" s="33" t="s">
-        <v>170</v>
-      </c>
-      <c r="H18" s="33" t="s">
-        <v>171</v>
-      </c>
-      <c r="I18" s="37" t="s">
-        <v>172</v>
-      </c>
-      <c r="J18" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K18" s="29"/>
-      <c r="L18" s="29"/>
-      <c r="M18" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="N18" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="O18" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="P18" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q18" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="R18" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="S18" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="T18" s="29"/>
-      <c r="U18" s="34"/>
-      <c r="V18" s="35"/>
-      <c r="W18" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="19" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31">
-        <v>160</v>
-      </c>
-      <c r="B19" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D19" s="31" t="s">
-        <v>58</v>
-      </c>
-      <c r="E19" s="32" t="s">
-        <v>59</v>
-      </c>
-      <c r="F19" s="33">
-        <v>45733</v>
-      </c>
-      <c r="G19" s="33" t="s">
-        <v>174</v>
-      </c>
-      <c r="H19" s="33" t="s">
-        <v>175</v>
-      </c>
-      <c r="I19" s="37" t="s">
-        <v>176</v>
-      </c>
-      <c r="J19" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K19" s="29"/>
-      <c r="L19" s="29"/>
-      <c r="M19" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="N19" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="O19" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="P19" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q19" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="R19" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="S19" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="T19" s="29"/>
-      <c r="U19" s="34"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="20" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="31">
-        <v>161</v>
-      </c>
-      <c r="B20" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D20" s="31" t="s">
-        <v>60</v>
-      </c>
-      <c r="E20" s="32" t="s">
-        <v>99</v>
-      </c>
-      <c r="F20" s="33">
-        <v>45733</v>
-      </c>
-      <c r="G20" s="33" t="s">
-        <v>177</v>
-      </c>
-      <c r="H20" s="59" t="s">
-        <v>178</v>
-      </c>
-      <c r="I20" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="J20" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K20" s="29"/>
-      <c r="L20" s="29"/>
-      <c r="M20" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="N20" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="O20" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="P20" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q20" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="R20" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="S20" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="T20" s="29"/>
-      <c r="U20" s="34"/>
-      <c r="V20" s="35"/>
-      <c r="W20" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="21" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31">
-        <v>162</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C21" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>61</v>
-      </c>
-      <c r="E21" s="32" t="s">
-        <v>100</v>
-      </c>
-      <c r="F21" s="33">
-        <v>45733</v>
-      </c>
-      <c r="G21" s="33" t="s">
-        <v>180</v>
-      </c>
-      <c r="H21" s="33" t="s">
-        <v>181</v>
-      </c>
-      <c r="I21" s="37" t="s">
-        <v>182</v>
-      </c>
-      <c r="J21" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K21" s="29"/>
-      <c r="L21" s="29"/>
-      <c r="M21" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="N21" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="O21" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="P21" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q21" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="R21" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="S21" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="T21" s="29"/>
-      <c r="U21" s="34"/>
-      <c r="V21" s="35"/>
-      <c r="W21" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="22" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31">
-        <v>163</v>
-      </c>
-      <c r="B22" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D22" s="31" t="s">
-        <v>62</v>
-      </c>
-      <c r="E22" s="32" t="s">
-        <v>101</v>
-      </c>
-      <c r="F22" s="33">
-        <v>45733</v>
-      </c>
-      <c r="G22" s="33" t="s">
-        <v>183</v>
-      </c>
-      <c r="H22" s="33" t="s">
-        <v>184</v>
-      </c>
-      <c r="I22" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="J22" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K22" s="29"/>
-      <c r="L22" s="29"/>
-      <c r="M22" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="N22" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="O22" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="P22" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q22" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="R22" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="S22" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="T22" s="29"/>
-      <c r="U22" s="34"/>
-      <c r="V22" s="35"/>
-      <c r="W22" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="23" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="31">
-        <v>164</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D23" s="31" t="s">
-        <v>63</v>
-      </c>
-      <c r="E23" s="32" t="s">
-        <v>102</v>
-      </c>
-      <c r="F23" s="33"/>
-      <c r="G23" s="33"/>
-      <c r="H23" s="33"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K23" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="L23" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="M23" s="29"/>
-      <c r="N23" s="29"/>
-      <c r="O23" s="29"/>
-      <c r="P23" s="29"/>
-      <c r="Q23" s="29"/>
-      <c r="R23" s="29"/>
-      <c r="S23" s="29"/>
-      <c r="T23" s="29"/>
-      <c r="U23" s="34"/>
-      <c r="V23" s="35"/>
-      <c r="W23" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="24" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31">
-        <v>165</v>
-      </c>
-      <c r="B24" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D24" s="31" t="s">
-        <v>64</v>
-      </c>
-      <c r="E24" s="32" t="s">
-        <v>103</v>
-      </c>
-      <c r="F24" s="33"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="33"/>
-      <c r="I24" s="37"/>
-      <c r="J24" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K24" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="L24" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="M24" s="29"/>
-      <c r="N24" s="29"/>
-      <c r="O24" s="29"/>
-      <c r="P24" s="29"/>
-      <c r="Q24" s="29"/>
-      <c r="R24" s="29"/>
-      <c r="S24" s="29"/>
-      <c r="T24" s="29"/>
-      <c r="U24" s="34"/>
-      <c r="V24" s="35"/>
-      <c r="W24" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="31">
-        <v>166</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C25" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D25" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E25" s="32" t="s">
-        <v>104</v>
-      </c>
-      <c r="F25" s="33"/>
-      <c r="G25" s="33"/>
-      <c r="H25" s="33"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K25" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="L25" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="M25" s="29"/>
-      <c r="N25" s="29"/>
-      <c r="O25" s="29"/>
-      <c r="P25" s="29"/>
-      <c r="Q25" s="29"/>
-      <c r="R25" s="29"/>
-      <c r="S25" s="29"/>
-      <c r="T25" s="29"/>
-      <c r="U25" s="34"/>
-      <c r="V25" s="35"/>
-      <c r="W25" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="26" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="31">
-        <v>167</v>
-      </c>
-      <c r="B26" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D26" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="E26" s="32" t="s">
-        <v>105</v>
-      </c>
-      <c r="F26" s="33"/>
-      <c r="G26" s="33"/>
-      <c r="H26" s="33"/>
-      <c r="I26" s="37"/>
-      <c r="J26" s="29" t="s">
-        <v>77</v>
-      </c>
-      <c r="K26" s="29" t="s">
-        <v>88</v>
-      </c>
-      <c r="L26" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="M26" s="29"/>
-      <c r="N26" s="29"/>
-      <c r="O26" s="29"/>
-      <c r="P26" s="29"/>
-      <c r="Q26" s="29"/>
-      <c r="R26" s="29"/>
-      <c r="S26" s="29"/>
-      <c r="T26" s="29"/>
-      <c r="U26" s="34"/>
-      <c r="V26" s="35"/>
-      <c r="W26" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="31">
-        <v>168</v>
-      </c>
-      <c r="B27" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C27" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D27" s="31" t="s">
-        <v>67</v>
-      </c>
-      <c r="E27" s="32" t="s">
-        <v>106</v>
-      </c>
-      <c r="F27" s="56">
-        <v>45641</v>
-      </c>
-      <c r="G27" s="33" t="s">
-        <v>187</v>
-      </c>
-      <c r="H27" s="33" t="s">
-        <v>188</v>
-      </c>
-      <c r="I27" s="37" t="s">
-        <v>189</v>
-      </c>
-      <c r="J27" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K27" s="29"/>
-      <c r="L27" s="29"/>
-      <c r="M27" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="N27" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="O27" s="58" t="s">
-        <v>166</v>
-      </c>
-      <c r="P27" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q27" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="R27" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="S27" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="T27" s="29"/>
-      <c r="U27" s="34"/>
-      <c r="V27" s="35"/>
-      <c r="W27" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="28" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="31">
-        <v>169</v>
-      </c>
-      <c r="B28" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D28" s="31" t="s">
-        <v>68</v>
-      </c>
-      <c r="E28" s="32" t="s">
-        <v>107</v>
-      </c>
-      <c r="F28" s="33">
-        <v>45733</v>
-      </c>
-      <c r="G28" s="33" t="s">
-        <v>190</v>
-      </c>
-      <c r="H28" s="33" t="s">
-        <v>191</v>
-      </c>
-      <c r="I28" s="37" t="s">
-        <v>192</v>
-      </c>
-      <c r="J28" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K28" s="29"/>
-      <c r="L28" s="29"/>
-      <c r="M28" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="N28" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="O28" s="58" t="s">
-        <v>155</v>
-      </c>
-      <c r="P28" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q28" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="R28" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="S28" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="T28" s="29"/>
-      <c r="U28" s="34"/>
-      <c r="V28" s="35"/>
-      <c r="W28" s="29" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="29" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="31">
-        <v>448</v>
-      </c>
-      <c r="B29" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C29" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D29" s="31" t="s">
-        <v>118</v>
-      </c>
-      <c r="E29" s="32" t="s">
-        <v>120</v>
-      </c>
-      <c r="F29" s="33">
-        <v>45733</v>
-      </c>
-      <c r="G29" s="33" t="s">
-        <v>193</v>
-      </c>
-      <c r="H29" s="33" t="s">
-        <v>194</v>
-      </c>
-      <c r="I29" s="37" t="s">
-        <v>195</v>
-      </c>
-      <c r="J29" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K29" s="29"/>
-      <c r="L29" s="29"/>
-      <c r="M29" s="29"/>
-      <c r="N29" s="29"/>
-      <c r="O29" s="29"/>
-      <c r="P29" s="29"/>
-      <c r="Q29" s="29"/>
-      <c r="R29" s="29"/>
-      <c r="S29" s="29"/>
-      <c r="T29" s="29"/>
-      <c r="U29" s="34"/>
-      <c r="V29" s="35"/>
-      <c r="W29" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="30" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="31">
-        <v>449</v>
-      </c>
-      <c r="B30" s="31" t="s">
-        <v>34</v>
-      </c>
-      <c r="C30" s="36" t="s">
-        <v>45</v>
-      </c>
-      <c r="D30" s="31" t="s">
-        <v>119</v>
-      </c>
-      <c r="E30" s="32" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" s="33"/>
-      <c r="G30" s="33"/>
-      <c r="H30" s="33"/>
-      <c r="I30" s="37"/>
-      <c r="J30" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="K30" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="L30" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="M30" s="29"/>
-      <c r="N30" s="29"/>
-      <c r="O30" s="29"/>
-      <c r="P30" s="29"/>
-      <c r="Q30" s="29"/>
-      <c r="R30" s="29"/>
-      <c r="S30" s="29"/>
-      <c r="T30" s="29"/>
-      <c r="U30" s="34"/>
-      <c r="V30" s="35"/>
-      <c r="W30" s="29" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="31" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="41">
-        <v>461</v>
-      </c>
-      <c r="B31" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C31" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D31" s="41" t="s">
-        <v>123</v>
-      </c>
-      <c r="E31" s="43" t="s">
-        <v>122</v>
-      </c>
-      <c r="F31" s="57"/>
-      <c r="G31" s="41"/>
-      <c r="H31" s="41"/>
-      <c r="I31" s="41"/>
-      <c r="J31" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="K31" s="58" t="s">
-        <v>88</v>
-      </c>
-      <c r="L31" s="58" t="s">
-        <v>186</v>
-      </c>
-      <c r="M31" s="41"/>
-      <c r="N31" s="41"/>
-      <c r="O31" s="41"/>
-      <c r="P31" s="41"/>
-      <c r="Q31" s="41"/>
-      <c r="R31" s="41"/>
-      <c r="S31" s="41"/>
-      <c r="T31" s="41"/>
-      <c r="U31" s="41"/>
-      <c r="V31" s="41"/>
-      <c r="W31" s="41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="32" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="41">
-        <v>468</v>
-      </c>
-      <c r="B32" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C32" s="42" t="s">
-        <v>45</v>
-      </c>
-      <c r="D32" s="41" t="s">
-        <v>128</v>
-      </c>
-      <c r="E32" s="43" t="s">
-        <v>129</v>
-      </c>
-      <c r="F32" s="57">
-        <v>45734</v>
-      </c>
-      <c r="G32" s="41" t="s">
-        <v>196</v>
-      </c>
-      <c r="H32" s="41" t="s">
-        <v>197</v>
-      </c>
-      <c r="I32" s="37" t="s">
-        <v>198</v>
-      </c>
-      <c r="J32" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="K32" s="41"/>
-      <c r="L32" s="41"/>
-      <c r="M32" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="N32" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="O32" s="58" t="s">
-        <v>173</v>
-      </c>
-      <c r="P32" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="Q32" s="58" t="s">
-        <v>77</v>
-      </c>
-      <c r="R32" s="58" t="s">
-        <v>49</v>
-      </c>
-      <c r="S32" s="58" t="s">
-        <v>156</v>
-      </c>
-      <c r="T32" s="41"/>
-      <c r="U32" s="41"/>
-      <c r="V32" s="41"/>
-      <c r="W32" s="41" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="33" spans="6:23" x14ac:dyDescent="0.25">
+      <c r="S29" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="T29" s="35"/>
+      <c r="U29" s="36"/>
+      <c r="V29" s="37"/>
+      <c r="W29" s="35" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F30" s="6"/>
+      <c r="G30" s="6"/>
+      <c r="H30" s="6"/>
+      <c r="I30" s="6"/>
+      <c r="J30" s="7"/>
+      <c r="K30" s="7"/>
+      <c r="L30" s="7"/>
+      <c r="M30" s="7"/>
+      <c r="N30" s="7"/>
+      <c r="O30" s="7"/>
+      <c r="P30" s="7"/>
+      <c r="Q30" s="7"/>
+      <c r="R30" s="7"/>
+      <c r="S30" s="7"/>
+      <c r="T30" s="7"/>
+      <c r="U30" s="8"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="9"/>
+    </row>
+    <row r="31" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F31" s="6"/>
+      <c r="G31" s="6"/>
+      <c r="H31" s="6"/>
+      <c r="I31" s="6"/>
+      <c r="J31" s="7"/>
+      <c r="K31" s="7"/>
+      <c r="L31" s="7"/>
+      <c r="M31" s="7"/>
+      <c r="N31" s="7"/>
+      <c r="O31" s="7"/>
+      <c r="P31" s="7"/>
+      <c r="Q31" s="7"/>
+      <c r="R31" s="7"/>
+      <c r="S31" s="7"/>
+      <c r="T31" s="7"/>
+      <c r="U31" s="8"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="9"/>
+    </row>
+    <row r="32" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F32" s="6"/>
+      <c r="G32" s="6"/>
+      <c r="H32" s="6"/>
+      <c r="I32" s="6"/>
+      <c r="J32" s="7"/>
+      <c r="K32" s="7"/>
+      <c r="L32" s="7"/>
+      <c r="M32" s="7"/>
+      <c r="N32" s="7"/>
+      <c r="O32" s="7"/>
+      <c r="P32" s="7"/>
+      <c r="Q32" s="7"/>
+      <c r="R32" s="7"/>
+      <c r="S32" s="7"/>
+      <c r="T32" s="7"/>
+      <c r="U32" s="8"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="9"/>
+    </row>
+    <row r="33" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F33" s="6"/>
       <c r="G33" s="6"/>
       <c r="H33" s="6"/>
@@ -4526,7 +4257,7 @@
       <c r="V33" s="2"/>
       <c r="W33" s="9"/>
     </row>
-    <row r="34" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="34" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F34" s="6"/>
       <c r="G34" s="6"/>
       <c r="H34" s="6"/>
@@ -4546,7 +4277,7 @@
       <c r="V34" s="2"/>
       <c r="W34" s="9"/>
     </row>
-    <row r="35" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="35" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F35" s="6"/>
       <c r="G35" s="6"/>
       <c r="H35" s="6"/>
@@ -4566,7 +4297,7 @@
       <c r="V35" s="2"/>
       <c r="W35" s="9"/>
     </row>
-    <row r="36" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="36" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F36" s="6"/>
       <c r="G36" s="6"/>
       <c r="H36" s="6"/>
@@ -4586,7 +4317,7 @@
       <c r="V36" s="2"/>
       <c r="W36" s="9"/>
     </row>
-    <row r="37" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="37" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F37" s="6"/>
       <c r="G37" s="6"/>
       <c r="H37" s="6"/>
@@ -4606,7 +4337,7 @@
       <c r="V37" s="2"/>
       <c r="W37" s="9"/>
     </row>
-    <row r="38" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="38" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F38" s="6"/>
       <c r="G38" s="6"/>
       <c r="H38" s="6"/>
@@ -4626,7 +4357,7 @@
       <c r="V38" s="2"/>
       <c r="W38" s="9"/>
     </row>
-    <row r="39" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="39" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F39" s="6"/>
       <c r="G39" s="6"/>
       <c r="H39" s="6"/>
@@ -4646,7 +4377,7 @@
       <c r="V39" s="2"/>
       <c r="W39" s="9"/>
     </row>
-    <row r="40" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="40" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F40" s="6"/>
       <c r="G40" s="6"/>
       <c r="H40" s="6"/>
@@ -4666,7 +4397,7 @@
       <c r="V40" s="2"/>
       <c r="W40" s="9"/>
     </row>
-    <row r="41" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="41" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F41" s="6"/>
       <c r="G41" s="6"/>
       <c r="H41" s="6"/>
@@ -4686,7 +4417,7 @@
       <c r="V41" s="2"/>
       <c r="W41" s="9"/>
     </row>
-    <row r="42" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="42" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F42" s="6"/>
       <c r="G42" s="6"/>
       <c r="H42" s="6"/>
@@ -4706,7 +4437,7 @@
       <c r="V42" s="2"/>
       <c r="W42" s="9"/>
     </row>
-    <row r="43" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="43" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F43" s="6"/>
       <c r="G43" s="6"/>
       <c r="H43" s="6"/>
@@ -4726,7 +4457,7 @@
       <c r="V43" s="2"/>
       <c r="W43" s="9"/>
     </row>
-    <row r="44" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="44" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F44" s="6"/>
       <c r="G44" s="6"/>
       <c r="H44" s="6"/>
@@ -4746,7 +4477,7 @@
       <c r="V44" s="2"/>
       <c r="W44" s="9"/>
     </row>
-    <row r="45" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="45" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F45" s="6"/>
       <c r="G45" s="6"/>
       <c r="H45" s="6"/>
@@ -4766,7 +4497,7 @@
       <c r="V45" s="2"/>
       <c r="W45" s="9"/>
     </row>
-    <row r="46" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="46" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F46" s="6"/>
       <c r="G46" s="6"/>
       <c r="H46" s="6"/>
@@ -4786,7 +4517,7 @@
       <c r="V46" s="2"/>
       <c r="W46" s="9"/>
     </row>
-    <row r="47" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="47" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F47" s="6"/>
       <c r="G47" s="6"/>
       <c r="H47" s="6"/>
@@ -4806,7 +4537,7 @@
       <c r="V47" s="2"/>
       <c r="W47" s="9"/>
     </row>
-    <row r="48" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="48" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F48" s="6"/>
       <c r="G48" s="6"/>
       <c r="H48" s="6"/>
@@ -4826,7 +4557,7 @@
       <c r="V48" s="2"/>
       <c r="W48" s="9"/>
     </row>
-    <row r="49" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="49" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F49" s="6"/>
       <c r="G49" s="6"/>
       <c r="H49" s="6"/>
@@ -4846,7 +4577,7 @@
       <c r="V49" s="2"/>
       <c r="W49" s="9"/>
     </row>
-    <row r="50" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="50" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F50" s="6"/>
       <c r="G50" s="6"/>
       <c r="H50" s="6"/>
@@ -4866,7 +4597,7 @@
       <c r="V50" s="2"/>
       <c r="W50" s="9"/>
     </row>
-    <row r="51" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="51" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F51" s="6"/>
       <c r="G51" s="6"/>
       <c r="H51" s="6"/>
@@ -4886,7 +4617,7 @@
       <c r="V51" s="2"/>
       <c r="W51" s="9"/>
     </row>
-    <row r="52" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="52" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F52" s="6"/>
       <c r="G52" s="6"/>
       <c r="H52" s="6"/>
@@ -4906,7 +4637,7 @@
       <c r="V52" s="2"/>
       <c r="W52" s="9"/>
     </row>
-    <row r="53" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="53" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F53" s="6"/>
       <c r="G53" s="6"/>
       <c r="H53" s="6"/>
@@ -4926,7 +4657,7 @@
       <c r="V53" s="2"/>
       <c r="W53" s="9"/>
     </row>
-    <row r="54" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="54" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F54" s="6"/>
       <c r="G54" s="6"/>
       <c r="H54" s="6"/>
@@ -4946,7 +4677,7 @@
       <c r="V54" s="2"/>
       <c r="W54" s="9"/>
     </row>
-    <row r="55" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="55" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F55" s="6"/>
       <c r="G55" s="6"/>
       <c r="H55" s="6"/>
@@ -4966,7 +4697,7 @@
       <c r="V55" s="2"/>
       <c r="W55" s="9"/>
     </row>
-    <row r="56" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="56" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F56" s="6"/>
       <c r="G56" s="6"/>
       <c r="H56" s="6"/>
@@ -4986,7 +4717,7 @@
       <c r="V56" s="2"/>
       <c r="W56" s="9"/>
     </row>
-    <row r="57" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="57" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F57" s="6"/>
       <c r="G57" s="6"/>
       <c r="H57" s="6"/>
@@ -5006,7 +4737,7 @@
       <c r="V57" s="2"/>
       <c r="W57" s="9"/>
     </row>
-    <row r="58" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="58" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F58" s="6"/>
       <c r="G58" s="6"/>
       <c r="H58" s="6"/>
@@ -5026,7 +4757,7 @@
       <c r="V58" s="2"/>
       <c r="W58" s="9"/>
     </row>
-    <row r="59" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="59" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F59" s="6"/>
       <c r="G59" s="6"/>
       <c r="H59" s="6"/>
@@ -5046,7 +4777,7 @@
       <c r="V59" s="2"/>
       <c r="W59" s="9"/>
     </row>
-    <row r="60" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="60" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F60" s="6"/>
       <c r="G60" s="6"/>
       <c r="H60" s="6"/>
@@ -5066,7 +4797,7 @@
       <c r="V60" s="2"/>
       <c r="W60" s="9"/>
     </row>
-    <row r="61" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="61" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F61" s="6"/>
       <c r="G61" s="6"/>
       <c r="H61" s="6"/>
@@ -5086,7 +4817,7 @@
       <c r="V61" s="2"/>
       <c r="W61" s="9"/>
     </row>
-    <row r="62" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="62" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F62" s="6"/>
       <c r="G62" s="6"/>
       <c r="H62" s="6"/>
@@ -5106,7 +4837,7 @@
       <c r="V62" s="2"/>
       <c r="W62" s="9"/>
     </row>
-    <row r="63" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="63" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F63" s="6"/>
       <c r="G63" s="6"/>
       <c r="H63" s="6"/>
@@ -5126,7 +4857,7 @@
       <c r="V63" s="2"/>
       <c r="W63" s="9"/>
     </row>
-    <row r="64" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="64" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F64" s="6"/>
       <c r="G64" s="6"/>
       <c r="H64" s="6"/>
@@ -5146,7 +4877,7 @@
       <c r="V64" s="2"/>
       <c r="W64" s="9"/>
     </row>
-    <row r="65" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="65" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F65" s="6"/>
       <c r="G65" s="6"/>
       <c r="H65" s="6"/>
@@ -5166,7 +4897,7 @@
       <c r="V65" s="2"/>
       <c r="W65" s="9"/>
     </row>
-    <row r="66" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="66" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F66" s="6"/>
       <c r="G66" s="6"/>
       <c r="H66" s="6"/>
@@ -5186,7 +4917,7 @@
       <c r="V66" s="2"/>
       <c r="W66" s="9"/>
     </row>
-    <row r="67" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="67" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F67" s="6"/>
       <c r="G67" s="6"/>
       <c r="H67" s="6"/>
@@ -5206,7 +4937,7 @@
       <c r="V67" s="2"/>
       <c r="W67" s="9"/>
     </row>
-    <row r="68" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="68" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F68" s="6"/>
       <c r="G68" s="6"/>
       <c r="H68" s="6"/>
@@ -5226,7 +4957,7 @@
       <c r="V68" s="2"/>
       <c r="W68" s="9"/>
     </row>
-    <row r="69" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="69" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F69" s="6"/>
       <c r="G69" s="6"/>
       <c r="H69" s="6"/>
@@ -5246,7 +4977,7 @@
       <c r="V69" s="2"/>
       <c r="W69" s="9"/>
     </row>
-    <row r="70" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="70" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F70" s="6"/>
       <c r="G70" s="6"/>
       <c r="H70" s="6"/>
@@ -5266,7 +4997,7 @@
       <c r="V70" s="2"/>
       <c r="W70" s="9"/>
     </row>
-    <row r="71" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="71" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F71" s="6"/>
       <c r="G71" s="6"/>
       <c r="H71" s="6"/>
@@ -5286,7 +5017,7 @@
       <c r="V71" s="2"/>
       <c r="W71" s="9"/>
     </row>
-    <row r="72" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="72" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F72" s="6"/>
       <c r="G72" s="6"/>
       <c r="H72" s="6"/>
@@ -5306,7 +5037,7 @@
       <c r="V72" s="2"/>
       <c r="W72" s="9"/>
     </row>
-    <row r="73" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="73" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F73" s="6"/>
       <c r="G73" s="6"/>
       <c r="H73" s="6"/>
@@ -5326,7 +5057,7 @@
       <c r="V73" s="2"/>
       <c r="W73" s="9"/>
     </row>
-    <row r="74" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="74" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F74" s="6"/>
       <c r="G74" s="6"/>
       <c r="H74" s="6"/>
@@ -5346,7 +5077,7 @@
       <c r="V74" s="2"/>
       <c r="W74" s="9"/>
     </row>
-    <row r="75" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="75" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F75" s="6"/>
       <c r="G75" s="6"/>
       <c r="H75" s="6"/>
@@ -5366,7 +5097,7 @@
       <c r="V75" s="2"/>
       <c r="W75" s="9"/>
     </row>
-    <row r="76" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="76" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F76" s="6"/>
       <c r="G76" s="6"/>
       <c r="H76" s="6"/>
@@ -5386,7 +5117,7 @@
       <c r="V76" s="2"/>
       <c r="W76" s="9"/>
     </row>
-    <row r="77" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="77" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F77" s="6"/>
       <c r="G77" s="6"/>
       <c r="H77" s="6"/>
@@ -5406,7 +5137,7 @@
       <c r="V77" s="2"/>
       <c r="W77" s="9"/>
     </row>
-    <row r="78" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="78" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F78" s="6"/>
       <c r="G78" s="6"/>
       <c r="H78" s="6"/>
@@ -5426,7 +5157,7 @@
       <c r="V78" s="2"/>
       <c r="W78" s="9"/>
     </row>
-    <row r="79" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="79" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F79" s="6"/>
       <c r="G79" s="6"/>
       <c r="H79" s="6"/>
@@ -5446,7 +5177,7 @@
       <c r="V79" s="2"/>
       <c r="W79" s="9"/>
     </row>
-    <row r="80" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="80" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F80" s="6"/>
       <c r="G80" s="6"/>
       <c r="H80" s="6"/>
@@ -5466,7 +5197,7 @@
       <c r="V80" s="2"/>
       <c r="W80" s="9"/>
     </row>
-    <row r="81" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="81" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F81" s="6"/>
       <c r="G81" s="6"/>
       <c r="H81" s="6"/>
@@ -5486,7 +5217,7 @@
       <c r="V81" s="2"/>
       <c r="W81" s="9"/>
     </row>
-    <row r="82" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="82" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F82" s="6"/>
       <c r="G82" s="6"/>
       <c r="H82" s="6"/>
@@ -5506,7 +5237,7 @@
       <c r="V82" s="2"/>
       <c r="W82" s="9"/>
     </row>
-    <row r="83" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="83" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F83" s="6"/>
       <c r="G83" s="6"/>
       <c r="H83" s="6"/>
@@ -5526,7 +5257,7 @@
       <c r="V83" s="2"/>
       <c r="W83" s="9"/>
     </row>
-    <row r="84" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="84" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F84" s="6"/>
       <c r="G84" s="6"/>
       <c r="H84" s="6"/>
@@ -5546,7 +5277,7 @@
       <c r="V84" s="2"/>
       <c r="W84" s="9"/>
     </row>
-    <row r="85" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="85" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F85" s="6"/>
       <c r="G85" s="6"/>
       <c r="H85" s="6"/>
@@ -5566,7 +5297,7 @@
       <c r="V85" s="2"/>
       <c r="W85" s="9"/>
     </row>
-    <row r="86" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="86" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F86" s="6"/>
       <c r="G86" s="6"/>
       <c r="H86" s="6"/>
@@ -5586,7 +5317,7 @@
       <c r="V86" s="2"/>
       <c r="W86" s="9"/>
     </row>
-    <row r="87" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="87" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F87" s="6"/>
       <c r="G87" s="6"/>
       <c r="H87" s="6"/>
@@ -5606,7 +5337,7 @@
       <c r="V87" s="2"/>
       <c r="W87" s="9"/>
     </row>
-    <row r="88" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="88" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F88" s="6"/>
       <c r="G88" s="6"/>
       <c r="H88" s="6"/>
@@ -5626,7 +5357,7 @@
       <c r="V88" s="2"/>
       <c r="W88" s="9"/>
     </row>
-    <row r="89" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="89" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F89" s="6"/>
       <c r="G89" s="6"/>
       <c r="H89" s="6"/>
@@ -5646,7 +5377,7 @@
       <c r="V89" s="2"/>
       <c r="W89" s="9"/>
     </row>
-    <row r="90" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="90" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F90" s="6"/>
       <c r="G90" s="6"/>
       <c r="H90" s="6"/>
@@ -5666,7 +5397,7 @@
       <c r="V90" s="2"/>
       <c r="W90" s="9"/>
     </row>
-    <row r="91" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="91" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F91" s="6"/>
       <c r="G91" s="6"/>
       <c r="H91" s="6"/>
@@ -5686,7 +5417,7 @@
       <c r="V91" s="2"/>
       <c r="W91" s="9"/>
     </row>
-    <row r="92" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="92" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F92" s="6"/>
       <c r="G92" s="6"/>
       <c r="H92" s="6"/>
@@ -5706,7 +5437,7 @@
       <c r="V92" s="2"/>
       <c r="W92" s="9"/>
     </row>
-    <row r="93" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="93" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F93" s="6"/>
       <c r="G93" s="6"/>
       <c r="H93" s="6"/>
@@ -5726,7 +5457,7 @@
       <c r="V93" s="2"/>
       <c r="W93" s="9"/>
     </row>
-    <row r="94" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="94" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F94" s="6"/>
       <c r="G94" s="6"/>
       <c r="H94" s="6"/>
@@ -5746,7 +5477,7 @@
       <c r="V94" s="2"/>
       <c r="W94" s="9"/>
     </row>
-    <row r="95" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="95" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F95" s="6"/>
       <c r="G95" s="6"/>
       <c r="H95" s="6"/>
@@ -5766,7 +5497,7 @@
       <c r="V95" s="2"/>
       <c r="W95" s="9"/>
     </row>
-    <row r="96" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="96" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F96" s="6"/>
       <c r="G96" s="6"/>
       <c r="H96" s="6"/>
@@ -5786,7 +5517,7 @@
       <c r="V96" s="2"/>
       <c r="W96" s="9"/>
     </row>
-    <row r="97" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="97" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F97" s="6"/>
       <c r="G97" s="6"/>
       <c r="H97" s="6"/>
@@ -5806,7 +5537,7 @@
       <c r="V97" s="2"/>
       <c r="W97" s="9"/>
     </row>
-    <row r="98" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="98" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F98" s="6"/>
       <c r="G98" s="6"/>
       <c r="H98" s="6"/>
@@ -5826,7 +5557,7 @@
       <c r="V98" s="2"/>
       <c r="W98" s="9"/>
     </row>
-    <row r="99" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="99" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F99" s="6"/>
       <c r="G99" s="6"/>
       <c r="H99" s="6"/>
@@ -5846,7 +5577,7 @@
       <c r="V99" s="2"/>
       <c r="W99" s="9"/>
     </row>
-    <row r="100" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="100" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F100" s="6"/>
       <c r="G100" s="6"/>
       <c r="H100" s="6"/>
@@ -5866,7 +5597,7 @@
       <c r="V100" s="2"/>
       <c r="W100" s="9"/>
     </row>
-    <row r="101" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="101" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F101" s="6"/>
       <c r="G101" s="6"/>
       <c r="H101" s="6"/>
@@ -5886,7 +5617,7 @@
       <c r="V101" s="2"/>
       <c r="W101" s="9"/>
     </row>
-    <row r="102" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="102" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F102" s="6"/>
       <c r="G102" s="6"/>
       <c r="H102" s="6"/>
@@ -5906,7 +5637,7 @@
       <c r="V102" s="2"/>
       <c r="W102" s="9"/>
     </row>
-    <row r="103" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="103" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F103" s="6"/>
       <c r="G103" s="6"/>
       <c r="H103" s="6"/>
@@ -5926,7 +5657,7 @@
       <c r="V103" s="2"/>
       <c r="W103" s="9"/>
     </row>
-    <row r="104" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="104" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F104" s="6"/>
       <c r="G104" s="6"/>
       <c r="H104" s="6"/>
@@ -5946,7 +5677,7 @@
       <c r="V104" s="2"/>
       <c r="W104" s="9"/>
     </row>
-    <row r="105" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="105" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F105" s="6"/>
       <c r="G105" s="6"/>
       <c r="H105" s="6"/>
@@ -5966,7 +5697,7 @@
       <c r="V105" s="2"/>
       <c r="W105" s="9"/>
     </row>
-    <row r="106" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="106" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F106" s="6"/>
       <c r="G106" s="6"/>
       <c r="H106" s="6"/>
@@ -5986,7 +5717,7 @@
       <c r="V106" s="2"/>
       <c r="W106" s="9"/>
     </row>
-    <row r="107" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="107" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F107" s="6"/>
       <c r="G107" s="6"/>
       <c r="H107" s="6"/>
@@ -6006,7 +5737,7 @@
       <c r="V107" s="2"/>
       <c r="W107" s="9"/>
     </row>
-    <row r="108" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="108" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F108" s="6"/>
       <c r="G108" s="6"/>
       <c r="H108" s="6"/>
@@ -6026,7 +5757,7 @@
       <c r="V108" s="2"/>
       <c r="W108" s="9"/>
     </row>
-    <row r="109" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="109" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F109" s="6"/>
       <c r="G109" s="6"/>
       <c r="H109" s="6"/>
@@ -6046,7 +5777,7 @@
       <c r="V109" s="2"/>
       <c r="W109" s="9"/>
     </row>
-    <row r="110" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="110" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F110" s="6"/>
       <c r="G110" s="6"/>
       <c r="H110" s="6"/>
@@ -6066,7 +5797,7 @@
       <c r="V110" s="2"/>
       <c r="W110" s="9"/>
     </row>
-    <row r="111" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="111" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F111" s="6"/>
       <c r="G111" s="6"/>
       <c r="H111" s="6"/>
@@ -6086,7 +5817,7 @@
       <c r="V111" s="2"/>
       <c r="W111" s="9"/>
     </row>
-    <row r="112" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="112" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F112" s="6"/>
       <c r="G112" s="6"/>
       <c r="H112" s="6"/>
@@ -6106,7 +5837,7 @@
       <c r="V112" s="2"/>
       <c r="W112" s="9"/>
     </row>
-    <row r="113" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="113" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F113" s="6"/>
       <c r="G113" s="6"/>
       <c r="H113" s="6"/>
@@ -6126,7 +5857,7 @@
       <c r="V113" s="2"/>
       <c r="W113" s="9"/>
     </row>
-    <row r="114" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="114" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F114" s="6"/>
       <c r="G114" s="6"/>
       <c r="H114" s="6"/>
@@ -6146,7 +5877,7 @@
       <c r="V114" s="2"/>
       <c r="W114" s="9"/>
     </row>
-    <row r="115" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="115" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F115" s="6"/>
       <c r="G115" s="6"/>
       <c r="H115" s="6"/>
@@ -6166,7 +5897,7 @@
       <c r="V115" s="2"/>
       <c r="W115" s="9"/>
     </row>
-    <row r="116" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="116" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F116" s="6"/>
       <c r="G116" s="6"/>
       <c r="H116" s="6"/>
@@ -6186,7 +5917,7 @@
       <c r="V116" s="2"/>
       <c r="W116" s="9"/>
     </row>
-    <row r="117" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="117" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F117" s="6"/>
       <c r="G117" s="6"/>
       <c r="H117" s="6"/>
@@ -6206,7 +5937,7 @@
       <c r="V117" s="2"/>
       <c r="W117" s="9"/>
     </row>
-    <row r="118" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="118" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F118" s="6"/>
       <c r="G118" s="6"/>
       <c r="H118" s="6"/>
@@ -6226,7 +5957,7 @@
       <c r="V118" s="2"/>
       <c r="W118" s="9"/>
     </row>
-    <row r="119" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="119" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F119" s="6"/>
       <c r="G119" s="6"/>
       <c r="H119" s="6"/>
@@ -6246,7 +5977,7 @@
       <c r="V119" s="2"/>
       <c r="W119" s="9"/>
     </row>
-    <row r="120" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="120" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F120" s="6"/>
       <c r="G120" s="6"/>
       <c r="H120" s="6"/>
@@ -6266,7 +5997,7 @@
       <c r="V120" s="2"/>
       <c r="W120" s="9"/>
     </row>
-    <row r="121" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="121" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F121" s="6"/>
       <c r="G121" s="6"/>
       <c r="H121" s="6"/>
@@ -6286,7 +6017,7 @@
       <c r="V121" s="2"/>
       <c r="W121" s="9"/>
     </row>
-    <row r="122" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="122" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F122" s="6"/>
       <c r="G122" s="6"/>
       <c r="H122" s="6"/>
@@ -6306,7 +6037,7 @@
       <c r="V122" s="2"/>
       <c r="W122" s="9"/>
     </row>
-    <row r="123" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="123" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F123" s="6"/>
       <c r="G123" s="6"/>
       <c r="H123" s="6"/>
@@ -6326,7 +6057,7 @@
       <c r="V123" s="2"/>
       <c r="W123" s="9"/>
     </row>
-    <row r="124" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="124" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F124" s="6"/>
       <c r="G124" s="6"/>
       <c r="H124" s="6"/>
@@ -6346,7 +6077,7 @@
       <c r="V124" s="2"/>
       <c r="W124" s="9"/>
     </row>
-    <row r="125" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="125" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F125" s="6"/>
       <c r="G125" s="6"/>
       <c r="H125" s="6"/>
@@ -6366,7 +6097,7 @@
       <c r="V125" s="2"/>
       <c r="W125" s="9"/>
     </row>
-    <row r="126" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="126" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F126" s="6"/>
       <c r="G126" s="6"/>
       <c r="H126" s="6"/>
@@ -6386,7 +6117,7 @@
       <c r="V126" s="2"/>
       <c r="W126" s="9"/>
     </row>
-    <row r="127" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="127" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F127" s="6"/>
       <c r="G127" s="6"/>
       <c r="H127" s="6"/>
@@ -6406,7 +6137,7 @@
       <c r="V127" s="2"/>
       <c r="W127" s="9"/>
     </row>
-    <row r="128" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="128" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F128" s="6"/>
       <c r="G128" s="6"/>
       <c r="H128" s="6"/>
@@ -6426,7 +6157,7 @@
       <c r="V128" s="2"/>
       <c r="W128" s="9"/>
     </row>
-    <row r="129" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="129" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F129" s="6"/>
       <c r="G129" s="6"/>
       <c r="H129" s="6"/>
@@ -6446,7 +6177,7 @@
       <c r="V129" s="2"/>
       <c r="W129" s="9"/>
     </row>
-    <row r="130" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="130" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F130" s="6"/>
       <c r="G130" s="6"/>
       <c r="H130" s="6"/>
@@ -6466,7 +6197,7 @@
       <c r="V130" s="2"/>
       <c r="W130" s="9"/>
     </row>
-    <row r="131" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="131" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F131" s="6"/>
       <c r="G131" s="6"/>
       <c r="H131" s="6"/>
@@ -6486,7 +6217,7 @@
       <c r="V131" s="2"/>
       <c r="W131" s="9"/>
     </row>
-    <row r="132" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="132" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F132" s="6"/>
       <c r="G132" s="6"/>
       <c r="H132" s="6"/>
@@ -6506,7 +6237,7 @@
       <c r="V132" s="2"/>
       <c r="W132" s="9"/>
     </row>
-    <row r="133" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="133" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F133" s="6"/>
       <c r="G133" s="6"/>
       <c r="H133" s="6"/>
@@ -6526,7 +6257,7 @@
       <c r="V133" s="2"/>
       <c r="W133" s="9"/>
     </row>
-    <row r="134" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="134" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F134" s="6"/>
       <c r="G134" s="6"/>
       <c r="H134" s="6"/>
@@ -6546,7 +6277,7 @@
       <c r="V134" s="2"/>
       <c r="W134" s="9"/>
     </row>
-    <row r="135" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="135" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F135" s="6"/>
       <c r="G135" s="6"/>
       <c r="H135" s="6"/>
@@ -6566,7 +6297,7 @@
       <c r="V135" s="2"/>
       <c r="W135" s="9"/>
     </row>
-    <row r="136" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="136" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F136" s="6"/>
       <c r="G136" s="6"/>
       <c r="H136" s="6"/>
@@ -6586,7 +6317,7 @@
       <c r="V136" s="2"/>
       <c r="W136" s="9"/>
     </row>
-    <row r="137" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="137" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F137" s="6"/>
       <c r="G137" s="6"/>
       <c r="H137" s="6"/>
@@ -6606,7 +6337,7 @@
       <c r="V137" s="2"/>
       <c r="W137" s="9"/>
     </row>
-    <row r="138" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="138" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F138" s="6"/>
       <c r="G138" s="6"/>
       <c r="H138" s="6"/>
@@ -6626,7 +6357,7 @@
       <c r="V138" s="2"/>
       <c r="W138" s="9"/>
     </row>
-    <row r="139" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="139" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F139" s="6"/>
       <c r="G139" s="6"/>
       <c r="H139" s="6"/>
@@ -6646,7 +6377,7 @@
       <c r="V139" s="2"/>
       <c r="W139" s="9"/>
     </row>
-    <row r="140" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="140" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F140" s="6"/>
       <c r="G140" s="6"/>
       <c r="H140" s="6"/>
@@ -6666,7 +6397,7 @@
       <c r="V140" s="2"/>
       <c r="W140" s="9"/>
     </row>
-    <row r="141" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="141" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F141" s="6"/>
       <c r="G141" s="6"/>
       <c r="H141" s="6"/>
@@ -6686,7 +6417,7 @@
       <c r="V141" s="2"/>
       <c r="W141" s="9"/>
     </row>
-    <row r="142" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="142" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F142" s="6"/>
       <c r="G142" s="6"/>
       <c r="H142" s="6"/>
@@ -6706,7 +6437,7 @@
       <c r="V142" s="2"/>
       <c r="W142" s="9"/>
     </row>
-    <row r="143" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="143" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F143" s="6"/>
       <c r="G143" s="6"/>
       <c r="H143" s="6"/>
@@ -6726,7 +6457,7 @@
       <c r="V143" s="2"/>
       <c r="W143" s="9"/>
     </row>
-    <row r="144" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="144" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F144" s="6"/>
       <c r="G144" s="6"/>
       <c r="H144" s="6"/>
@@ -6746,7 +6477,7 @@
       <c r="V144" s="2"/>
       <c r="W144" s="9"/>
     </row>
-    <row r="145" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="145" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F145" s="6"/>
       <c r="G145" s="6"/>
       <c r="H145" s="6"/>
@@ -6766,7 +6497,7 @@
       <c r="V145" s="2"/>
       <c r="W145" s="9"/>
     </row>
-    <row r="146" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="146" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F146" s="6"/>
       <c r="G146" s="6"/>
       <c r="H146" s="6"/>
@@ -6786,7 +6517,7 @@
       <c r="V146" s="2"/>
       <c r="W146" s="9"/>
     </row>
-    <row r="147" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="147" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F147" s="6"/>
       <c r="G147" s="6"/>
       <c r="H147" s="6"/>
@@ -6806,7 +6537,7 @@
       <c r="V147" s="2"/>
       <c r="W147" s="9"/>
     </row>
-    <row r="148" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="148" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F148" s="6"/>
       <c r="G148" s="6"/>
       <c r="H148" s="6"/>
@@ -6826,7 +6557,7 @@
       <c r="V148" s="2"/>
       <c r="W148" s="9"/>
     </row>
-    <row r="149" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="149" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F149" s="6"/>
       <c r="G149" s="6"/>
       <c r="H149" s="6"/>
@@ -6846,7 +6577,7 @@
       <c r="V149" s="2"/>
       <c r="W149" s="9"/>
     </row>
-    <row r="150" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="150" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F150" s="6"/>
       <c r="G150" s="6"/>
       <c r="H150" s="6"/>
@@ -6866,7 +6597,7 @@
       <c r="V150" s="2"/>
       <c r="W150" s="9"/>
     </row>
-    <row r="151" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="151" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F151" s="6"/>
       <c r="G151" s="6"/>
       <c r="H151" s="6"/>
@@ -6886,7 +6617,7 @@
       <c r="V151" s="2"/>
       <c r="W151" s="9"/>
     </row>
-    <row r="152" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="152" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F152" s="6"/>
       <c r="G152" s="6"/>
       <c r="H152" s="6"/>
@@ -6906,7 +6637,7 @@
       <c r="V152" s="2"/>
       <c r="W152" s="9"/>
     </row>
-    <row r="153" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="153" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F153" s="6"/>
       <c r="G153" s="6"/>
       <c r="H153" s="6"/>
@@ -6926,7 +6657,7 @@
       <c r="V153" s="2"/>
       <c r="W153" s="9"/>
     </row>
-    <row r="154" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="154" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F154" s="6"/>
       <c r="G154" s="6"/>
       <c r="H154" s="6"/>
@@ -6946,7 +6677,7 @@
       <c r="V154" s="2"/>
       <c r="W154" s="9"/>
     </row>
-    <row r="155" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="155" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F155" s="6"/>
       <c r="G155" s="6"/>
       <c r="H155" s="6"/>
@@ -6966,7 +6697,7 @@
       <c r="V155" s="2"/>
       <c r="W155" s="9"/>
     </row>
-    <row r="156" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="156" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F156" s="6"/>
       <c r="G156" s="6"/>
       <c r="H156" s="6"/>
@@ -6986,7 +6717,7 @@
       <c r="V156" s="2"/>
       <c r="W156" s="9"/>
     </row>
-    <row r="157" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="157" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F157" s="6"/>
       <c r="G157" s="6"/>
       <c r="H157" s="6"/>
@@ -7006,7 +6737,7 @@
       <c r="V157" s="2"/>
       <c r="W157" s="9"/>
     </row>
-    <row r="158" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="158" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F158" s="6"/>
       <c r="G158" s="6"/>
       <c r="H158" s="6"/>
@@ -7026,7 +6757,7 @@
       <c r="V158" s="2"/>
       <c r="W158" s="9"/>
     </row>
-    <row r="159" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="159" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F159" s="6"/>
       <c r="G159" s="6"/>
       <c r="H159" s="6"/>
@@ -7046,7 +6777,7 @@
       <c r="V159" s="2"/>
       <c r="W159" s="9"/>
     </row>
-    <row r="160" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="160" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F160" s="6"/>
       <c r="G160" s="6"/>
       <c r="H160" s="6"/>
@@ -7066,7 +6797,7 @@
       <c r="V160" s="2"/>
       <c r="W160" s="9"/>
     </row>
-    <row r="161" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="161" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F161" s="6"/>
       <c r="G161" s="6"/>
       <c r="H161" s="6"/>
@@ -7086,7 +6817,7 @@
       <c r="V161" s="2"/>
       <c r="W161" s="9"/>
     </row>
-    <row r="162" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="162" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F162" s="6"/>
       <c r="G162" s="6"/>
       <c r="H162" s="6"/>
@@ -7106,7 +6837,7 @@
       <c r="V162" s="2"/>
       <c r="W162" s="9"/>
     </row>
-    <row r="163" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="163" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F163" s="6"/>
       <c r="G163" s="6"/>
       <c r="H163" s="6"/>
@@ -7126,7 +6857,7 @@
       <c r="V163" s="2"/>
       <c r="W163" s="9"/>
     </row>
-    <row r="164" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="164" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F164" s="6"/>
       <c r="G164" s="6"/>
       <c r="H164" s="6"/>
@@ -7146,7 +6877,7 @@
       <c r="V164" s="2"/>
       <c r="W164" s="9"/>
     </row>
-    <row r="165" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="165" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F165" s="6"/>
       <c r="G165" s="6"/>
       <c r="H165" s="6"/>
@@ -7166,7 +6897,7 @@
       <c r="V165" s="2"/>
       <c r="W165" s="9"/>
     </row>
-    <row r="166" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="166" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F166" s="6"/>
       <c r="G166" s="6"/>
       <c r="H166" s="6"/>
@@ -7186,7 +6917,7 @@
       <c r="V166" s="2"/>
       <c r="W166" s="9"/>
     </row>
-    <row r="167" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="167" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F167" s="6"/>
       <c r="G167" s="6"/>
       <c r="H167" s="6"/>
@@ -7206,212 +6937,76 @@
       <c r="V167" s="2"/>
       <c r="W167" s="9"/>
     </row>
-    <row r="168" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="F168" s="6"/>
-      <c r="G168" s="6"/>
-      <c r="H168" s="6"/>
-      <c r="I168" s="6"/>
-      <c r="J168" s="7"/>
-      <c r="K168" s="7"/>
-      <c r="L168" s="7"/>
-      <c r="M168" s="7"/>
-      <c r="N168" s="7"/>
-      <c r="O168" s="7"/>
-      <c r="P168" s="7"/>
-      <c r="Q168" s="7"/>
-      <c r="R168" s="7"/>
-      <c r="S168" s="7"/>
-      <c r="T168" s="7"/>
-      <c r="U168" s="8"/>
-      <c r="V168" s="2"/>
-      <c r="W168" s="9"/>
-    </row>
-    <row r="169" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="F169" s="6"/>
-      <c r="G169" s="6"/>
-      <c r="H169" s="6"/>
-      <c r="I169" s="6"/>
-      <c r="J169" s="7"/>
-      <c r="K169" s="7"/>
-      <c r="L169" s="7"/>
-      <c r="M169" s="7"/>
-      <c r="N169" s="7"/>
-      <c r="O169" s="7"/>
-      <c r="P169" s="7"/>
-      <c r="Q169" s="7"/>
-      <c r="R169" s="7"/>
-      <c r="S169" s="7"/>
-      <c r="T169" s="7"/>
-      <c r="U169" s="8"/>
-      <c r="V169" s="2"/>
-      <c r="W169" s="9"/>
-    </row>
-    <row r="170" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="F170" s="6"/>
-      <c r="G170" s="6"/>
-      <c r="H170" s="6"/>
-      <c r="I170" s="6"/>
-      <c r="J170" s="7"/>
-      <c r="K170" s="7"/>
-      <c r="L170" s="7"/>
-      <c r="M170" s="7"/>
-      <c r="N170" s="7"/>
-      <c r="O170" s="7"/>
-      <c r="P170" s="7"/>
-      <c r="Q170" s="7"/>
-      <c r="R170" s="7"/>
-      <c r="S170" s="7"/>
-      <c r="T170" s="7"/>
-      <c r="U170" s="8"/>
-      <c r="V170" s="2"/>
-      <c r="W170" s="9"/>
-    </row>
-    <row r="171" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="F171" s="6"/>
-      <c r="G171" s="6"/>
-      <c r="H171" s="6"/>
-      <c r="I171" s="6"/>
-      <c r="J171" s="7"/>
-      <c r="K171" s="7"/>
-      <c r="L171" s="7"/>
-      <c r="M171" s="7"/>
-      <c r="N171" s="7"/>
-      <c r="O171" s="7"/>
-      <c r="P171" s="7"/>
-      <c r="Q171" s="7"/>
-      <c r="R171" s="7"/>
-      <c r="S171" s="7"/>
-      <c r="T171" s="7"/>
-      <c r="U171" s="8"/>
-      <c r="V171" s="2"/>
-      <c r="W171" s="9"/>
-    </row>
-    <row r="172" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="F172" s="6"/>
-      <c r="G172" s="6"/>
-      <c r="H172" s="6"/>
-      <c r="I172" s="6"/>
-      <c r="J172" s="7"/>
-      <c r="K172" s="7"/>
-      <c r="L172" s="7"/>
-      <c r="M172" s="7"/>
-      <c r="N172" s="7"/>
-      <c r="O172" s="7"/>
-      <c r="P172" s="7"/>
-      <c r="Q172" s="7"/>
-      <c r="R172" s="7"/>
-      <c r="S172" s="7"/>
-      <c r="T172" s="7"/>
-      <c r="U172" s="8"/>
-      <c r="V172" s="2"/>
-      <c r="W172" s="9"/>
-    </row>
-    <row r="173" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="F173" s="6"/>
-      <c r="G173" s="6"/>
-      <c r="H173" s="6"/>
-      <c r="I173" s="6"/>
-      <c r="J173" s="7"/>
-      <c r="K173" s="7"/>
-      <c r="L173" s="7"/>
-      <c r="M173" s="7"/>
-      <c r="N173" s="7"/>
-      <c r="O173" s="7"/>
-      <c r="P173" s="7"/>
-      <c r="Q173" s="7"/>
-      <c r="R173" s="7"/>
-      <c r="S173" s="7"/>
-      <c r="T173" s="7"/>
-      <c r="U173" s="8"/>
-      <c r="V173" s="2"/>
-      <c r="W173" s="9"/>
-    </row>
-    <row r="174" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="F174" s="6"/>
-      <c r="G174" s="6"/>
-      <c r="H174" s="6"/>
-      <c r="I174" s="6"/>
-      <c r="J174" s="7"/>
-      <c r="K174" s="7"/>
-      <c r="L174" s="7"/>
-      <c r="M174" s="7"/>
-      <c r="N174" s="7"/>
-      <c r="O174" s="7"/>
-      <c r="P174" s="7"/>
-      <c r="Q174" s="7"/>
-      <c r="R174" s="7"/>
-      <c r="S174" s="7"/>
-      <c r="T174" s="7"/>
-      <c r="U174" s="8"/>
-      <c r="V174" s="2"/>
-      <c r="W174" s="9"/>
-    </row>
-    <row r="175" spans="6:23" x14ac:dyDescent="0.25">
-      <c r="F175" s="6"/>
-      <c r="G175" s="6"/>
-      <c r="H175" s="6"/>
-      <c r="I175" s="6"/>
-      <c r="J175" s="7"/>
-      <c r="K175" s="7"/>
-      <c r="L175" s="7"/>
-      <c r="M175" s="7"/>
-      <c r="N175" s="7"/>
-      <c r="O175" s="7"/>
-      <c r="P175" s="7"/>
-      <c r="Q175" s="7"/>
-      <c r="R175" s="7"/>
-      <c r="S175" s="7"/>
-      <c r="T175" s="7"/>
-      <c r="U175" s="8"/>
-      <c r="V175" s="2"/>
-      <c r="W175" s="9"/>
-    </row>
-    <row r="176" spans="6:23" x14ac:dyDescent="0.25">
+    <row r="168" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W168" s="7"/>
+    </row>
+    <row r="169" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W169" s="7"/>
+    </row>
+    <row r="170" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W170" s="7"/>
+    </row>
+    <row r="171" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W171" s="7"/>
+    </row>
+    <row r="172" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W172" s="7"/>
+    </row>
+    <row r="173" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W173" s="7"/>
+    </row>
+    <row r="174" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W174" s="7"/>
+    </row>
+    <row r="175" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W175" s="7"/>
+    </row>
+    <row r="176" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W176" s="7"/>
     </row>
-    <row r="177" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="177" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W177" s="7"/>
     </row>
-    <row r="178" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="178" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W178" s="7"/>
     </row>
-    <row r="179" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="179" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W179" s="7"/>
     </row>
-    <row r="180" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="180" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W180" s="7"/>
     </row>
-    <row r="181" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="181" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W181" s="7"/>
     </row>
-    <row r="182" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="182" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W182" s="7"/>
     </row>
-    <row r="183" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="183" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W183" s="7"/>
     </row>
-    <row r="184" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="184" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W184" s="7"/>
     </row>
-    <row r="185" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="185" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W185" s="7"/>
     </row>
-    <row r="186" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="186" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W186" s="7"/>
     </row>
-    <row r="187" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="187" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W187" s="7"/>
     </row>
-    <row r="188" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="188" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W188" s="7"/>
     </row>
-    <row r="189" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="189" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W189" s="7"/>
     </row>
-    <row r="190" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="190" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W190" s="7"/>
     </row>
-    <row r="191" spans="23:23" x14ac:dyDescent="0.25">
+    <row r="191" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W191" s="7"/>
     </row>
     <row r="192" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8593,37 +8188,13 @@
     <row r="584" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W584" s="7"/>
     </row>
-    <row r="585" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W585" s="7"/>
-    </row>
-    <row r="586" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W586" s="7"/>
-    </row>
-    <row r="587" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W587" s="7"/>
-    </row>
-    <row r="588" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W588" s="7"/>
-    </row>
-    <row r="589" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W589" s="7"/>
-    </row>
-    <row r="590" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W590" s="7"/>
-    </row>
-    <row r="591" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W591" s="7"/>
-    </row>
-    <row r="592" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W592" s="7"/>
-    </row>
-    <row r="593" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="594" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="595" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="596" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="597" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="586" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="587" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="588" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="589" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A9:W32"/>
+  <autoFilter ref="A9:W29"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -8633,42 +8204,30 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <phoneticPr fontId="15" type="noConversion"/>
+  <phoneticPr fontId="14" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="5">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$B$2:$B$3</xm:f>
           </x14:formula1>
-          <xm:sqref>P29:R30 M29:N30 J23:J26 M23:N26 P23:R26</xm:sqref>
+          <xm:sqref>M10:N29 P10:R29 J10:J29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>Sheet1!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>T12:T30</xm:sqref>
+          <xm:sqref>T10:T29</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
           <x14:formula1>
             <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
           </x14:formula1>
           <xm:sqref>K10:K29</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>[1]Sheet1!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>J10:J22 P10:R22 J27:J32 M27:N28 P27:R28 P32:R32</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'[1]LISTA VALORI'!#REF!</xm:f>
-          </x14:formula1>
-          <xm:sqref>K30:K31</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -8688,42 +8247,42 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>85</v>
+        <v>79</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>86</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
     </row>
   </sheetData>
@@ -8737,7 +8296,7 @@
   <sheetViews>
     <sheetView zoomScale="106" zoomScaleNormal="70" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H13" sqref="H13"/>
+      <selection pane="bottomLeft" activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -8752,23 +8311,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="14.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
-        <v>98</v>
+      <c r="A1" s="29" t="s">
+        <v>91</v>
       </c>
       <c r="B1" s="11" t="s">
         <v>15</v>
       </c>
       <c r="C1" s="11" t="s">
-        <v>69</v>
+        <v>63</v>
       </c>
       <c r="D1" s="11" t="s">
-        <v>70</v>
+        <v>64</v>
       </c>
       <c r="F1" s="15" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G1" s="14" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8776,13 +8335,13 @@
         <v>35</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C2" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="D2" s="38" t="s">
-        <v>130</v>
+        <v>116</v>
+      </c>
+      <c r="D2" s="30" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8790,13 +8349,13 @@
         <v>37</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>114</v>
-      </c>
-      <c r="D3" s="38" t="s">
-        <v>131</v>
+        <v>106</v>
+      </c>
+      <c r="D3" s="30" t="s">
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8804,12 +8363,12 @@
         <v>38</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="12">
-        <v>446.447</v>
-      </c>
-      <c r="D4" s="39" t="s">
+        <v>65</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D4" s="31" t="s">
         <v>132</v>
       </c>
     </row>
@@ -8818,13 +8377,13 @@
         <v>39</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>117</v>
-      </c>
-      <c r="D5" s="38" t="s">
-        <v>133</v>
+        <v>109</v>
+      </c>
+      <c r="D5" s="30" t="s">
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -8832,13 +8391,13 @@
         <v>40</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C6" s="12" t="s">
-        <v>116</v>
-      </c>
-      <c r="D6" s="39" t="s">
-        <v>134</v>
+        <v>108</v>
+      </c>
+      <c r="D6" s="31" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -8846,76 +8405,76 @@
         <v>41</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C7" s="12" t="s">
-        <v>115</v>
-      </c>
-      <c r="D7" s="39" t="s">
-        <v>135</v>
+        <v>107</v>
+      </c>
+      <c r="D7" s="31" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C8" s="12" t="s">
-        <v>113</v>
-      </c>
-      <c r="D8" s="39" t="s">
-        <v>136</v>
+        <v>105</v>
+      </c>
+      <c r="D8" s="31" t="s">
+        <v>133</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="5" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C9" s="12" t="s">
-        <v>91</v>
-      </c>
-      <c r="D9" s="39" t="s">
-        <v>137</v>
+        <v>84</v>
+      </c>
+      <c r="D9" s="31" t="s">
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="5" t="s">
-        <v>72</v>
+        <v>66</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C10" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="D10" s="38" t="s">
-        <v>74</v>
+        <v>67</v>
+      </c>
+      <c r="D10" s="30" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="5" t="s">
-        <v>97</v>
+        <v>90</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>71</v>
+        <v>65</v>
       </c>
       <c r="C11" s="12" t="s">
+        <v>117</v>
+      </c>
+      <c r="D11" s="31" t="s">
         <v>125</v>
       </c>
-      <c r="D11" s="39" t="s">
-        <v>138</v>
-      </c>
     </row>
     <row r="12" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D12" s="40"/>
+      <c r="D12" s="32"/>
     </row>
     <row r="13" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="D13" s="40"/>
+      <c r="D13" s="32"/>
     </row>
     <row r="14" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="15" spans="1:7" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -9894,18 +9453,18 @@
     </row>
     <row r="2" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>75</v>
+        <v>69</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>76</v>
+        <v>70</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -10919,27 +10478,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -11197,33 +10735,29 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{1CE213DB-5082-48B0-B2A5-099EBF944035}">
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
@@ -11239,4 +10773,35 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
+<clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
+  <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
+</clbl:labelList>
 </file>
--- a/GATEWAY/A1#111#INFOGRAMMASRLX1/INFOGRAMMA/GALENUS/2024.1/report-checklist.xlsx
+++ b/GATEWAY/A1#111#INFOGRAMMASRLX1/INFOGRAMMA/GALENUS/2024.1/report-checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FiercePC\Desktop\Lavoro\ACCREDITAMENTO\CheckList\PULL REQUEST 20250709\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FiercePC\Desktop\Lavoro\ACCREDITAMENTO\CheckList\PULL REQUEST 20250710\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -21,26 +21,12 @@
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$10</definedName>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$29</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$32</definedName>
   </definedNames>
   <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
-    <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId9" roundtripDataChecksum="oXWj5iU3LtnvLpdhFqszSz/X91q3fG5U5zC5TJKtiGw="/>
     </ext>
   </extLst>
 </workbook>
@@ -79,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="203">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -741,6 +727,147 @@
   <si>
     <t>2.16.840.1.113883.2.9.2.10.4.4.8d5e96c54e27de290bf7d214d63b924a6e782888d6dccebea393c0875a5ed28c.cc50fccd5e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_RSA_KO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Precondizioni:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Il fornitore utilizza un token jwt mancante di campi obbligatori, quindi non valido.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt non valido a causa della mancanza di uno o più campi obbligatori al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario non valorizzare nel JWT il campo "purpose_of_use".</t>
+    </r>
+  </si>
+  <si>
+    <t>VALIDAZIONE_TOKEN_JWT_CAMPO_RSA_KO</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>Precondizioni:</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Il fornitore utilizza un token jwt con dei campi valorizzati in maniera errata.
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">Descrizione di Business del caso di test: </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve">
+Viene richiamato il servizio di validazione "https://&lt;HOST&gt;:&lt;PORT&gt;/v&lt;major&gt;/documents/validation" con un token jwt avente dei campi valorizzati in maniera errata al fine di testare la gestione dell'errore sul token (status code 403), secondo quanto descritto in https://github.com/ministero-salute/it-fse-support/tree/main/doc/integrazione-gateway.
+Al fine di rendere non valido il token è necessario valorizzare il campo "action_id" con la stringa "TEST" (valore non ammesso).</t>
+    </r>
+  </si>
+  <si>
+    <t>VALIDAZIONE_RSA_TIMEOUT</t>
+  </si>
+  <si>
+    <t>Per questo caso di test è richiesta la sola descrizione del comportamento a fronte di un timeout, da inserire nelle colonne relative a:
+"ERRORE BLOCCANTE (SI/NO)", "ERRORE VISIBILE A UTENTE (SI/NO)", "MESSAGGIO DI ERRORE", "GESTITO IN BACKOFFICE (SI/NO)", " PRESENTE CODA DI RETRY AUTOMATICA PER L'INVIO DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)",  "INVIO MANUALE DEL DOCUMENTO AL FSE A SEGUITO DELLA RISOLUZIONE DELL'ERRORE (SI/NO)", "GESTIONE ERRORE".</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:23:25Z</t>
+  </si>
+  <si>
+    <t>2025-03-17T21:23:43Z</t>
+  </si>
+  <si>
+    <t>8648531cfa1cf358</t>
+  </si>
+  <si>
+    <t>98ea497cdbd68cdc</t>
+  </si>
+  <si>
+    <t>UNKNOWN_WORKFLOW_ID</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Errore durante la validazione del CDA (FSE)
+Campo token JWT non valido (Il campo purpose_of_use non è valorizzato)
+Contattare al più presto l'assistenza tecnica!
+Sì vuole proseguire con la refertazione?  </t>
+  </si>
+  <si>
+    <t>Errore durante la validazione del CDA (FSE)
+Campo token JWT non valido (Il campo action_id non è corretto)
+Contattare al più presto l'assistenza tecnica!
+Sì vuole proseguire con la refertazione?</t>
+  </si>
+  <si>
+    <t>Errore durante la validazione del CDA (FSE)
+Timeout scaduto durante il tentativo di contattare il servizio 
+Contattare al più presto l'assistenza tecnica!
+Sì vuole proseguire con la refertazione?</t>
+  </si>
+  <si>
+    <t>L'utente riceve un avviso relativo all'errore ma può comunque portare a termine la produzione del referto. Il documento da validare viene aggiunto ad una coda gestita in backoffice. Un'apposita interfaccia consente la gestione 'manuale' di tutti i documenti presenti nella coda di retry.</t>
+  </si>
 </sst>
 </file>
 
@@ -749,11 +876,18 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="d/m/yyyy"/>
   </numFmts>
-  <fonts count="16" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -857,6 +991,14 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1189,155 +1331,185 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="49" fontId="10" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="11" fillId="3" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1" readingOrder="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Normal 2" xfId="1"/>
+    <cellStyle name="Normal 2 2" xfId="2"/>
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="6">
@@ -2782,13 +2954,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:W589"/>
+  <dimension ref="A1:W592"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="B10" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="E7" sqref="E7"/>
+      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -2830,14 +3002,14 @@
       <c r="W1" s="9"/>
     </row>
     <row r="2" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="47" t="s">
+      <c r="A2" s="57" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="48"/>
-      <c r="C2" s="49" t="s">
+      <c r="B2" s="58"/>
+      <c r="C2" s="59" t="s">
         <v>137</v>
       </c>
-      <c r="D2" s="48"/>
+      <c r="D2" s="58"/>
       <c r="F2" s="6"/>
       <c r="G2" s="6"/>
       <c r="H2" s="6"/>
@@ -2858,14 +3030,14 @@
       <c r="W2" s="9"/>
     </row>
     <row r="3" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="50" t="s">
+      <c r="A3" s="60" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="56" t="s">
+      <c r="B3" s="61"/>
+      <c r="C3" s="66" t="s">
         <v>134</v>
       </c>
-      <c r="D3" s="48"/>
+      <c r="D3" s="58"/>
       <c r="F3" s="6"/>
       <c r="G3" s="6"/>
       <c r="H3" s="6"/>
@@ -2886,12 +3058,12 @@
       <c r="W3" s="9"/>
     </row>
     <row r="4" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="52"/>
-      <c r="B4" s="53"/>
-      <c r="C4" s="56" t="s">
+      <c r="A4" s="62"/>
+      <c r="B4" s="63"/>
+      <c r="C4" s="66" t="s">
         <v>135</v>
       </c>
-      <c r="D4" s="48"/>
+      <c r="D4" s="58"/>
       <c r="E4" s="4"/>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
@@ -2913,12 +3085,12 @@
       <c r="W4" s="9"/>
     </row>
     <row r="5" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="54"/>
-      <c r="B5" s="55"/>
-      <c r="C5" s="56" t="s">
+      <c r="A5" s="64"/>
+      <c r="B5" s="65"/>
+      <c r="C5" s="66" t="s">
         <v>136</v>
       </c>
-      <c r="D5" s="48"/>
+      <c r="D5" s="58"/>
       <c r="F5" s="6"/>
       <c r="G5" s="6"/>
       <c r="H5" s="6"/>
@@ -2939,8 +3111,8 @@
       <c r="W5" s="9"/>
     </row>
     <row r="6" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="45"/>
-      <c r="B6" s="46"/>
+      <c r="A6" s="55"/>
+      <c r="B6" s="56"/>
       <c r="C6" s="10"/>
       <c r="F6" s="6"/>
       <c r="G6" s="6"/>
@@ -3075,9 +3247,9 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" s="45" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="33">
-        <v>152</v>
+        <v>32</v>
       </c>
       <c r="B10" s="33" t="s">
         <v>34</v>
@@ -3086,48 +3258,48 @@
         <v>44</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>46</v>
+        <v>188</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>101</v>
-      </c>
-      <c r="F10" s="34">
+        <v>189</v>
+      </c>
+      <c r="F10" s="41">
         <v>45733</v>
       </c>
-      <c r="G10" s="34" t="s">
-        <v>182</v>
-      </c>
-      <c r="H10" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="I10" s="39" t="s">
-        <v>184</v>
-      </c>
-      <c r="J10" s="35" t="s">
+      <c r="G10" s="46" t="s">
+        <v>194</v>
+      </c>
+      <c r="H10" s="48" t="s">
+        <v>196</v>
+      </c>
+      <c r="I10" s="50" t="s">
+        <v>198</v>
+      </c>
+      <c r="J10" s="51" t="s">
         <v>45</v>
       </c>
       <c r="K10" s="35"/>
       <c r="L10" s="35"/>
-      <c r="M10" s="35" t="s">
+      <c r="M10" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="N10" s="35" t="s">
+      <c r="N10" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="O10" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="P10" s="35" t="s">
+      <c r="O10" s="54" t="s">
+        <v>199</v>
+      </c>
+      <c r="P10" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="Q10" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="R10" s="35" t="s">
+      <c r="Q10" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="S10" s="43" t="s">
-        <v>142</v>
+      <c r="R10" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="S10" s="54" t="s">
+        <v>202</v>
       </c>
       <c r="T10" s="35"/>
       <c r="U10" s="36"/>
@@ -3136,9 +3308,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" s="45" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="33">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="B11" s="33" t="s">
         <v>34</v>
@@ -3147,48 +3319,48 @@
         <v>44</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>47</v>
+        <v>190</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>102</v>
-      </c>
-      <c r="F11" s="34">
+        <v>191</v>
+      </c>
+      <c r="F11" s="41">
         <v>45733</v>
       </c>
-      <c r="G11" s="34" t="s">
-        <v>179</v>
-      </c>
-      <c r="H11" s="34" t="s">
-        <v>180</v>
-      </c>
-      <c r="I11" s="39" t="s">
-        <v>181</v>
-      </c>
-      <c r="J11" s="35" t="s">
+      <c r="G11" s="47" t="s">
+        <v>195</v>
+      </c>
+      <c r="H11" s="49" t="s">
+        <v>197</v>
+      </c>
+      <c r="I11" s="52" t="s">
+        <v>198</v>
+      </c>
+      <c r="J11" s="51" t="s">
         <v>45</v>
       </c>
       <c r="K11" s="35"/>
       <c r="L11" s="35"/>
-      <c r="M11" s="35" t="s">
+      <c r="M11" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="N11" s="35" t="s">
+      <c r="N11" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="O11" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="P11" s="35" t="s">
+      <c r="O11" s="54" t="s">
+        <v>200</v>
+      </c>
+      <c r="P11" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="Q11" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="R11" s="35" t="s">
+      <c r="Q11" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="S11" s="43" t="s">
-        <v>142</v>
+      <c r="R11" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="S11" s="54" t="s">
+        <v>202</v>
       </c>
       <c r="T11" s="35"/>
       <c r="U11" s="36"/>
@@ -3197,9 +3369,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="12" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" s="45" customFormat="1" ht="180.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="33">
-        <v>155</v>
+        <v>48</v>
       </c>
       <c r="B12" s="33" t="s">
         <v>34</v>
@@ -3208,51 +3380,47 @@
         <v>44</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>48</v>
+        <v>192</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>103</v>
-      </c>
-      <c r="F12" s="34">
+        <v>193</v>
+      </c>
+      <c r="F12" s="41">
         <v>45733</v>
       </c>
-      <c r="G12" s="34" t="s">
-        <v>167</v>
-      </c>
-      <c r="H12" s="34" t="s">
-        <v>174</v>
-      </c>
-      <c r="I12" s="39" t="s">
-        <v>175</v>
-      </c>
-      <c r="J12" s="35" t="s">
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="51" t="s">
         <v>45</v>
       </c>
       <c r="K12" s="35"/>
       <c r="L12" s="35"/>
-      <c r="M12" s="35" t="s">
+      <c r="M12" s="53" t="s">
         <v>71</v>
       </c>
-      <c r="N12" s="35" t="s">
+      <c r="N12" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="O12" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="P12" s="35" t="s">
+      <c r="O12" s="54" t="s">
+        <v>201</v>
+      </c>
+      <c r="P12" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="Q12" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="R12" s="35" t="s">
+      <c r="Q12" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="S12" s="43" t="s">
-        <v>142</v>
+      <c r="R12" s="53" t="s">
+        <v>45</v>
+      </c>
+      <c r="S12" s="54" t="s">
+        <v>202</v>
       </c>
       <c r="T12" s="35"/>
-      <c r="U12" s="36"/>
+      <c r="U12" s="36" t="s">
+        <v>45</v>
+      </c>
       <c r="V12" s="37"/>
       <c r="W12" s="35" t="s">
         <v>42</v>
@@ -3260,7 +3428,7 @@
     </row>
     <row r="13" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A13" s="33">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B13" s="33" t="s">
         <v>34</v>
@@ -3269,22 +3437,22 @@
         <v>44</v>
       </c>
       <c r="D13" s="33" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="E13" s="40" t="s">
-        <v>104</v>
-      </c>
-      <c r="F13" s="34">
+        <v>101</v>
+      </c>
+      <c r="F13" s="41">
         <v>45733</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>173</v>
+        <v>183</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
       <c r="J13" s="35" t="s">
         <v>45</v>
@@ -3294,11 +3462,11 @@
       <c r="M13" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="N13" s="43" t="s">
+      <c r="N13" s="35" t="s">
         <v>45</v>
       </c>
       <c r="O13" s="43" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="P13" s="35" t="s">
         <v>45</v>
@@ -3321,7 +3489,7 @@
     </row>
     <row r="14" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="33">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>34</v>
@@ -3330,22 +3498,22 @@
         <v>44</v>
       </c>
       <c r="D14" s="33" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E14" s="40" t="s">
-        <v>51</v>
-      </c>
-      <c r="F14" s="34">
+        <v>102</v>
+      </c>
+      <c r="F14" s="41">
         <v>45733</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>169</v>
+        <v>179</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="J14" s="35" t="s">
         <v>45</v>
@@ -3355,11 +3523,11 @@
       <c r="M14" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="N14" s="43" t="s">
+      <c r="N14" s="35" t="s">
         <v>45</v>
       </c>
       <c r="O14" s="43" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="P14" s="35" t="s">
         <v>45</v>
@@ -3382,7 +3550,7 @@
     </row>
     <row r="15" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A15" s="33">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="B15" s="33" t="s">
         <v>34</v>
@@ -3391,22 +3559,22 @@
         <v>44</v>
       </c>
       <c r="D15" s="33" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="E15" s="40" t="s">
-        <v>53</v>
-      </c>
-      <c r="F15" s="34">
+        <v>103</v>
+      </c>
+      <c r="F15" s="41">
         <v>45733</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="J15" s="35" t="s">
         <v>45</v>
@@ -3416,11 +3584,11 @@
       <c r="M15" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="N15" s="43" t="s">
+      <c r="N15" s="35" t="s">
         <v>45</v>
       </c>
       <c r="O15" s="43" t="s">
-        <v>141</v>
+        <v>153</v>
       </c>
       <c r="P15" s="35" t="s">
         <v>45</v>
@@ -3441,9 +3609,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="16" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A16" s="33">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B16" s="33" t="s">
         <v>34</v>
@@ -3452,22 +3620,22 @@
         <v>44</v>
       </c>
       <c r="D16" s="33" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="E16" s="40" t="s">
-        <v>92</v>
-      </c>
-      <c r="F16" s="34">
+        <v>104</v>
+      </c>
+      <c r="F16" s="41">
         <v>45733</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>161</v>
-      </c>
-      <c r="H16" s="44" t="s">
-        <v>164</v>
-      </c>
-      <c r="I16" s="44" t="s">
-        <v>165</v>
+        <v>168</v>
+      </c>
+      <c r="H16" s="34" t="s">
+        <v>173</v>
+      </c>
+      <c r="I16" s="39" t="s">
+        <v>176</v>
       </c>
       <c r="J16" s="35" t="s">
         <v>45</v>
@@ -3477,11 +3645,11 @@
       <c r="M16" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="N16" s="35" t="s">
+      <c r="N16" s="43" t="s">
         <v>45</v>
       </c>
       <c r="O16" s="43" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="P16" s="35" t="s">
         <v>45</v>
@@ -3492,8 +3660,8 @@
       <c r="R16" s="35" t="s">
         <v>45</v>
       </c>
-      <c r="S16" s="34">
-        <v>45733</v>
+      <c r="S16" s="43" t="s">
+        <v>142</v>
       </c>
       <c r="T16" s="35"/>
       <c r="U16" s="36"/>
@@ -3504,7 +3672,7 @@
     </row>
     <row r="17" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="33">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B17" s="33" t="s">
         <v>34</v>
@@ -3513,22 +3681,22 @@
         <v>44</v>
       </c>
       <c r="D17" s="33" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E17" s="40" t="s">
-        <v>93</v>
-      </c>
-      <c r="F17" s="34">
+        <v>51</v>
+      </c>
+      <c r="F17" s="41">
         <v>45733</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>162</v>
+        <v>169</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="J17" s="35" t="s">
         <v>45</v>
@@ -3538,11 +3706,11 @@
       <c r="M17" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="N17" s="35" t="s">
+      <c r="N17" s="43" t="s">
         <v>45</v>
       </c>
       <c r="O17" s="43" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="P17" s="35" t="s">
         <v>45</v>
@@ -3565,7 +3733,7 @@
     </row>
     <row r="18" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="33">
-        <v>163</v>
+        <v>160</v>
       </c>
       <c r="B18" s="33" t="s">
         <v>34</v>
@@ -3574,22 +3742,22 @@
         <v>44</v>
       </c>
       <c r="D18" s="33" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E18" s="40" t="s">
-        <v>94</v>
-      </c>
-      <c r="F18" s="34">
+        <v>53</v>
+      </c>
+      <c r="F18" s="41">
         <v>45733</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>158</v>
+        <v>170</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>159</v>
+        <v>171</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="J18" s="35" t="s">
         <v>45</v>
@@ -3599,11 +3767,11 @@
       <c r="M18" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="N18" s="35" t="s">
+      <c r="N18" s="43" t="s">
         <v>45</v>
       </c>
       <c r="O18" s="43" t="s">
-        <v>153</v>
+        <v>141</v>
       </c>
       <c r="P18" s="35" t="s">
         <v>45</v>
@@ -3626,7 +3794,7 @@
     </row>
     <row r="19" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="33">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="B19" s="33" t="s">
         <v>34</v>
@@ -3635,31 +3803,49 @@
         <v>44</v>
       </c>
       <c r="D19" s="33" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="E19" s="40" t="s">
-        <v>95</v>
-      </c>
-      <c r="F19" s="34"/>
-      <c r="G19" s="34"/>
-      <c r="H19" s="34"/>
-      <c r="I19" s="39"/>
+        <v>92</v>
+      </c>
+      <c r="F19" s="41">
+        <v>45733</v>
+      </c>
+      <c r="G19" s="34" t="s">
+        <v>161</v>
+      </c>
+      <c r="H19" s="44" t="s">
+        <v>164</v>
+      </c>
+      <c r="I19" s="44" t="s">
+        <v>165</v>
+      </c>
       <c r="J19" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K19" s="35"/>
+      <c r="L19" s="35"/>
+      <c r="M19" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="K19" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="L19" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="M19" s="35"/>
-      <c r="N19" s="35"/>
-      <c r="O19" s="35"/>
-      <c r="P19" s="35"/>
-      <c r="Q19" s="35"/>
-      <c r="R19" s="35"/>
-      <c r="S19" s="35"/>
+      <c r="N19" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O19" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="P19" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q19" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R19" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S19" s="34">
+        <v>45733</v>
+      </c>
       <c r="T19" s="35"/>
       <c r="U19" s="36"/>
       <c r="V19" s="37"/>
@@ -3667,9 +3853,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="20" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="33">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="B20" s="33" t="s">
         <v>34</v>
@@ -3678,31 +3864,49 @@
         <v>44</v>
       </c>
       <c r="D20" s="33" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="E20" s="40" t="s">
-        <v>96</v>
-      </c>
-      <c r="F20" s="34"/>
-      <c r="G20" s="34"/>
-      <c r="H20" s="34"/>
-      <c r="I20" s="39"/>
+        <v>93</v>
+      </c>
+      <c r="F20" s="41">
+        <v>45733</v>
+      </c>
+      <c r="G20" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="H20" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="I20" s="39" t="s">
+        <v>166</v>
+      </c>
       <c r="J20" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20" s="35"/>
+      <c r="L20" s="35"/>
+      <c r="M20" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="K20" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="L20" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="M20" s="35"/>
-      <c r="N20" s="35"/>
-      <c r="O20" s="35"/>
-      <c r="P20" s="35"/>
-      <c r="Q20" s="35"/>
-      <c r="R20" s="35"/>
-      <c r="S20" s="35"/>
+      <c r="N20" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O20" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="P20" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q20" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R20" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S20" s="43" t="s">
+        <v>142</v>
+      </c>
       <c r="T20" s="35"/>
       <c r="U20" s="36"/>
       <c r="V20" s="37"/>
@@ -3710,9 +3914,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="21" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="33">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="B21" s="33" t="s">
         <v>34</v>
@@ -3721,31 +3925,49 @@
         <v>44</v>
       </c>
       <c r="D21" s="33" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="E21" s="40" t="s">
-        <v>97</v>
-      </c>
-      <c r="F21" s="34"/>
-      <c r="G21" s="34"/>
-      <c r="H21" s="34"/>
-      <c r="I21" s="39"/>
+        <v>94</v>
+      </c>
+      <c r="F21" s="41">
+        <v>45733</v>
+      </c>
+      <c r="G21" s="34" t="s">
+        <v>158</v>
+      </c>
+      <c r="H21" s="34" t="s">
+        <v>159</v>
+      </c>
+      <c r="I21" s="39" t="s">
+        <v>160</v>
+      </c>
       <c r="J21" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K21" s="35"/>
+      <c r="L21" s="35"/>
+      <c r="M21" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="K21" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="L21" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="M21" s="35"/>
-      <c r="N21" s="35"/>
-      <c r="O21" s="35"/>
-      <c r="P21" s="35"/>
-      <c r="Q21" s="35"/>
-      <c r="R21" s="35"/>
-      <c r="S21" s="35"/>
+      <c r="N21" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O21" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="P21" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q21" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R21" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S21" s="43" t="s">
+        <v>142</v>
+      </c>
       <c r="T21" s="35"/>
       <c r="U21" s="36"/>
       <c r="V21" s="37"/>
@@ -3755,7 +3977,7 @@
     </row>
     <row r="22" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A22" s="33">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B22" s="33" t="s">
         <v>34</v>
@@ -3764,10 +3986,10 @@
         <v>44</v>
       </c>
       <c r="D22" s="33" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="F22" s="34"/>
       <c r="G22" s="34"/>
@@ -3796,9 +4018,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="33">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="B23" s="33" t="s">
         <v>34</v>
@@ -3807,49 +4029,31 @@
         <v>44</v>
       </c>
       <c r="D23" s="33" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="E23" s="40" t="s">
-        <v>99</v>
-      </c>
-      <c r="F23" s="34">
-        <v>45733</v>
-      </c>
-      <c r="G23" s="34" t="s">
-        <v>149</v>
-      </c>
-      <c r="H23" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="I23" s="39" t="s">
-        <v>155</v>
-      </c>
+        <v>96</v>
+      </c>
+      <c r="F23" s="34"/>
+      <c r="G23" s="34"/>
+      <c r="H23" s="34"/>
+      <c r="I23" s="39"/>
       <c r="J23" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="K23" s="35"/>
-      <c r="L23" s="35"/>
-      <c r="M23" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="N23" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="O23" s="43" t="s">
-        <v>156</v>
-      </c>
-      <c r="P23" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q23" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="R23" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S23" s="43" t="s">
-        <v>142</v>
-      </c>
+      <c r="K23" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="L23" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="M23" s="35"/>
+      <c r="N23" s="35"/>
+      <c r="O23" s="35"/>
+      <c r="P23" s="35"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="35"/>
+      <c r="S23" s="35"/>
       <c r="T23" s="35"/>
       <c r="U23" s="36"/>
       <c r="V23" s="37"/>
@@ -3857,9 +4061,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="24" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="33">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B24" s="33" t="s">
         <v>34</v>
@@ -3868,49 +4072,31 @@
         <v>44</v>
       </c>
       <c r="D24" s="33" t="s">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E24" s="40" t="s">
-        <v>100</v>
-      </c>
-      <c r="F24" s="34">
-        <v>45733</v>
-      </c>
-      <c r="G24" s="34" t="s">
-        <v>150</v>
-      </c>
-      <c r="H24" s="34" t="s">
-        <v>151</v>
-      </c>
-      <c r="I24" s="39" t="s">
-        <v>152</v>
-      </c>
+        <v>97</v>
+      </c>
+      <c r="F24" s="34"/>
+      <c r="G24" s="34"/>
+      <c r="H24" s="34"/>
+      <c r="I24" s="39"/>
       <c r="J24" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="K24" s="35"/>
-      <c r="L24" s="35"/>
-      <c r="M24" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="N24" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="O24" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="P24" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q24" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="R24" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S24" s="43" t="s">
-        <v>142</v>
-      </c>
+      <c r="K24" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="L24" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="M24" s="35"/>
+      <c r="N24" s="35"/>
+      <c r="O24" s="35"/>
+      <c r="P24" s="35"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="35"/>
+      <c r="S24" s="35"/>
       <c r="T24" s="35"/>
       <c r="U24" s="36"/>
       <c r="V24" s="37"/>
@@ -3918,9 +4104,9 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="33">
-        <v>448</v>
+        <v>167</v>
       </c>
       <c r="B25" s="33" t="s">
         <v>34</v>
@@ -3929,28 +4115,24 @@
         <v>44</v>
       </c>
       <c r="D25" s="33" t="s">
-        <v>110</v>
+        <v>60</v>
       </c>
       <c r="E25" s="40" t="s">
-        <v>112</v>
-      </c>
-      <c r="F25" s="34">
-        <v>45848</v>
-      </c>
-      <c r="G25" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="H25" s="34" t="s">
-        <v>144</v>
-      </c>
-      <c r="I25" s="39" t="s">
-        <v>145</v>
-      </c>
+        <v>98</v>
+      </c>
+      <c r="F25" s="34"/>
+      <c r="G25" s="34"/>
+      <c r="H25" s="34"/>
+      <c r="I25" s="39"/>
       <c r="J25" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="K25" s="35"/>
-      <c r="L25" s="35"/>
+        <v>71</v>
+      </c>
+      <c r="K25" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="L25" s="43" t="s">
+        <v>157</v>
+      </c>
       <c r="M25" s="35"/>
       <c r="N25" s="35"/>
       <c r="O25" s="35"/>
@@ -3962,12 +4144,12 @@
       <c r="U25" s="36"/>
       <c r="V25" s="37"/>
       <c r="W25" s="35" t="s">
-        <v>36</v>
+        <v>42</v>
       </c>
     </row>
     <row r="26" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="33">
-        <v>449</v>
+        <v>168</v>
       </c>
       <c r="B26" s="33" t="s">
         <v>34</v>
@@ -3976,45 +4158,59 @@
         <v>44</v>
       </c>
       <c r="D26" s="33" t="s">
-        <v>111</v>
+        <v>61</v>
       </c>
       <c r="E26" s="40" t="s">
-        <v>113</v>
-      </c>
-      <c r="F26" s="34">
-        <v>45848</v>
+        <v>99</v>
+      </c>
+      <c r="F26" s="41">
+        <v>45733</v>
       </c>
       <c r="G26" s="34" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="H26" s="34" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
       <c r="I26" s="39" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
       <c r="J26" s="35" t="s">
         <v>45</v>
       </c>
       <c r="K26" s="35"/>
       <c r="L26" s="35"/>
-      <c r="M26" s="35"/>
-      <c r="N26" s="35"/>
-      <c r="O26" s="35"/>
-      <c r="P26" s="35"/>
-      <c r="Q26" s="35"/>
-      <c r="R26" s="35"/>
-      <c r="S26" s="35"/>
+      <c r="M26" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O26" s="43" t="s">
+        <v>156</v>
+      </c>
+      <c r="P26" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q26" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R26" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S26" s="43" t="s">
+        <v>142</v>
+      </c>
       <c r="T26" s="35"/>
       <c r="U26" s="36"/>
       <c r="V26" s="37"/>
       <c r="W26" s="35" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="27" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="33">
-        <v>461</v>
+        <v>169</v>
       </c>
       <c r="B27" s="33" t="s">
         <v>34</v>
@@ -4023,41 +4219,59 @@
         <v>44</v>
       </c>
       <c r="D27" s="33" t="s">
-        <v>115</v>
+        <v>62</v>
       </c>
       <c r="E27" s="40" t="s">
-        <v>114</v>
-      </c>
-      <c r="F27" s="33"/>
-      <c r="G27" s="33"/>
-      <c r="H27" s="33"/>
-      <c r="I27" s="33"/>
+        <v>100</v>
+      </c>
+      <c r="F27" s="41">
+        <v>45733</v>
+      </c>
+      <c r="G27" s="34" t="s">
+        <v>150</v>
+      </c>
+      <c r="H27" s="34" t="s">
+        <v>151</v>
+      </c>
+      <c r="I27" s="39" t="s">
+        <v>152</v>
+      </c>
       <c r="J27" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K27" s="35"/>
+      <c r="L27" s="35"/>
+      <c r="M27" s="35" t="s">
         <v>71</v>
       </c>
-      <c r="K27" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="L27" s="43" t="s">
-        <v>157</v>
-      </c>
-      <c r="M27" s="35"/>
-      <c r="N27" s="35"/>
-      <c r="O27" s="33"/>
-      <c r="P27" s="35"/>
-      <c r="Q27" s="35"/>
-      <c r="R27" s="35"/>
-      <c r="S27" s="33"/>
+      <c r="N27" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O27" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="P27" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q27" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R27" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S27" s="43" t="s">
+        <v>142</v>
+      </c>
       <c r="T27" s="35"/>
-      <c r="U27" s="33"/>
-      <c r="V27" s="33"/>
-      <c r="W27" s="33" t="s">
+      <c r="U27" s="36"/>
+      <c r="V27" s="37"/>
+      <c r="W27" s="35" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="28" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="33">
-        <v>468</v>
+        <v>448</v>
       </c>
       <c r="B28" s="33" t="s">
         <v>34</v>
@@ -4066,59 +4280,45 @@
         <v>44</v>
       </c>
       <c r="D28" s="33" t="s">
-        <v>118</v>
+        <v>110</v>
       </c>
       <c r="E28" s="40" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="F28" s="41">
-        <v>45734</v>
-      </c>
-      <c r="G28" s="42" t="s">
-        <v>138</v>
-      </c>
-      <c r="H28" s="42" t="s">
-        <v>139</v>
+        <v>45848</v>
+      </c>
+      <c r="G28" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="H28" s="34" t="s">
+        <v>144</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="J28" s="35" t="s">
         <v>45</v>
       </c>
       <c r="K28" s="35"/>
-      <c r="L28" s="33"/>
-      <c r="M28" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="N28" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="O28" s="43" t="s">
-        <v>141</v>
-      </c>
-      <c r="P28" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q28" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="R28" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S28" s="43" t="s">
-        <v>142</v>
-      </c>
+      <c r="L28" s="35"/>
+      <c r="M28" s="35"/>
+      <c r="N28" s="35"/>
+      <c r="O28" s="35"/>
+      <c r="P28" s="35"/>
+      <c r="Q28" s="35"/>
+      <c r="R28" s="35"/>
+      <c r="S28" s="35"/>
       <c r="T28" s="35"/>
-      <c r="U28" s="33"/>
-      <c r="V28" s="33"/>
-      <c r="W28" s="33" t="s">
-        <v>42</v>
+      <c r="U28" s="36"/>
+      <c r="V28" s="37"/>
+      <c r="W28" s="35" t="s">
+        <v>36</v>
       </c>
     </row>
     <row r="29" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="33">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="B29" s="33" t="s">
         <v>34</v>
@@ -4127,115 +4327,206 @@
         <v>44</v>
       </c>
       <c r="D29" s="33" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="E29" s="40" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F29" s="41">
-        <v>45733</v>
+        <v>45848</v>
       </c>
       <c r="G29" s="34" t="s">
-        <v>185</v>
+        <v>148</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>186</v>
+        <v>146</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>187</v>
+        <v>147</v>
       </c>
       <c r="J29" s="35" t="s">
         <v>45</v>
       </c>
       <c r="K29" s="35"/>
       <c r="L29" s="35"/>
-      <c r="M29" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="N29" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="O29" s="43" t="s">
-        <v>153</v>
-      </c>
-      <c r="P29" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="Q29" s="35" t="s">
-        <v>71</v>
-      </c>
-      <c r="R29" s="35" t="s">
-        <v>45</v>
-      </c>
-      <c r="S29" s="43" t="s">
-        <v>142</v>
-      </c>
+      <c r="M29" s="35"/>
+      <c r="N29" s="35"/>
+      <c r="O29" s="35"/>
+      <c r="P29" s="35"/>
+      <c r="Q29" s="35"/>
+      <c r="R29" s="35"/>
+      <c r="S29" s="35"/>
       <c r="T29" s="35"/>
       <c r="U29" s="36"/>
       <c r="V29" s="37"/>
       <c r="W29" s="35" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="120.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="33">
+        <v>461</v>
+      </c>
+      <c r="B30" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D30" s="33" t="s">
+        <v>115</v>
+      </c>
+      <c r="E30" s="40" t="s">
+        <v>114</v>
+      </c>
+      <c r="F30" s="33"/>
+      <c r="G30" s="33"/>
+      <c r="H30" s="33"/>
+      <c r="I30" s="33"/>
+      <c r="J30" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="K30" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="L30" s="43" t="s">
+        <v>157</v>
+      </c>
+      <c r="M30" s="35"/>
+      <c r="N30" s="35"/>
+      <c r="O30" s="33"/>
+      <c r="P30" s="35"/>
+      <c r="Q30" s="35"/>
+      <c r="R30" s="35"/>
+      <c r="S30" s="33"/>
+      <c r="T30" s="35"/>
+      <c r="U30" s="33"/>
+      <c r="V30" s="33"/>
+      <c r="W30" s="33" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="30" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F30" s="6"/>
-      <c r="G30" s="6"/>
-      <c r="H30" s="6"/>
-      <c r="I30" s="6"/>
-      <c r="J30" s="7"/>
-      <c r="K30" s="7"/>
-      <c r="L30" s="7"/>
-      <c r="M30" s="7"/>
-      <c r="N30" s="7"/>
-      <c r="O30" s="7"/>
-      <c r="P30" s="7"/>
-      <c r="Q30" s="7"/>
-      <c r="R30" s="7"/>
-      <c r="S30" s="7"/>
-      <c r="T30" s="7"/>
-      <c r="U30" s="8"/>
-      <c r="V30" s="2"/>
-      <c r="W30" s="9"/>
-    </row>
-    <row r="31" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F31" s="6"/>
-      <c r="G31" s="6"/>
-      <c r="H31" s="6"/>
-      <c r="I31" s="6"/>
-      <c r="J31" s="7"/>
-      <c r="K31" s="7"/>
-      <c r="L31" s="7"/>
-      <c r="M31" s="7"/>
-      <c r="N31" s="7"/>
-      <c r="O31" s="7"/>
-      <c r="P31" s="7"/>
-      <c r="Q31" s="7"/>
-      <c r="R31" s="7"/>
-      <c r="S31" s="7"/>
-      <c r="T31" s="7"/>
-      <c r="U31" s="8"/>
-      <c r="V31" s="2"/>
-      <c r="W31" s="9"/>
-    </row>
-    <row r="32" spans="1:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="F32" s="6"/>
-      <c r="G32" s="6"/>
-      <c r="H32" s="6"/>
-      <c r="I32" s="6"/>
-      <c r="J32" s="7"/>
-      <c r="K32" s="7"/>
-      <c r="L32" s="7"/>
-      <c r="M32" s="7"/>
-      <c r="N32" s="7"/>
-      <c r="O32" s="7"/>
-      <c r="P32" s="7"/>
-      <c r="Q32" s="7"/>
-      <c r="R32" s="7"/>
-      <c r="S32" s="7"/>
-      <c r="T32" s="7"/>
-      <c r="U32" s="8"/>
-      <c r="V32" s="2"/>
-      <c r="W32" s="9"/>
+    <row r="31" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="33">
+        <v>468</v>
+      </c>
+      <c r="B31" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C31" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E31" s="40" t="s">
+        <v>119</v>
+      </c>
+      <c r="F31" s="41">
+        <v>45734</v>
+      </c>
+      <c r="G31" s="42" t="s">
+        <v>138</v>
+      </c>
+      <c r="H31" s="42" t="s">
+        <v>139</v>
+      </c>
+      <c r="I31" s="39" t="s">
+        <v>140</v>
+      </c>
+      <c r="J31" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K31" s="35"/>
+      <c r="L31" s="33"/>
+      <c r="M31" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N31" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O31" s="43" t="s">
+        <v>141</v>
+      </c>
+      <c r="P31" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q31" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R31" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S31" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="T31" s="35"/>
+      <c r="U31" s="33"/>
+      <c r="V31" s="33"/>
+      <c r="W31" s="33" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="32" spans="1:23" ht="135.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="33">
+        <v>475</v>
+      </c>
+      <c r="B32" s="33" t="s">
+        <v>34</v>
+      </c>
+      <c r="C32" s="38" t="s">
+        <v>44</v>
+      </c>
+      <c r="D32" s="33" t="s">
+        <v>128</v>
+      </c>
+      <c r="E32" s="40" t="s">
+        <v>130</v>
+      </c>
+      <c r="F32" s="41">
+        <v>45733</v>
+      </c>
+      <c r="G32" s="34" t="s">
+        <v>185</v>
+      </c>
+      <c r="H32" s="34" t="s">
+        <v>186</v>
+      </c>
+      <c r="I32" s="39" t="s">
+        <v>187</v>
+      </c>
+      <c r="J32" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="K32" s="35"/>
+      <c r="L32" s="35"/>
+      <c r="M32" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="N32" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="O32" s="43" t="s">
+        <v>153</v>
+      </c>
+      <c r="P32" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q32" s="35" t="s">
+        <v>71</v>
+      </c>
+      <c r="R32" s="35" t="s">
+        <v>45</v>
+      </c>
+      <c r="S32" s="43" t="s">
+        <v>142</v>
+      </c>
+      <c r="T32" s="35"/>
+      <c r="U32" s="36"/>
+      <c r="V32" s="37"/>
+      <c r="W32" s="35" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="33" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="F33" s="6"/>
@@ -6938,13 +7229,64 @@
       <c r="W167" s="9"/>
     </row>
     <row r="168" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W168" s="7"/>
+      <c r="F168" s="6"/>
+      <c r="G168" s="6"/>
+      <c r="H168" s="6"/>
+      <c r="I168" s="6"/>
+      <c r="J168" s="7"/>
+      <c r="K168" s="7"/>
+      <c r="L168" s="7"/>
+      <c r="M168" s="7"/>
+      <c r="N168" s="7"/>
+      <c r="O168" s="7"/>
+      <c r="P168" s="7"/>
+      <c r="Q168" s="7"/>
+      <c r="R168" s="7"/>
+      <c r="S168" s="7"/>
+      <c r="T168" s="7"/>
+      <c r="U168" s="8"/>
+      <c r="V168" s="2"/>
+      <c r="W168" s="9"/>
     </row>
     <row r="169" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W169" s="7"/>
+      <c r="F169" s="6"/>
+      <c r="G169" s="6"/>
+      <c r="H169" s="6"/>
+      <c r="I169" s="6"/>
+      <c r="J169" s="7"/>
+      <c r="K169" s="7"/>
+      <c r="L169" s="7"/>
+      <c r="M169" s="7"/>
+      <c r="N169" s="7"/>
+      <c r="O169" s="7"/>
+      <c r="P169" s="7"/>
+      <c r="Q169" s="7"/>
+      <c r="R169" s="7"/>
+      <c r="S169" s="7"/>
+      <c r="T169" s="7"/>
+      <c r="U169" s="8"/>
+      <c r="V169" s="2"/>
+      <c r="W169" s="9"/>
     </row>
     <row r="170" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="W170" s="7"/>
+      <c r="F170" s="6"/>
+      <c r="G170" s="6"/>
+      <c r="H170" s="6"/>
+      <c r="I170" s="6"/>
+      <c r="J170" s="7"/>
+      <c r="K170" s="7"/>
+      <c r="L170" s="7"/>
+      <c r="M170" s="7"/>
+      <c r="N170" s="7"/>
+      <c r="O170" s="7"/>
+      <c r="P170" s="7"/>
+      <c r="Q170" s="7"/>
+      <c r="R170" s="7"/>
+      <c r="S170" s="7"/>
+      <c r="T170" s="7"/>
+      <c r="U170" s="8"/>
+      <c r="V170" s="2"/>
+      <c r="W170" s="9"/>
     </row>
     <row r="171" spans="6:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W171" s="7"/>
@@ -8188,13 +8530,22 @@
     <row r="584" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="W584" s="7"/>
     </row>
-    <row r="585" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="586" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
-    <row r="587" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="585" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W585" s="7"/>
+    </row>
+    <row r="586" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W586" s="7"/>
+    </row>
+    <row r="587" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="W587" s="7"/>
+    </row>
     <row r="588" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="589" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="590" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="591" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
+    <row r="592" spans="23:23" ht="14.25" customHeight="1" x14ac:dyDescent="0.25"/>
   </sheetData>
-  <autoFilter ref="A9:W29"/>
+  <autoFilter ref="A9:W32"/>
   <mergeCells count="7">
     <mergeCell ref="A6:B6"/>
     <mergeCell ref="A2:B2"/>
@@ -8204,34 +8555,10 @@
     <mergeCell ref="C4:D4"/>
     <mergeCell ref="C5:D5"/>
   </mergeCells>
-  <phoneticPr fontId="14" type="noConversion"/>
+  <phoneticPr fontId="15" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait"/>
   <legacyDrawing r:id="rId1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="3">
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet1!$B$2:$B$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>M10:N29 P10:R29 J10:J29</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>Sheet1!$A$2:$A$3</xm:f>
-          </x14:formula1>
-          <xm:sqref>T10:T29</xm:sqref>
-        </x14:dataValidation>
-        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1">
-          <x14:formula1>
-            <xm:f>'LISTA VALORI'!$A$2:$A$8</xm:f>
-          </x14:formula1>
-          <xm:sqref>K10:K29</xm:sqref>
-        </x14:dataValidation>
-      </x14:dataValidations>
-    </ext>
-  </extLst>
 </worksheet>
 </file>
 
@@ -10736,6 +11063,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
@@ -10745,15 +11081,6 @@
     <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -10776,6 +11103,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
@@ -10792,14 +11127,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#INFOGRAMMASRLX1/INFOGRAMMA/GALENUS/2024.1/report-checklist.xlsx
+++ b/GATEWAY/A1#111#INFOGRAMMASRLX1/INFOGRAMMA/GALENUS/2024.1/report-checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FiercePC\Desktop\Lavoro\ACCREDITAMENTO\CheckList\PULL REQUEST 20250710\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FiercePC\Desktop\Lavoro\ACCREDITAMENTO\CheckList\PULL REQUEST 20250718\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -23,7 +23,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">Summary!$A$1:$G$10</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">TestCases!$A$9:$W$32</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="152511" iterateDelta="1E-4"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -585,24 +585,6 @@
   </si>
   <si>
     <t>L'utente riceve un avviso relativo all'errore ma può comunque portare a termine la produzione del referto. Un'apposita interfaccia consente la gestione 'manuale' di tutti i documenti con CDA non valido.</t>
-  </si>
-  <si>
-    <t>2025-07-10T09:59:16Z</t>
-  </si>
-  <si>
-    <t>cf5f154f64ca15328454d2b2ea8db942</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.71f77b9e95858bd8a7fd4c446b716ffb78185d6cfaf03245a167336ce498fe1b.4fda728307^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>8e97bb9031773c31faacf265d7e842f0</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.9bb95fa303e38dca68d158cffe0797e78831b166021c326a682f5f2bffa92161.65421bdae8^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-07-10T10:05:50Z</t>
   </si>
   <si>
     <t>2025-03-17T21:27:15Z</t>
@@ -867,6 +849,24 @@
   </si>
   <si>
     <t>L'utente riceve un avviso relativo all'errore ma può comunque portare a termine la produzione del referto. Il documento da validare viene aggiunto ad una coda gestita in backoffice. Un'apposita interfaccia consente la gestione 'manuale' di tutti i documenti presenti nella coda di retry.</t>
+  </si>
+  <si>
+    <t>2025-07-18T11:15:54Z</t>
+  </si>
+  <si>
+    <t>e81dbec2d67a4619b3cfe0020fdc543d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.1ee20b8de8ba2fe3cda249c369ab60751ca3beb72bba04f53eb0ad14d2317481.15eccc4e62^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-18T11:20:34Z</t>
+  </si>
+  <si>
+    <t>ff89d9864390d9aa7467856c067de42b</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.d3da653cd23596a7cc9457b28b38594f324dc167733d0e9c478fe8c0e25c8b9f.3e470f7ed7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2957,10 +2957,10 @@
   <dimension ref="A1:W592"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="C30" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="G32" sqref="G32"/>
+      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -3258,22 +3258,22 @@
         <v>44</v>
       </c>
       <c r="D10" s="33" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="E10" s="40" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="F10" s="41">
         <v>45733</v>
       </c>
       <c r="G10" s="46" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="H10" s="48" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="I10" s="50" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J10" s="51" t="s">
         <v>45</v>
@@ -3287,7 +3287,7 @@
         <v>45</v>
       </c>
       <c r="O10" s="54" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="P10" s="53" t="s">
         <v>45</v>
@@ -3299,7 +3299,7 @@
         <v>45</v>
       </c>
       <c r="S10" s="54" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="T10" s="35"/>
       <c r="U10" s="36"/>
@@ -3319,22 +3319,22 @@
         <v>44</v>
       </c>
       <c r="D11" s="33" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="E11" s="40" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="F11" s="41">
         <v>45733</v>
       </c>
       <c r="G11" s="47" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="H11" s="49" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="I11" s="52" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="J11" s="51" t="s">
         <v>45</v>
@@ -3348,7 +3348,7 @@
         <v>45</v>
       </c>
       <c r="O11" s="54" t="s">
-        <v>200</v>
+        <v>194</v>
       </c>
       <c r="P11" s="53" t="s">
         <v>45</v>
@@ -3360,7 +3360,7 @@
         <v>45</v>
       </c>
       <c r="S11" s="54" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="T11" s="35"/>
       <c r="U11" s="36"/>
@@ -3380,10 +3380,10 @@
         <v>44</v>
       </c>
       <c r="D12" s="33" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="E12" s="40" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="F12" s="41">
         <v>45733</v>
@@ -3403,7 +3403,7 @@
         <v>45</v>
       </c>
       <c r="O12" s="54" t="s">
-        <v>201</v>
+        <v>195</v>
       </c>
       <c r="P12" s="53" t="s">
         <v>45</v>
@@ -3415,7 +3415,7 @@
         <v>45</v>
       </c>
       <c r="S12" s="54" t="s">
-        <v>202</v>
+        <v>196</v>
       </c>
       <c r="T12" s="35"/>
       <c r="U12" s="36" t="s">
@@ -3446,13 +3446,13 @@
         <v>45733</v>
       </c>
       <c r="G13" s="34" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="H13" s="34" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="I13" s="39" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="J13" s="35" t="s">
         <v>45</v>
@@ -3466,7 +3466,7 @@
         <v>45</v>
       </c>
       <c r="O13" s="43" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P13" s="35" t="s">
         <v>45</v>
@@ -3507,13 +3507,13 @@
         <v>45733</v>
       </c>
       <c r="G14" s="34" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="H14" s="34" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="I14" s="39" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="J14" s="35" t="s">
         <v>45</v>
@@ -3527,7 +3527,7 @@
         <v>45</v>
       </c>
       <c r="O14" s="43" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P14" s="35" t="s">
         <v>45</v>
@@ -3568,13 +3568,13 @@
         <v>45733</v>
       </c>
       <c r="G15" s="34" t="s">
-        <v>167</v>
+        <v>161</v>
       </c>
       <c r="H15" s="34" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="I15" s="39" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="J15" s="35" t="s">
         <v>45</v>
@@ -3588,7 +3588,7 @@
         <v>45</v>
       </c>
       <c r="O15" s="43" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P15" s="35" t="s">
         <v>45</v>
@@ -3629,13 +3629,13 @@
         <v>45733</v>
       </c>
       <c r="G16" s="34" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="H16" s="34" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="I16" s="39" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="J16" s="35" t="s">
         <v>45</v>
@@ -3649,7 +3649,7 @@
         <v>45</v>
       </c>
       <c r="O16" s="43" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P16" s="35" t="s">
         <v>45</v>
@@ -3690,13 +3690,13 @@
         <v>45733</v>
       </c>
       <c r="G17" s="34" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="H17" s="34" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="I17" s="39" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="J17" s="35" t="s">
         <v>45</v>
@@ -3751,13 +3751,13 @@
         <v>45733</v>
       </c>
       <c r="G18" s="34" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="H18" s="34" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="I18" s="39" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="J18" s="35" t="s">
         <v>45</v>
@@ -3812,13 +3812,13 @@
         <v>45733</v>
       </c>
       <c r="G19" s="34" t="s">
-        <v>161</v>
+        <v>155</v>
       </c>
       <c r="H19" s="44" t="s">
-        <v>164</v>
+        <v>158</v>
       </c>
       <c r="I19" s="44" t="s">
-        <v>165</v>
+        <v>159</v>
       </c>
       <c r="J19" s="35" t="s">
         <v>45</v>
@@ -3832,7 +3832,7 @@
         <v>45</v>
       </c>
       <c r="O19" s="43" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P19" s="35" t="s">
         <v>45</v>
@@ -3873,13 +3873,13 @@
         <v>45733</v>
       </c>
       <c r="G20" s="34" t="s">
-        <v>162</v>
+        <v>156</v>
       </c>
       <c r="H20" s="34" t="s">
-        <v>163</v>
+        <v>157</v>
       </c>
       <c r="I20" s="39" t="s">
-        <v>166</v>
+        <v>160</v>
       </c>
       <c r="J20" s="35" t="s">
         <v>45</v>
@@ -3893,7 +3893,7 @@
         <v>45</v>
       </c>
       <c r="O20" s="43" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P20" s="35" t="s">
         <v>45</v>
@@ -3934,13 +3934,13 @@
         <v>45733</v>
       </c>
       <c r="G21" s="34" t="s">
-        <v>158</v>
+        <v>152</v>
       </c>
       <c r="H21" s="34" t="s">
-        <v>159</v>
+        <v>153</v>
       </c>
       <c r="I21" s="39" t="s">
-        <v>160</v>
+        <v>154</v>
       </c>
       <c r="J21" s="35" t="s">
         <v>45</v>
@@ -3954,7 +3954,7 @@
         <v>45</v>
       </c>
       <c r="O21" s="43" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P21" s="35" t="s">
         <v>45</v>
@@ -4002,7 +4002,7 @@
         <v>82</v>
       </c>
       <c r="L22" s="43" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M22" s="35"/>
       <c r="N22" s="35"/>
@@ -4045,7 +4045,7 @@
         <v>82</v>
       </c>
       <c r="L23" s="43" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M23" s="35"/>
       <c r="N23" s="35"/>
@@ -4088,7 +4088,7 @@
         <v>82</v>
       </c>
       <c r="L24" s="43" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M24" s="35"/>
       <c r="N24" s="35"/>
@@ -4131,7 +4131,7 @@
         <v>82</v>
       </c>
       <c r="L25" s="43" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M25" s="35"/>
       <c r="N25" s="35"/>
@@ -4167,13 +4167,13 @@
         <v>45733</v>
       </c>
       <c r="G26" s="34" t="s">
+        <v>143</v>
+      </c>
+      <c r="H26" s="34" t="s">
+        <v>148</v>
+      </c>
+      <c r="I26" s="39" t="s">
         <v>149</v>
-      </c>
-      <c r="H26" s="34" t="s">
-        <v>154</v>
-      </c>
-      <c r="I26" s="39" t="s">
-        <v>155</v>
       </c>
       <c r="J26" s="35" t="s">
         <v>45</v>
@@ -4187,7 +4187,7 @@
         <v>45</v>
       </c>
       <c r="O26" s="43" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="P26" s="35" t="s">
         <v>45</v>
@@ -4228,13 +4228,13 @@
         <v>45733</v>
       </c>
       <c r="G27" s="34" t="s">
-        <v>150</v>
+        <v>144</v>
       </c>
       <c r="H27" s="34" t="s">
-        <v>151</v>
+        <v>145</v>
       </c>
       <c r="I27" s="39" t="s">
-        <v>152</v>
+        <v>146</v>
       </c>
       <c r="J27" s="35" t="s">
         <v>45</v>
@@ -4248,7 +4248,7 @@
         <v>45</v>
       </c>
       <c r="O27" s="43" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P27" s="35" t="s">
         <v>45</v>
@@ -4286,16 +4286,16 @@
         <v>112</v>
       </c>
       <c r="F28" s="41">
-        <v>45848</v>
+        <v>45856</v>
       </c>
       <c r="G28" s="34" t="s">
-        <v>143</v>
-      </c>
-      <c r="H28" s="34" t="s">
-        <v>144</v>
+        <v>197</v>
+      </c>
+      <c r="H28" s="49" t="s">
+        <v>198</v>
       </c>
       <c r="I28" s="39" t="s">
-        <v>145</v>
+        <v>199</v>
       </c>
       <c r="J28" s="35" t="s">
         <v>45</v>
@@ -4333,16 +4333,16 @@
         <v>113</v>
       </c>
       <c r="F29" s="41">
-        <v>45848</v>
-      </c>
-      <c r="G29" s="34" t="s">
-        <v>148</v>
+        <v>45856</v>
+      </c>
+      <c r="G29" s="49" t="s">
+        <v>200</v>
       </c>
       <c r="H29" s="34" t="s">
-        <v>146</v>
+        <v>201</v>
       </c>
       <c r="I29" s="39" t="s">
-        <v>147</v>
+        <v>202</v>
       </c>
       <c r="J29" s="35" t="s">
         <v>45</v>
@@ -4390,7 +4390,7 @@
         <v>82</v>
       </c>
       <c r="L30" s="43" t="s">
-        <v>157</v>
+        <v>151</v>
       </c>
       <c r="M30" s="35"/>
       <c r="N30" s="35"/>
@@ -4487,13 +4487,13 @@
         <v>45733</v>
       </c>
       <c r="G32" s="34" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="H32" s="34" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="I32" s="39" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="J32" s="35" t="s">
         <v>45</v>
@@ -4507,7 +4507,7 @@
         <v>45</v>
       </c>
       <c r="O32" s="43" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="P32" s="35" t="s">
         <v>45</v>
@@ -10805,6 +10805,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -11062,28 +11083,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11102,31 +11127,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#INFOGRAMMASRLX1/INFOGRAMMA/GALENUS/2024.1/report-checklist.xlsx
+++ b/GATEWAY/A1#111#INFOGRAMMASRLX1/INFOGRAMMA/GALENUS/2024.1/report-checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FiercePC\Desktop\Lavoro\ACCREDITAMENTO\CheckList\PULL REQUEST 20250718\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FiercePC\Desktop\Lavoro\ACCREDITAMENTO\CheckList\PULL REQUEST 20250718_2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -851,22 +851,22 @@
     <t>L'utente riceve un avviso relativo all'errore ma può comunque portare a termine la produzione del referto. Il documento da validare viene aggiunto ad una coda gestita in backoffice. Un'apposita interfaccia consente la gestione 'manuale' di tutti i documenti presenti nella coda di retry.</t>
   </si>
   <si>
-    <t>2025-07-18T11:15:54Z</t>
-  </si>
-  <si>
-    <t>e81dbec2d67a4619b3cfe0020fdc543d</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.1ee20b8de8ba2fe3cda249c369ab60751ca3beb72bba04f53eb0ad14d2317481.15eccc4e62^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-07-18T11:20:34Z</t>
-  </si>
-  <si>
-    <t>ff89d9864390d9aa7467856c067de42b</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.d3da653cd23596a7cc9457b28b38594f324dc167733d0e9c478fe8c0e25c8b9f.3e470f7ed7^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-07-18T17:25:26Z</t>
+  </si>
+  <si>
+    <t>8c49ceb253bc1ecb72351a8015c711b9</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.14b4b9a12f770c59adaf8adf68457467ca3245a9ca01b43fc98d5657cfc9e823.34f753cdc2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-18T17:30:25Z</t>
+  </si>
+  <si>
+    <t>f9801a2dbbe37c58acc4ab652463fc81</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.7ab71acbdfbfdf19a55665e5fb60f3e8fc35d12dfe25735b75db4a224b8e60d8.0a1c8c6674^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -10805,27 +10805,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -11083,32 +11062,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11127,6 +11102,31 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>

--- a/GATEWAY/A1#111#INFOGRAMMASRLX1/INFOGRAMMA/GALENUS/2024.1/report-checklist.xlsx
+++ b/GATEWAY/A1#111#INFOGRAMMASRLX1/INFOGRAMMA/GALENUS/2024.1/report-checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FiercePC\Desktop\Lavoro\ACCREDITAMENTO\CheckList\PULL REQUEST 20250718_2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FiercePC\Desktop\Lavoro\ACCREDITAMENTO\CheckList\PULL REQUEST 20250721\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -851,22 +851,22 @@
     <t>L'utente riceve un avviso relativo all'errore ma può comunque portare a termine la produzione del referto. Il documento da validare viene aggiunto ad una coda gestita in backoffice. Un'apposita interfaccia consente la gestione 'manuale' di tutti i documenti presenti nella coda di retry.</t>
   </si>
   <si>
-    <t>2025-07-18T17:25:26Z</t>
-  </si>
-  <si>
-    <t>8c49ceb253bc1ecb72351a8015c711b9</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.14b4b9a12f770c59adaf8adf68457467ca3245a9ca01b43fc98d5657cfc9e823.34f753cdc2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-07-18T17:30:25Z</t>
-  </si>
-  <si>
-    <t>f9801a2dbbe37c58acc4ab652463fc81</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.7ab71acbdfbfdf19a55665e5fb60f3e8fc35d12dfe25735b75db4a224b8e60d8.0a1c8c6674^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-07-21T17:27:08Z</t>
+  </si>
+  <si>
+    <t>dfa0b751f2e4161a502f0a7842ab7faf</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.e880080952120b02398717ec34425d66f700d549b05b310318f2443c467194c7.bbb9536e4e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-21T17:34:57Z</t>
+  </si>
+  <si>
+    <t>4fb7ac71520c68ea1ec85172399bdbc5</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.87435f52e9dda75008accd4872ff9ea993f8eb2531470a5fdd1358b7c2bc4d3e.e65e45e038^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
   </si>
 </sst>
 </file>
@@ -2957,10 +2957,10 @@
   <dimension ref="A1:W592"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E27" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="J29" sqref="J29"/>
+      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4286,7 +4286,7 @@
         <v>112</v>
       </c>
       <c r="F28" s="41">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="G28" s="34" t="s">
         <v>197</v>
@@ -4333,7 +4333,7 @@
         <v>113</v>
       </c>
       <c r="F29" s="41">
-        <v>45856</v>
+        <v>45859</v>
       </c>
       <c r="G29" s="49" t="s">
         <v>200</v>
@@ -10805,6 +10805,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100A92AB09DCDF6014AA0D6826BF29E2C8E" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="d4db60622090a1f8a8d506ac1d64a349">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="1e76d14e-d0ce-457c-8343-9b55836d9ead" xmlns:ns3="a56712a3-8dfd-4688-917a-22f0cf513b89" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0a3a9ed8bb952a3d76dd1e2fa3d624b9" ns2:_="" ns3:_="">
     <xsd:import namespace="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
@@ -11062,15 +11071,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -11084,6 +11084,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{ACB08642-5694-4F88-BF6F-98521E3A5E0B}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -11098,14 +11106,6 @@
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#INFOGRAMMASRLX1/INFOGRAMMA/GALENUS/2024.1/report-checklist.xlsx
+++ b/GATEWAY/A1#111#INFOGRAMMASRLX1/INFOGRAMMA/GALENUS/2024.1/report-checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FiercePC\Desktop\Lavoro\ACCREDITAMENTO\CheckList\PULL REQUEST 20250721\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FiercePC\Desktop\Lavoro\ACCREDITAMENTO\CheckList\PULL REQUEST 20250722\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -851,22 +851,22 @@
     <t>L'utente riceve un avviso relativo all'errore ma può comunque portare a termine la produzione del referto. Il documento da validare viene aggiunto ad una coda gestita in backoffice. Un'apposita interfaccia consente la gestione 'manuale' di tutti i documenti presenti nella coda di retry.</t>
   </si>
   <si>
-    <t>2025-07-21T17:27:08Z</t>
-  </si>
-  <si>
-    <t>dfa0b751f2e4161a502f0a7842ab7faf</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.e880080952120b02398717ec34425d66f700d549b05b310318f2443c467194c7.bbb9536e4e^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
-  </si>
-  <si>
-    <t>2025-07-21T17:34:57Z</t>
-  </si>
-  <si>
-    <t>4fb7ac71520c68ea1ec85172399bdbc5</t>
-  </si>
-  <si>
-    <t>2.16.840.1.113883.2.9.2.10.4.4.87435f52e9dda75008accd4872ff9ea993f8eb2531470a5fdd1358b7c2bc4d3e.e65e45e038^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+    <t>2025-07-22T18:44:18Z</t>
+  </si>
+  <si>
+    <t>51bd7f3993efd4a84233a9b1cadcf57d</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.4c0b43a30d017a9b941c5e4265cc2707a66c66df83aee25197427ee57fd25fac.d0dffedee2^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>f5e645359ecb922dbf5f0130adb7c9d6</t>
+  </si>
+  <si>
+    <t>2.16.840.1.113883.2.9.2.10.4.4.df705e8eb391072955543ce786066638c3bad49b2cd35995ec875c899b094f62.3532767e51^^^^urn:ihe:iti:xdw:2013:workflowInstanceId</t>
+  </si>
+  <si>
+    <t>2025-07-22T18:50:51</t>
   </si>
 </sst>
 </file>
@@ -2960,7 +2960,7 @@
       <pane xSplit="1" ySplit="9" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="I29" sqref="I29"/>
+      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4286,7 +4286,7 @@
         <v>112</v>
       </c>
       <c r="F28" s="41">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="G28" s="34" t="s">
         <v>197</v>
@@ -4333,16 +4333,16 @@
         <v>113</v>
       </c>
       <c r="F29" s="41">
-        <v>45859</v>
+        <v>45860</v>
       </c>
       <c r="G29" s="49" t="s">
+        <v>202</v>
+      </c>
+      <c r="H29" s="34" t="s">
         <v>200</v>
       </c>
-      <c r="H29" s="34" t="s">
+      <c r="I29" s="39" t="s">
         <v>201</v>
-      </c>
-      <c r="I29" s="39" t="s">
-        <v>202</v>
       </c>
       <c r="J29" s="35" t="s">
         <v>45</v>
@@ -10805,12 +10805,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11072,21 +11075,27 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11111,18 +11120,9 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>

--- a/GATEWAY/A1#111#INFOGRAMMASRLX1/INFOGRAMMA/GALENUS/2024.1/report-checklist.xlsx
+++ b/GATEWAY/A1#111#INFOGRAMMASRLX1/INFOGRAMMA/GALENUS/2024.1/report-checklist.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FiercePC\Desktop\Lavoro\ACCREDITAMENTO\CheckList\PULL REQUEST 20250722\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\FiercePC\Desktop\Lavoro\ACCREDITAMENTO\CheckList\PULL REQUEST 20250731\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="418" uniqueCount="204">
   <si>
     <t>COME VALORIZZARE LA CHECKLIST (tab TestCases)</t>
   </si>
@@ -867,6 +867,12 @@
   </si>
   <si>
     <t>2025-07-22T18:50:51</t>
+  </si>
+  <si>
+    <t>Errore durante la validazione del CDA (FSE)
+Il documento CDA non è valido (Errore terminologico.) 
+Contattare al più presto l'assistenza tecnica!
+Sì vuole proseguire con la refertazione?</t>
   </si>
 </sst>
 </file>
@@ -2957,10 +2963,10 @@
   <dimension ref="A1:W592"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="9" topLeftCell="E28" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="9" topLeftCell="M31" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
-      <selection pane="bottomRight" activeCell="H29" sqref="H29"/>
+      <selection pane="bottomRight" activeCell="O27" sqref="O27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -4507,7 +4513,7 @@
         <v>45</v>
       </c>
       <c r="O32" s="43" t="s">
-        <v>147</v>
+        <v>203</v>
       </c>
       <c r="P32" s="35" t="s">
         <v>45</v>
@@ -10805,15 +10811,12 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -11075,27 +11078,21 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="a56712a3-8dfd-4688-917a-22f0cf513b89" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <UserStoryALM xmlns="1e76d14e-d0ce-457c-8343-9b55836d9ead" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
-    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
@@ -11120,9 +11117,18 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9413B232-C823-4C2A-B920-858F3EB4F277}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6C4C806F-EC4E-4231-9462-6D32094C4603}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="a56712a3-8dfd-4688-917a-22f0cf513b89"/>
+    <ds:schemaRef ds:uri="1e76d14e-d0ce-457c-8343-9b55836d9ead"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
